--- a/Banco de dados.xlsx
+++ b/Banco de dados.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="CB" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -53,31 +53,18 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="0"/>
-      <color rgb="FF000000"/>
-      <sz val="8"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -88,13 +75,6 @@
     <border>
       <left style="thin"/>
       <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -116,7 +96,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -126,45 +109,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -535,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2871"/>
+  <dimension ref="A1:C2872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,17 +497,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>CB</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Tipo</t>
         </is>
@@ -43149,6 +43102,21 @@
       <c r="C2871" t="inlineStr">
         <is>
           <t>Alimentos (volume)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" t="n">
+        <v>7896527702618</v>
+      </c>
+      <c r="B2872" t="inlineStr">
+        <is>
+          <t>Lava roupas (800g)</t>
+        </is>
+      </c>
+      <c r="C2872" t="inlineStr">
+        <is>
+          <t>Alimentos (peso)</t>
         </is>
       </c>
     </row>
@@ -43163,7 +43131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B403"/>
+  <dimension ref="A1:B404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43172,4035 +43140,4045 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>kg/embalagem</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Abacaxi em Calda (820g)</t>
         </is>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" t="n">
         <v>0.82</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Abacaxi em Calda (830g)</t>
         </is>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" t="n">
         <v>0.83</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Achocolatado (1,1kg)</t>
         </is>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" t="n">
         <v>1.1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Achocolatado (100g)</t>
         </is>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Achocolatado (1kg)</t>
         </is>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Achocolatado (200g)</t>
         </is>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Achocolatado (300g)</t>
         </is>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Achocolatado (370g)</t>
         </is>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" t="n">
         <v>0.37</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Achocolatado (400g)</t>
         </is>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Achocolatado (500g)</t>
         </is>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Achocolatado (600g)</t>
         </is>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Achocolatado (800g)</t>
         </is>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Achocolatado (900g)</t>
         </is>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Açúcar (1kg)</t>
         </is>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Açúcar (2kg)</t>
         </is>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Açúcar (300g)</t>
         </is>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Açúcar (500g)</t>
         </is>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Açúcar (5kg)</t>
         </is>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Amendoim (27g)</t>
         </is>
       </c>
-      <c r="B20" s="11" t="n">
+      <c r="B20" t="n">
         <v>0.027</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Amendoim (500g)</t>
         </is>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="B21" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Amido de Milho (150g)</t>
         </is>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B22" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Amido de Milho (200g)</t>
         </is>
       </c>
-      <c r="B23" s="11" t="n">
+      <c r="B23" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Amido de Milho (500g)</t>
         </is>
       </c>
-      <c r="B24" s="11" t="n">
+      <c r="B24" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Arroz (1kg)</t>
         </is>
       </c>
-      <c r="B25" s="11" t="n">
+      <c r="B25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Arroz (2kg)</t>
         </is>
       </c>
-      <c r="B26" s="11" t="n">
+      <c r="B26" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Arroz (5kg)</t>
         </is>
       </c>
-      <c r="B27" s="11" t="n">
+      <c r="B27" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Arroz Doce (175g)</t>
         </is>
       </c>
-      <c r="B28" s="11" t="n">
+      <c r="B28" t="n">
         <v>0.175</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Arroz integral (1kg)</t>
         </is>
       </c>
-      <c r="B29" s="11" t="n">
+      <c r="B29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Arroz integral (500g)</t>
         </is>
       </c>
-      <c r="B30" s="11" t="n">
+      <c r="B30" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Atum (170g)</t>
         </is>
       </c>
-      <c r="B31" s="11" t="n">
+      <c r="B31" t="n">
         <v>0.17</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Atum (325g)</t>
         </is>
       </c>
-      <c r="B32" s="11" t="n">
+      <c r="B32" t="n">
         <v>0.325</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Atum Lata (140g)</t>
         </is>
       </c>
-      <c r="B33" s="11" t="n">
+      <c r="B33" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Aveia (170g)</t>
         </is>
       </c>
-      <c r="B34" s="11" t="n">
+      <c r="B34" t="n">
         <v>0.17</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Aveia (200g)</t>
         </is>
       </c>
-      <c r="B35" s="11" t="n">
+      <c r="B35" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Aveia (500g)</t>
         </is>
       </c>
-      <c r="B36" s="11" t="n">
+      <c r="B36" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Azeitona (100g)</t>
         </is>
       </c>
-      <c r="B37" s="11" t="n">
+      <c r="B37" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Azeitona (120g)</t>
         </is>
       </c>
-      <c r="B38" s="11" t="n">
+      <c r="B38" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Azeitona (150g)</t>
         </is>
       </c>
-      <c r="B39" s="11" t="n">
+      <c r="B39" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Azeitona (160g)</t>
         </is>
       </c>
-      <c r="B40" s="11" t="n">
+      <c r="B40" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Azeitona (1kg)</t>
         </is>
       </c>
-      <c r="B41" s="11" t="n">
+      <c r="B41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="11" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>Azeitona (270g)</t>
         </is>
       </c>
-      <c r="B42" s="11" t="n">
+      <c r="B42" t="n">
         <v>0.27</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>Azeitona (280g)</t>
         </is>
       </c>
-      <c r="B43" s="11" t="n">
+      <c r="B43" t="n">
         <v>0.28</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>Azeitona (50g)</t>
         </is>
       </c>
-      <c r="B44" s="11" t="n">
+      <c r="B44" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>Bala de Goma (20g)</t>
         </is>
       </c>
-      <c r="B45" s="11" t="n">
+      <c r="B45" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="inlineStr">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Bala Pacote (150g)</t>
         </is>
       </c>
-      <c r="B46" s="11" t="n">
+      <c r="B46" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="inlineStr">
+      <c r="A47" t="inlineStr">
         <is>
           <t>Bala Pacote (200g)</t>
         </is>
       </c>
-      <c r="B47" s="11" t="n">
+      <c r="B47" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="inlineStr">
+      <c r="A48" t="inlineStr">
         <is>
           <t>Bala Pacote (250g)</t>
         </is>
       </c>
-      <c r="B48" s="11" t="n">
+      <c r="B48" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="inlineStr">
+      <c r="A49" t="inlineStr">
         <is>
           <t>Bala Pacote (300g)</t>
         </is>
       </c>
-      <c r="B49" s="11" t="n">
+      <c r="B49" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t>Bala Pacote (500g)</t>
         </is>
       </c>
-      <c r="B50" s="11" t="n">
+      <c r="B50" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="inlineStr">
+      <c r="A51" t="inlineStr">
         <is>
           <t>Bala Pacote (600g)</t>
         </is>
       </c>
-      <c r="B51" s="11" t="n">
+      <c r="B51" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="inlineStr">
+      <c r="A52" t="inlineStr">
         <is>
           <t>Bala Pacote (70g)</t>
         </is>
       </c>
-      <c r="B52" s="11" t="n">
+      <c r="B52" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="inlineStr">
+      <c r="A53" t="inlineStr">
         <is>
           <t>Base para Sorvete (80g)</t>
         </is>
       </c>
-      <c r="B53" s="11" t="n">
+      <c r="B53" t="n">
         <v>0.08</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="inlineStr">
+      <c r="A54" t="inlineStr">
         <is>
           <t>Batata Palha (120g)</t>
         </is>
       </c>
-      <c r="B54" s="11" t="n">
+      <c r="B54" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="11" t="inlineStr">
+      <c r="A55" t="inlineStr">
         <is>
           <t>Batata Palha (140g)</t>
         </is>
       </c>
-      <c r="B55" s="11" t="n">
+      <c r="B55" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="11" t="inlineStr">
+      <c r="A56" t="inlineStr">
         <is>
           <t>Batata Palha (1kg)</t>
         </is>
       </c>
-      <c r="B56" s="11" t="n">
+      <c r="B56" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="inlineStr">
+      <c r="A57" t="inlineStr">
         <is>
           <t>Batata Palha (200g)</t>
         </is>
       </c>
-      <c r="B57" s="11" t="n">
+      <c r="B57" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="inlineStr">
+      <c r="A58" t="inlineStr">
         <is>
           <t>Batata Palha (400g)</t>
         </is>
       </c>
-      <c r="B58" s="11" t="n">
+      <c r="B58" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="inlineStr">
+      <c r="A59" t="inlineStr">
         <is>
           <t>Bife Vegetal (400g)</t>
         </is>
       </c>
-      <c r="B59" s="11" t="n">
+      <c r="B59" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="inlineStr">
+      <c r="A60" t="inlineStr">
         <is>
           <t>Biscoito de Polvilho Doce (100g)</t>
         </is>
       </c>
-      <c r="B60" s="11" t="n">
+      <c r="B60" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="inlineStr">
+      <c r="A61" t="inlineStr">
         <is>
           <t>Biscoito de Polvilho Salgado (100g)</t>
         </is>
       </c>
-      <c r="B61" s="11" t="n">
+      <c r="B61" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="inlineStr">
+      <c r="A62" t="inlineStr">
         <is>
           <t>Biscoito de Polvinho Doce (300g)</t>
         </is>
       </c>
-      <c r="B62" s="11" t="n">
+      <c r="B62" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="inlineStr">
+      <c r="A63" t="inlineStr">
         <is>
           <t>Biscoito de Polvinho Salgado (300g)</t>
         </is>
       </c>
-      <c r="B63" s="11" t="n">
+      <c r="B63" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="inlineStr">
+      <c r="A64" t="inlineStr">
         <is>
           <t>Biscoito Doce (140g)</t>
         </is>
       </c>
-      <c r="B64" s="11" t="n">
+      <c r="B64" t="n">
         <v>0.145</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="inlineStr">
+      <c r="A65" t="inlineStr">
         <is>
           <t>Biscoito Doce (140g)</t>
         </is>
       </c>
-      <c r="B65" s="11" t="n">
+      <c r="B65" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="inlineStr">
+      <c r="A66" t="inlineStr">
         <is>
           <t>Biscoito Doce (170g)</t>
         </is>
       </c>
-      <c r="B66" s="11" t="n">
+      <c r="B66" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="inlineStr">
+      <c r="A67" t="inlineStr">
         <is>
           <t>Biscoito Doce (200g)</t>
         </is>
       </c>
-      <c r="B67" s="11" t="n">
+      <c r="B67" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="11" t="inlineStr">
+      <c r="A68" t="inlineStr">
         <is>
           <t>Biscoito Doce (300g)</t>
         </is>
       </c>
-      <c r="B68" s="11" t="n">
+      <c r="B68" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="11" t="inlineStr">
+      <c r="A69" t="inlineStr">
         <is>
           <t>Biscoito Doce (330g)</t>
         </is>
       </c>
-      <c r="B69" s="11" t="n">
+      <c r="B69" t="n">
         <v>0.33</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="11" t="inlineStr">
+      <c r="A70" t="inlineStr">
         <is>
           <t>Biscoito Doce (350g)</t>
         </is>
       </c>
-      <c r="B70" s="11" t="n">
+      <c r="B70" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="11" t="inlineStr">
+      <c r="A71" t="inlineStr">
         <is>
           <t>Biscoito Doce (360g)</t>
         </is>
       </c>
-      <c r="B71" s="11" t="n">
+      <c r="B71" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="11" t="inlineStr">
+      <c r="A72" t="inlineStr">
         <is>
           <t>Biscoito Doce (375g)</t>
         </is>
       </c>
-      <c r="B72" s="11" t="n">
+      <c r="B72" t="n">
         <v>0.375</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="11" t="inlineStr">
+      <c r="A73" t="inlineStr">
         <is>
           <t>Biscoito Doce (400g)</t>
         </is>
       </c>
-      <c r="B73" s="11" t="n">
+      <c r="B73" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="11" t="inlineStr">
+      <c r="A74" t="inlineStr">
         <is>
           <t>Biscoito Doce (500g)</t>
         </is>
       </c>
-      <c r="B74" s="11" t="n">
+      <c r="B74" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="11" t="inlineStr">
+      <c r="A75" t="inlineStr">
         <is>
           <t>Biscoito Doce (60g)</t>
         </is>
       </c>
-      <c r="B75" s="11" t="n">
+      <c r="B75" t="n">
         <v>0.06</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="11" t="inlineStr">
+      <c r="A76" t="inlineStr">
         <is>
           <t>Biscoito Doce (90g)</t>
         </is>
       </c>
-      <c r="B76" s="11" t="n">
+      <c r="B76" t="n">
         <v>0.09</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="11" t="inlineStr">
+      <c r="A77" t="inlineStr">
         <is>
           <t>Biscoito Maisena (400g)</t>
         </is>
       </c>
-      <c r="B77" s="11" t="n">
+      <c r="B77" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="11" t="inlineStr">
+      <c r="A78" t="inlineStr">
         <is>
           <t>Biscoito Salgado (100g)</t>
         </is>
       </c>
-      <c r="B78" s="11" t="n">
+      <c r="B78" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="11" t="inlineStr">
+      <c r="A79" t="inlineStr">
         <is>
           <t>Biscoito Salgado (110g)</t>
         </is>
       </c>
-      <c r="B79" s="11" t="n">
+      <c r="B79" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="11" t="inlineStr">
+      <c r="A80" t="inlineStr">
         <is>
           <t>Biscoito Salgado (126g)</t>
         </is>
       </c>
-      <c r="B80" s="11" t="n">
+      <c r="B80" t="n">
         <v>0.126</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="11" t="inlineStr">
+      <c r="A81" t="inlineStr">
         <is>
           <t>Biscoito Salgado (140g)</t>
         </is>
       </c>
-      <c r="B81" s="11" t="n">
+      <c r="B81" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="11" t="inlineStr">
+      <c r="A82" t="inlineStr">
         <is>
           <t>Biscoito Salgado (145g)</t>
         </is>
       </c>
-      <c r="B82" s="11" t="n">
+      <c r="B82" t="n">
         <v>0.145</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="11" t="inlineStr">
+      <c r="A83" t="inlineStr">
         <is>
           <t>Biscoito Salgado (150g)</t>
         </is>
       </c>
-      <c r="B83" s="11" t="n">
+      <c r="B83" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="11" t="inlineStr">
+      <c r="A84" t="inlineStr">
         <is>
           <t>Biscoito Salgado (160g)</t>
         </is>
       </c>
-      <c r="B84" s="11" t="n">
+      <c r="B84" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="11" t="inlineStr">
+      <c r="A85" t="inlineStr">
         <is>
           <t>Biscoito Salgado (170g)</t>
         </is>
       </c>
-      <c r="B85" s="11" t="n">
+      <c r="B85" t="n">
         <v>0.17</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="11" t="inlineStr">
+      <c r="A86" t="inlineStr">
         <is>
           <t>Biscoito Salgado (200g)</t>
         </is>
       </c>
-      <c r="B86" s="11" t="n">
+      <c r="B86" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="11" t="inlineStr">
+      <c r="A87" t="inlineStr">
         <is>
           <t>Biscoito Salgado (27g)</t>
         </is>
       </c>
-      <c r="B87" s="11" t="n">
+      <c r="B87" t="n">
         <v>0.027</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="11" t="inlineStr">
+      <c r="A88" t="inlineStr">
         <is>
           <t>Biscoito Salgado (360g)</t>
         </is>
       </c>
-      <c r="B88" s="11" t="n">
+      <c r="B88" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="11" t="inlineStr">
+      <c r="A89" t="inlineStr">
         <is>
           <t>Biscoito Salgado (375g)</t>
         </is>
       </c>
-      <c r="B89" s="11" t="n">
+      <c r="B89" t="n">
         <v>0.375</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="11" t="inlineStr">
+      <c r="A90" t="inlineStr">
         <is>
           <t>Biscoito Salgado (400g)</t>
         </is>
       </c>
-      <c r="B90" s="11" t="n">
+      <c r="B90" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="11" t="inlineStr">
+      <c r="A91" t="inlineStr">
         <is>
           <t>Biscoito Salgado (500g)</t>
         </is>
       </c>
-      <c r="B91" s="11" t="n">
+      <c r="B91" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="11" t="inlineStr">
+      <c r="A92" t="inlineStr">
         <is>
           <t>Biscoito Salgado (80g)</t>
         </is>
       </c>
-      <c r="B92" s="11" t="n">
+      <c r="B92" t="n">
         <v>0.08</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="11" t="inlineStr">
+      <c r="A93" t="inlineStr">
         <is>
           <t>Biscoito Salgado (90g)</t>
         </is>
       </c>
-      <c r="B93" s="11" t="n">
+      <c r="B93" t="n">
         <v>0.09</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="11" t="inlineStr">
+      <c r="A94" t="inlineStr">
         <is>
           <t>Bisnaguinha (300g)</t>
         </is>
       </c>
-      <c r="B94" s="11" t="n">
+      <c r="B94" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="11" t="inlineStr">
+      <c r="A95" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheada (122g)</t>
         </is>
       </c>
-      <c r="B95" s="11" t="n">
+      <c r="B95" t="n">
         <v>0.122</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="11" t="inlineStr">
+      <c r="A96" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (100g)</t>
         </is>
       </c>
-      <c r="B96" s="11" t="n">
+      <c r="B96" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="11" t="inlineStr">
+      <c r="A97" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (110g)</t>
         </is>
       </c>
-      <c r="B97" s="11" t="n">
+      <c r="B97" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="11" t="inlineStr">
+      <c r="A98" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (112g)</t>
         </is>
       </c>
-      <c r="B98" s="11" t="n">
+      <c r="B98" t="n">
         <v>0.112</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="11" t="inlineStr">
+      <c r="A99" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (115g)</t>
         </is>
       </c>
-      <c r="B99" s="11" t="n">
+      <c r="B99" t="n">
         <v>0.115</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="11" t="inlineStr">
+      <c r="A100" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (120g)</t>
         </is>
       </c>
-      <c r="B100" s="11" t="n">
+      <c r="B100" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="11" t="inlineStr">
+      <c r="A101" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (126g)</t>
         </is>
       </c>
-      <c r="B101" s="11" t="n">
+      <c r="B101" t="n">
         <v>0.126</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="11" t="inlineStr">
+      <c r="A102" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (130g)</t>
         </is>
       </c>
-      <c r="B102" s="11" t="n">
+      <c r="B102" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="11" t="inlineStr">
+      <c r="A103" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (135g)</t>
         </is>
       </c>
-      <c r="B103" s="11" t="n">
+      <c r="B103" t="n">
         <v>0.135</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="11" t="inlineStr">
+      <c r="A104" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (140g)</t>
         </is>
       </c>
-      <c r="B104" s="11" t="n">
+      <c r="B104" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="11" t="inlineStr">
+      <c r="A105" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (145g)</t>
         </is>
       </c>
-      <c r="B105" s="11" t="n">
+      <c r="B105" t="n">
         <v>0.145</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="11" t="inlineStr">
+      <c r="A106" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (150g)</t>
         </is>
       </c>
-      <c r="B106" s="11" t="n">
+      <c r="B106" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="11" t="inlineStr">
+      <c r="A107" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (160g)</t>
         </is>
       </c>
-      <c r="B107" s="11" t="n">
+      <c r="B107" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="11" t="inlineStr">
+      <c r="A108" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (250g)</t>
         </is>
       </c>
-      <c r="B108" s="11" t="n">
+      <c r="B108" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="11" t="inlineStr">
+      <c r="A109" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (375g)</t>
         </is>
       </c>
-      <c r="B109" s="11" t="n">
+      <c r="B109" t="n">
         <v>0.375</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="11" t="inlineStr">
+      <c r="A110" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (80g)</t>
         </is>
       </c>
-      <c r="B110" s="11" t="n">
+      <c r="B110" t="n">
         <v>0.08</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="11" t="inlineStr">
+      <c r="A111" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (90g)</t>
         </is>
       </c>
-      <c r="B111" s="11" t="n">
+      <c r="B111" t="n">
         <v>0.09</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="11" t="inlineStr">
+      <c r="A112" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (90g)</t>
         </is>
       </c>
-      <c r="B112" s="11" t="n">
+      <c r="B112" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="11" t="inlineStr">
+      <c r="A113" t="inlineStr">
         <is>
           <t>Bolacha Maizena (350g)</t>
         </is>
       </c>
-      <c r="B113" s="11" t="n">
+      <c r="B113" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="11" t="inlineStr">
+      <c r="A114" t="inlineStr">
         <is>
           <t>Bolacha Salg (144g)</t>
         </is>
       </c>
-      <c r="B114" s="11" t="n">
+      <c r="B114" t="n">
         <v>0.144</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="11" t="inlineStr">
+      <c r="A115" t="inlineStr">
         <is>
           <t>Bolacha Salg Recheio (100g)</t>
         </is>
       </c>
-      <c r="B115" s="11" t="n">
+      <c r="B115" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="11" t="inlineStr">
+      <c r="A116" t="inlineStr">
         <is>
           <t>Bolacha Salg Recheio (110g)</t>
         </is>
       </c>
-      <c r="B116" s="11" t="n">
+      <c r="B116" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="11" t="inlineStr">
+      <c r="A117" t="inlineStr">
         <is>
           <t>Bolacha Salg Recheio (140g)</t>
         </is>
       </c>
-      <c r="B117" s="11" t="n">
+      <c r="B117" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="11" t="inlineStr">
+      <c r="A118" t="inlineStr">
         <is>
           <t>Bolacha Salg Recheio (145g)</t>
         </is>
       </c>
-      <c r="B118" s="11" t="n">
+      <c r="B118" t="n">
         <v>0.145</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="11" t="inlineStr">
+      <c r="A119" t="inlineStr">
         <is>
           <t>Bolacha Salg Recheio (80g)</t>
         </is>
       </c>
-      <c r="B119" s="11" t="n">
+      <c r="B119" t="n">
         <v>0.08</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="11" t="inlineStr">
+      <c r="A120" t="inlineStr">
         <is>
           <t>Bolinho (35g)</t>
         </is>
       </c>
-      <c r="B120" s="11" t="n">
+      <c r="B120" t="n">
         <v>0.035</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="11" t="inlineStr">
+      <c r="A121" t="inlineStr">
         <is>
           <t>Bolo (100g)</t>
         </is>
       </c>
-      <c r="B121" s="11" t="n">
+      <c r="B121" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="11" t="inlineStr">
+      <c r="A122" t="inlineStr">
         <is>
           <t>Bolo (300g)</t>
         </is>
       </c>
-      <c r="B122" s="11" t="n">
+      <c r="B122" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="11" t="inlineStr">
+      <c r="A123" t="inlineStr">
         <is>
           <t>Bolo (380g)</t>
         </is>
       </c>
-      <c r="B123" s="11" t="n">
+      <c r="B123" t="n">
         <v>0.38</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="11" t="inlineStr">
+      <c r="A124" t="inlineStr">
         <is>
           <t>Bolo (400g)</t>
         </is>
       </c>
-      <c r="B124" s="11" t="n">
+      <c r="B124" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="11" t="inlineStr">
+      <c r="A125" t="inlineStr">
         <is>
           <t>Bolo (450g)</t>
         </is>
       </c>
-      <c r="B125" s="11" t="n">
+      <c r="B125" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="11" t="inlineStr">
+      <c r="A126" t="inlineStr">
         <is>
           <t>Bolo de Caneca (70g)</t>
         </is>
       </c>
-      <c r="B126" s="11" t="n">
+      <c r="B126" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="11" t="inlineStr">
+      <c r="A127" t="inlineStr">
         <is>
           <t>Bolo Pronto (250g)</t>
         </is>
       </c>
-      <c r="B127" s="11" t="n">
+      <c r="B127" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="11" t="inlineStr">
+      <c r="A128" t="inlineStr">
         <is>
           <t>Bombom de Cereja (94g)</t>
         </is>
       </c>
-      <c r="B128" s="11" t="n">
+      <c r="B128" t="n">
         <v>0.094</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="11" t="inlineStr">
+      <c r="A129" t="inlineStr">
         <is>
           <t>Bombons sortidos (250g)</t>
         </is>
       </c>
-      <c r="B129" s="11" t="n">
+      <c r="B129" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="11" t="inlineStr">
+      <c r="A130" t="inlineStr">
         <is>
           <t>Café (1kg)</t>
         </is>
       </c>
-      <c r="B130" s="11" t="n">
+      <c r="B130" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="11" t="inlineStr">
+      <c r="A131" t="inlineStr">
         <is>
           <t>Café (250g)</t>
         </is>
       </c>
-      <c r="B131" s="11" t="n">
+      <c r="B131" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="11" t="inlineStr">
+      <c r="A132" t="inlineStr">
         <is>
           <t>Café (500g)</t>
         </is>
       </c>
-      <c r="B132" s="11" t="n">
+      <c r="B132" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="11" t="inlineStr">
+      <c r="A133" t="inlineStr">
         <is>
           <t>Café Solúvel (50g)</t>
         </is>
       </c>
-      <c r="B133" s="11" t="n">
+      <c r="B133" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="11" t="inlineStr">
+      <c r="A134" t="inlineStr">
         <is>
           <t>Caixa de Bombons (300g)</t>
         </is>
       </c>
-      <c r="B134" s="11" t="n">
+      <c r="B134" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="11" t="inlineStr">
+      <c r="A135" t="inlineStr">
         <is>
           <t>Caldo de Carne (19g)</t>
         </is>
       </c>
-      <c r="B135" s="11" t="n">
+      <c r="B135" t="n">
         <v>0.019</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="11" t="inlineStr">
+      <c r="A136" t="inlineStr">
         <is>
           <t>Caldo Galinha (50g)</t>
         </is>
       </c>
-      <c r="B136" s="11" t="n">
+      <c r="B136" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="11" t="inlineStr">
+      <c r="A137" t="inlineStr">
         <is>
           <t>Caldo Knorr (114g)</t>
         </is>
       </c>
-      <c r="B137" s="11" t="n">
+      <c r="B137" t="n">
         <v>0.114</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="11" t="inlineStr">
+      <c r="A138" t="inlineStr">
         <is>
           <t>Caldo Verde (17g)</t>
         </is>
       </c>
-      <c r="B138" s="11" t="n">
+      <c r="B138" t="n">
         <v>0.017</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="11" t="inlineStr">
+      <c r="A139" t="inlineStr">
         <is>
           <t>Canjica (500g)</t>
         </is>
       </c>
-      <c r="B139" s="11" t="n">
+      <c r="B139" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="11" t="inlineStr">
+      <c r="A140" t="inlineStr">
         <is>
           <t>Cappuccino (200g)</t>
         </is>
       </c>
-      <c r="B140" s="11" t="n">
+      <c r="B140" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="11" t="inlineStr">
+      <c r="A141" t="inlineStr">
         <is>
           <t>Cappuccino (20g)</t>
         </is>
       </c>
-      <c r="B141" s="11" t="n">
+      <c r="B141" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="11" t="inlineStr">
+      <c r="A142" t="inlineStr">
         <is>
           <t>Cereal (120g)</t>
         </is>
       </c>
-      <c r="B142" s="11" t="n">
+      <c r="B142" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="11" t="inlineStr">
+      <c r="A143" t="inlineStr">
         <is>
           <t>Cereal Infantil (230g)</t>
         </is>
       </c>
-      <c r="B143" s="11" t="n">
+      <c r="B143" t="n">
         <v>0.23</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="11" t="inlineStr">
+      <c r="A144" t="inlineStr">
         <is>
           <t>Cevada (500g)</t>
         </is>
       </c>
-      <c r="B144" s="11" t="n">
+      <c r="B144" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="11" t="inlineStr">
+      <c r="A145" t="inlineStr">
         <is>
           <t>Chá (100g)</t>
         </is>
       </c>
-      <c r="B145" s="11" t="n">
+      <c r="B145" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="11" t="inlineStr">
+      <c r="A146" t="inlineStr">
         <is>
           <t>Chá (12g)</t>
         </is>
       </c>
-      <c r="B146" s="11" t="n">
+      <c r="B146" t="n">
         <v>0.012</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="11" t="inlineStr">
+      <c r="A147" t="inlineStr">
         <is>
           <t>Chá (22,5g)</t>
         </is>
       </c>
-      <c r="B147" s="11" t="n">
+      <c r="B147" t="n">
         <v>0.0225</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="11" t="inlineStr">
+      <c r="A148" t="inlineStr">
         <is>
           <t>Chá (250g)</t>
         </is>
       </c>
-      <c r="B148" s="11" t="n">
+      <c r="B148" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="11" t="inlineStr">
+      <c r="A149" t="inlineStr">
         <is>
           <t>Chá (32g)</t>
         </is>
       </c>
-      <c r="B149" s="11" t="n">
+      <c r="B149" t="n">
         <v>0.032</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="11" t="inlineStr">
+      <c r="A150" t="inlineStr">
         <is>
           <t>Chá (40g)</t>
         </is>
       </c>
-      <c r="B150" s="11" t="n">
+      <c r="B150" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="11" t="inlineStr">
+      <c r="A151" t="inlineStr">
         <is>
           <t>Chimarrão (500g)</t>
         </is>
       </c>
-      <c r="B151" s="11" t="n">
+      <c r="B151" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="11" t="inlineStr">
+      <c r="A152" t="inlineStr">
         <is>
           <t>Chocolate (126g)</t>
         </is>
       </c>
-      <c r="B152" s="11" t="n">
+      <c r="B152" t="n">
         <v>0.126</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="11" t="inlineStr">
+      <c r="A153" t="inlineStr">
         <is>
           <t>Chocolate Barra (100g)</t>
         </is>
       </c>
-      <c r="B153" s="11" t="n">
+      <c r="B153" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="11" t="inlineStr">
+      <c r="A154" t="inlineStr">
         <is>
           <t>Chocolate Barra (41,5g)</t>
         </is>
       </c>
-      <c r="B154" s="11" t="n">
+      <c r="B154" t="n">
         <v>0.0415</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="11" t="inlineStr">
+      <c r="A155" t="inlineStr">
         <is>
           <t>Chocolate Bis (126g)</t>
         </is>
       </c>
-      <c r="B155" s="11" t="n">
+      <c r="B155" t="n">
         <v>0.126</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="11" t="inlineStr">
+      <c r="A156" t="inlineStr">
         <is>
           <t>Chocotone (90g)</t>
         </is>
       </c>
-      <c r="B156" s="11" t="n">
+      <c r="B156" t="n">
         <v>0.09</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="11" t="inlineStr">
+      <c r="A157" t="inlineStr">
         <is>
           <t>Cocada (300g)</t>
         </is>
       </c>
-      <c r="B157" s="11" t="n">
+      <c r="B157" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="11" t="inlineStr">
+      <c r="A158" t="inlineStr">
         <is>
           <t>Coco Ralado (100g)</t>
         </is>
       </c>
-      <c r="B158" s="11" t="n">
+      <c r="B158" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="11" t="inlineStr">
+      <c r="A159" t="inlineStr">
         <is>
           <t>Coco Ralado (50g)</t>
         </is>
       </c>
-      <c r="B159" s="11" t="n">
+      <c r="B159" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="11" t="inlineStr">
+      <c r="A160" t="inlineStr">
         <is>
           <t>Cookie (400g)</t>
         </is>
       </c>
-      <c r="B160" s="11" t="n">
+      <c r="B160" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="11" t="inlineStr">
+      <c r="A161" t="inlineStr">
         <is>
           <t>Creme de Cebola em Pó (68g)</t>
         </is>
       </c>
-      <c r="B161" s="11" t="n">
+      <c r="B161" t="n">
         <v>0.068</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="11" t="inlineStr">
+      <c r="A162" t="inlineStr">
         <is>
           <t>Creme de Leite (200g)</t>
         </is>
       </c>
-      <c r="B162" s="11" t="n">
+      <c r="B162" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="11" t="inlineStr">
+      <c r="A163" t="inlineStr">
         <is>
           <t>Cuscuz (500g)</t>
         </is>
       </c>
-      <c r="B163" s="11" t="n">
+      <c r="B163" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="11" t="inlineStr">
+      <c r="A164" t="inlineStr">
         <is>
           <t>Doce de Abóbora (220g)</t>
         </is>
       </c>
-      <c r="B164" s="11" t="n">
+      <c r="B164" t="n">
         <v>0.22</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="11" t="inlineStr">
+      <c r="A165" t="inlineStr">
         <is>
           <t>Doce de Leite (250g)</t>
         </is>
       </c>
-      <c r="B165" s="11" t="n">
+      <c r="B165" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="11" t="inlineStr">
+      <c r="A166" t="inlineStr">
         <is>
           <t>Doce de Leite (300g)</t>
         </is>
       </c>
-      <c r="B166" s="11" t="n">
+      <c r="B166" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="11" t="inlineStr">
+      <c r="A167" t="inlineStr">
         <is>
           <t>Doce de Leite (400g)</t>
         </is>
       </c>
-      <c r="B167" s="11" t="n">
+      <c r="B167" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="11" t="inlineStr">
+      <c r="A168" t="inlineStr">
         <is>
           <t>Erva-Doce (40g)</t>
         </is>
       </c>
-      <c r="B168" s="11" t="n">
+      <c r="B168" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="11" t="inlineStr">
+      <c r="A169" t="inlineStr">
         <is>
           <t>Ervilha Lata (200g)</t>
         </is>
       </c>
-      <c r="B169" s="11" t="n">
+      <c r="B169" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="11" t="inlineStr">
+      <c r="A170" t="inlineStr">
         <is>
           <t>Ervilha Lata (280g)</t>
         </is>
       </c>
-      <c r="B170" s="11" t="n">
+      <c r="B170" t="n">
         <v>0.28</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="11" t="inlineStr">
+      <c r="A171" t="inlineStr">
         <is>
           <t>Ervilha Lata (300g)</t>
         </is>
       </c>
-      <c r="B171" s="11" t="n">
+      <c r="B171" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="11" t="inlineStr">
+      <c r="A172" t="inlineStr">
         <is>
           <t>Ervilha Sachê (300g)</t>
         </is>
       </c>
-      <c r="B172" s="11" t="n">
+      <c r="B172" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="11" t="inlineStr">
+      <c r="A173" t="inlineStr">
         <is>
           <t>Ervilha Seca (500g)</t>
         </is>
       </c>
-      <c r="B173" s="11" t="n">
+      <c r="B173" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="11" t="inlineStr">
+      <c r="A174" t="inlineStr">
         <is>
           <t>Extrato de Tomate (130g)</t>
         </is>
       </c>
-      <c r="B174" s="11" t="n">
+      <c r="B174" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="11" t="inlineStr">
+      <c r="A175" t="inlineStr">
         <is>
           <t>Extrato de Tomate (140g)</t>
         </is>
       </c>
-      <c r="B175" s="11" t="n">
+      <c r="B175" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="11" t="inlineStr">
+      <c r="A176" t="inlineStr">
         <is>
           <t>Extrato de Tomate (190g)</t>
         </is>
       </c>
-      <c r="B176" s="11" t="n">
+      <c r="B176" t="n">
         <v>0.19</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="11" t="inlineStr">
+      <c r="A177" t="inlineStr">
         <is>
           <t>Extrato de Tomate (280g)</t>
         </is>
       </c>
-      <c r="B177" s="11" t="n">
+      <c r="B177" t="n">
         <v>0.28</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="11" t="inlineStr">
+      <c r="A178" t="inlineStr">
         <is>
           <t>Extrato de Tomate (320g)</t>
         </is>
       </c>
-      <c r="B178" s="11" t="n">
+      <c r="B178" t="n">
         <v>0.32</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="11" t="inlineStr">
+      <c r="A179" t="inlineStr">
         <is>
           <t>Extrato de Tomate (340g)</t>
         </is>
       </c>
-      <c r="B179" s="11" t="n">
+      <c r="B179" t="n">
         <v>0.34</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="11" t="inlineStr">
+      <c r="A180" t="inlineStr">
         <is>
           <t>Extrato de Tomate (375g)</t>
         </is>
       </c>
-      <c r="B180" s="11" t="n">
+      <c r="B180" t="n">
         <v>0.375</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="11" t="inlineStr">
+      <c r="A181" t="inlineStr">
         <is>
           <t>Extrato de Tomate (400g)</t>
         </is>
       </c>
-      <c r="B181" s="11" t="n">
+      <c r="B181" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="11" t="inlineStr">
+      <c r="A182" t="inlineStr">
         <is>
           <t>Extrato de Tomate (520g)</t>
         </is>
       </c>
-      <c r="B182" s="11" t="n">
+      <c r="B182" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="11" t="inlineStr">
+      <c r="A183" t="inlineStr">
         <is>
           <t>Farinha de Arroz (1kg)</t>
         </is>
       </c>
-      <c r="B183" s="11" t="n">
+      <c r="B183" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="11" t="inlineStr">
+      <c r="A184" t="inlineStr">
         <is>
           <t>Farinha de Aveia (170g)</t>
         </is>
       </c>
-      <c r="B184" s="11" t="n">
+      <c r="B184" t="n">
         <v>0.17</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="11" t="inlineStr">
+      <c r="A185" t="inlineStr">
         <is>
           <t>Farinha de Kibe (500g)</t>
         </is>
       </c>
-      <c r="B185" s="11" t="n">
+      <c r="B185" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="11" t="inlineStr">
+      <c r="A186" t="inlineStr">
         <is>
           <t>Farinha de Mandioca (1kg)</t>
         </is>
       </c>
-      <c r="B186" s="11" t="n">
+      <c r="B186" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="11" t="inlineStr">
+      <c r="A187" t="inlineStr">
         <is>
           <t>Farinha de Mandioca (300g)</t>
         </is>
       </c>
-      <c r="B187" s="11" t="n">
+      <c r="B187" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="11" t="inlineStr">
+      <c r="A188" t="inlineStr">
         <is>
           <t>Farinha de Mandioca (500g)</t>
         </is>
       </c>
-      <c r="B188" s="11" t="n">
+      <c r="B188" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="11" t="inlineStr">
+      <c r="A189" t="inlineStr">
         <is>
           <t>Farinha de Milho (450g)</t>
         </is>
       </c>
-      <c r="B189" s="11" t="n">
+      <c r="B189" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="11" t="inlineStr">
+      <c r="A190" t="inlineStr">
         <is>
           <t>Farinha de Milho (500g)</t>
         </is>
       </c>
-      <c r="B190" s="11" t="n">
+      <c r="B190" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="11" t="inlineStr">
+      <c r="A191" t="inlineStr">
         <is>
           <t>Farinha de Milho Temperada (350g)</t>
         </is>
       </c>
-      <c r="B191" s="11" t="n">
+      <c r="B191" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="11" t="inlineStr">
+      <c r="A192" t="inlineStr">
         <is>
           <t>Farinha de Rosca (500g)</t>
         </is>
       </c>
-      <c r="B192" s="11" t="n">
+      <c r="B192" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="11" t="inlineStr">
+      <c r="A193" t="inlineStr">
         <is>
           <t>Farinha de Trigo (1kg)</t>
         </is>
       </c>
-      <c r="B193" s="11" t="n">
+      <c r="B193" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="11" t="inlineStr">
+      <c r="A194" t="inlineStr">
         <is>
           <t>Farinha Láctea (210g)</t>
         </is>
       </c>
-      <c r="B194" s="11" t="n">
+      <c r="B194" t="n">
         <v>0.21</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="11" t="inlineStr">
+      <c r="A195" t="inlineStr">
         <is>
           <t>Farinha Láctea (230g)</t>
         </is>
       </c>
-      <c r="B195" s="11" t="n">
+      <c r="B195" t="n">
         <v>0.23</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="11" t="inlineStr">
+      <c r="A196" t="inlineStr">
         <is>
           <t>Farofa (150g)</t>
         </is>
       </c>
-      <c r="B196" s="11" t="n">
+      <c r="B196" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="11" t="inlineStr">
+      <c r="A197" t="inlineStr">
         <is>
           <t>Farofa (200g)</t>
         </is>
       </c>
-      <c r="B197" s="11" t="n">
+      <c r="B197" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="11" t="inlineStr">
+      <c r="A198" t="inlineStr">
         <is>
           <t>Farofa (250g)</t>
         </is>
       </c>
-      <c r="B198" s="11" t="n">
+      <c r="B198" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="11" t="inlineStr">
+      <c r="A199" t="inlineStr">
         <is>
           <t>Farofa (300g)</t>
         </is>
       </c>
-      <c r="B199" s="11" t="n">
+      <c r="B199" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="11" t="inlineStr">
+      <c r="A200" t="inlineStr">
         <is>
           <t>Farofa (400g)</t>
         </is>
       </c>
-      <c r="B200" s="11" t="n">
+      <c r="B200" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="11" t="inlineStr">
+      <c r="A201" t="inlineStr">
         <is>
           <t>Farofa (500g)</t>
         </is>
       </c>
-      <c r="B201" s="11" t="n">
+      <c r="B201" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="11" t="inlineStr">
+      <c r="A202" t="inlineStr">
         <is>
           <t>Farofa de Mandioca (250g)</t>
         </is>
       </c>
-      <c r="B202" s="11" t="n">
+      <c r="B202" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="11" t="inlineStr">
+      <c r="A203" t="inlineStr">
         <is>
           <t>Farofa de Mandioca (400g)</t>
         </is>
       </c>
-      <c r="B203" s="11" t="n">
+      <c r="B203" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="11" t="inlineStr">
+      <c r="A204" t="inlineStr">
         <is>
           <t>Feijão (1kg)</t>
         </is>
       </c>
-      <c r="B204" s="11" t="n">
+      <c r="B204" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="11" t="inlineStr">
+      <c r="A205" t="inlineStr">
         <is>
           <t>Feijão (2kg)</t>
         </is>
       </c>
-      <c r="B205" s="11" t="n">
+      <c r="B205" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="11" t="inlineStr">
+      <c r="A206" t="inlineStr">
         <is>
           <t>Feijão (500g)</t>
         </is>
       </c>
-      <c r="B206" s="11" t="n">
+      <c r="B206" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="11" t="inlineStr">
+      <c r="A207" t="inlineStr">
         <is>
           <t>Feijão de Caixa (380g)</t>
         </is>
       </c>
-      <c r="B207" s="11" t="n">
+      <c r="B207" t="n">
         <v>0.38</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="11" t="inlineStr">
+      <c r="A208" t="inlineStr">
         <is>
           <t>Feijão de Caixa (490g)</t>
         </is>
       </c>
-      <c r="B208" s="11" t="n">
+      <c r="B208" t="n">
         <v>0.49</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="11" t="inlineStr">
+      <c r="A209" t="inlineStr">
         <is>
           <t>Feijoada (430g)</t>
         </is>
       </c>
-      <c r="B209" s="11" t="n">
+      <c r="B209" t="n">
         <v>0.43</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="11" t="inlineStr">
+      <c r="A210" t="inlineStr">
         <is>
           <t>Feijoada Enlatada (830g)</t>
         </is>
       </c>
-      <c r="B210" s="11" t="n">
+      <c r="B210" t="n">
         <v>0.83</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="11" t="inlineStr">
+      <c r="A211" t="inlineStr">
         <is>
           <t>Fermento (100g)</t>
         </is>
       </c>
-      <c r="B211" s="11" t="n">
+      <c r="B211" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="11" t="inlineStr">
+      <c r="A212" t="inlineStr">
         <is>
           <t>Fermento (250g)</t>
         </is>
       </c>
-      <c r="B212" s="11" t="n">
+      <c r="B212" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="11" t="inlineStr">
+      <c r="A213" t="inlineStr">
         <is>
           <t>Figo em Calda (850g)</t>
         </is>
       </c>
-      <c r="B213" s="11" t="n">
+      <c r="B213" t="n">
         <v>0.85</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="11" t="inlineStr">
+      <c r="A214" t="inlineStr">
         <is>
           <t>Flocos de Arroz (500g)</t>
         </is>
       </c>
-      <c r="B214" s="11" t="n">
+      <c r="B214" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="11" t="inlineStr">
+      <c r="A215" t="inlineStr">
         <is>
           <t>Flocos de Milho (500g)</t>
         </is>
       </c>
-      <c r="B215" s="11" t="n">
+      <c r="B215" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="11" t="inlineStr">
+      <c r="A216" t="inlineStr">
         <is>
           <t>Fuba (1kg)</t>
         </is>
       </c>
-      <c r="B216" s="11" t="n">
+      <c r="B216" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="11" t="inlineStr">
+      <c r="A217" t="inlineStr">
         <is>
           <t>Fuba (500g)</t>
         </is>
       </c>
-      <c r="B217" s="11" t="n">
+      <c r="B217" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="11" t="inlineStr">
+      <c r="A218" t="inlineStr">
         <is>
           <t>Fuba (5kg)</t>
         </is>
       </c>
-      <c r="B218" s="11" t="n">
+      <c r="B218" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="11" t="inlineStr">
+      <c r="A219" t="inlineStr">
         <is>
           <t>Gelatina (12g)</t>
         </is>
       </c>
-      <c r="B219" s="11" t="n">
+      <c r="B219" t="n">
         <v>0.012</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="11" t="inlineStr">
+      <c r="A220" t="inlineStr">
         <is>
           <t>Gelatina (20g)</t>
         </is>
       </c>
-      <c r="B220" s="11" t="n">
+      <c r="B220" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="11" t="inlineStr">
+      <c r="A221" t="inlineStr">
         <is>
           <t>Gelatina (25g)</t>
         </is>
       </c>
-      <c r="B221" s="11" t="n">
+      <c r="B221" t="n">
         <v>0.025</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="11" t="inlineStr">
+      <c r="A222" t="inlineStr">
         <is>
           <t>Gelatina (25g)</t>
         </is>
       </c>
-      <c r="B222" s="11" t="n">
+      <c r="B222" t="n">
         <v>0.025</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="11" t="inlineStr">
+      <c r="A223" t="inlineStr">
         <is>
           <t>Gelatina (30g)</t>
         </is>
       </c>
-      <c r="B223" s="11" t="n">
+      <c r="B223" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="11" t="inlineStr">
+      <c r="A224" t="inlineStr">
         <is>
           <t>Gelatina (35g)</t>
         </is>
       </c>
-      <c r="B224" s="11" t="n">
+      <c r="B224" t="n">
         <v>0.035</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="11" t="inlineStr">
+      <c r="A225" t="inlineStr">
         <is>
           <t>Gelatina (50g)</t>
         </is>
       </c>
-      <c r="B225" s="11" t="n">
+      <c r="B225" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="11" t="inlineStr">
+      <c r="A226" t="inlineStr">
         <is>
           <t>Geléia de Damasco (230g)</t>
         </is>
       </c>
-      <c r="B226" s="11" t="n">
+      <c r="B226" t="n">
         <v>0.23</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="11" t="inlineStr">
+      <c r="A227" t="inlineStr">
         <is>
           <t>Geléia de Goiaba (100g)</t>
         </is>
       </c>
-      <c r="B227" s="11" t="n">
+      <c r="B227" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="11" t="inlineStr">
+      <c r="A228" t="inlineStr">
         <is>
           <t>Goiabada (200g)</t>
         </is>
       </c>
-      <c r="B228" s="11" t="n">
+      <c r="B228" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="11" t="inlineStr">
+      <c r="A229" t="inlineStr">
         <is>
           <t>Goiabada (250g)</t>
         </is>
       </c>
-      <c r="B229" s="11" t="n">
+      <c r="B229" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="11" t="inlineStr">
+      <c r="A230" t="inlineStr">
         <is>
           <t>Goiabada (300g)</t>
         </is>
       </c>
-      <c r="B230" s="11" t="n">
+      <c r="B230" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="11" t="inlineStr">
+      <c r="A231" t="inlineStr">
         <is>
           <t>Goiabada (400g)</t>
         </is>
       </c>
-      <c r="B231" s="11" t="n">
+      <c r="B231" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="11" t="inlineStr">
+      <c r="A232" t="inlineStr">
         <is>
           <t>Goiabada (500g)</t>
         </is>
       </c>
-      <c r="B232" s="11" t="n">
+      <c r="B232" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="11" t="inlineStr">
+      <c r="A233" t="inlineStr">
         <is>
           <t>Granulado (130g)</t>
         </is>
       </c>
-      <c r="B233" s="11" t="n">
+      <c r="B233" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="11" t="inlineStr">
+      <c r="A234" t="inlineStr">
         <is>
           <t>Granulado (150g)</t>
         </is>
       </c>
-      <c r="B234" s="11" t="n">
+      <c r="B234" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="11" t="inlineStr">
+      <c r="A235" t="inlineStr">
         <is>
           <t>Granulado (1kg)</t>
         </is>
       </c>
-      <c r="B235" s="11" t="n">
+      <c r="B235" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="11" t="inlineStr">
+      <c r="A236" t="inlineStr">
         <is>
           <t>Granulado (500g)</t>
         </is>
       </c>
-      <c r="B236" s="11" t="n">
+      <c r="B236" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="11" t="inlineStr">
+      <c r="A237" t="inlineStr">
         <is>
           <t>Granulado (50g)</t>
         </is>
       </c>
-      <c r="B237" s="11" t="n">
+      <c r="B237" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="11" t="inlineStr">
+      <c r="A238" t="inlineStr">
         <is>
           <t>Grão de Bico (300g)</t>
         </is>
       </c>
-      <c r="B238" s="11" t="n">
+      <c r="B238" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="11" t="inlineStr">
+      <c r="A239" t="inlineStr">
         <is>
           <t>Grão de Bico (500g)</t>
         </is>
       </c>
-      <c r="B239" s="11" t="n">
+      <c r="B239" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="11" t="inlineStr">
+      <c r="A240" t="inlineStr">
         <is>
           <t>Grão de Bico (80g)</t>
         </is>
       </c>
-      <c r="B240" s="11" t="n">
+      <c r="B240" t="n">
         <v>0.08</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="11" t="inlineStr">
+      <c r="A241" t="inlineStr">
         <is>
           <t>Jujuba (500g)</t>
         </is>
       </c>
-      <c r="B241" s="11" t="n">
+      <c r="B241" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="11" t="inlineStr">
+      <c r="A242" t="inlineStr">
         <is>
           <t>Ketchup (1kg)</t>
         </is>
       </c>
-      <c r="B242" s="11" t="n">
+      <c r="B242" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="11" t="inlineStr">
+      <c r="A243" t="inlineStr">
         <is>
           <t>Ketchup (400g)</t>
         </is>
       </c>
-      <c r="B243" s="11" t="n">
+      <c r="B243" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="11" t="inlineStr">
+      <c r="A244" t="inlineStr">
         <is>
           <t>Kibe (500g)</t>
         </is>
       </c>
-      <c r="B244" s="11" t="n">
+      <c r="B244" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="11" t="inlineStr">
+      <c r="A245" t="inlineStr">
         <is>
           <t>Leite Condensado (400g)</t>
         </is>
       </c>
-      <c r="B245" s="11" t="n">
+      <c r="B245" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="11" t="inlineStr">
+      <c r="A246" t="inlineStr">
         <is>
           <t>Leite em Pó (1kg)</t>
         </is>
       </c>
-      <c r="B246" s="11" t="n">
+      <c r="B246" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="11" t="inlineStr">
+      <c r="A247" t="inlineStr">
         <is>
           <t>Leite em Pó (200g)</t>
         </is>
       </c>
-      <c r="B247" s="11" t="n">
+      <c r="B247" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="11" t="inlineStr">
+      <c r="A248" t="inlineStr">
         <is>
           <t>Leite em Pó (280g)</t>
         </is>
       </c>
-      <c r="B248" s="11" t="n">
+      <c r="B248" t="n">
         <v>0.28</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="11" t="inlineStr">
+      <c r="A249" t="inlineStr">
         <is>
           <t>Leite em Pó (300g)</t>
         </is>
       </c>
-      <c r="B249" s="11" t="n">
+      <c r="B249" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="11" t="inlineStr">
+      <c r="A250" t="inlineStr">
         <is>
           <t>Leite em Pó (380g)</t>
         </is>
       </c>
-      <c r="B250" s="11" t="n">
+      <c r="B250" t="n">
         <v>0.38</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="11" t="inlineStr">
+      <c r="A251" t="inlineStr">
         <is>
           <t>Leite em Pó (400g)</t>
         </is>
       </c>
-      <c r="B251" s="11" t="n">
+      <c r="B251" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="11" t="inlineStr">
+      <c r="A252" t="inlineStr">
         <is>
           <t>Leite em Pó (500g)</t>
         </is>
       </c>
-      <c r="B252" s="11" t="n">
+      <c r="B252" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="11" t="inlineStr">
+      <c r="A253" t="inlineStr">
         <is>
           <t>Leite em Pó (800g)</t>
         </is>
       </c>
-      <c r="B253" s="11" t="n">
+      <c r="B253" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="11" t="inlineStr">
+      <c r="A254" t="inlineStr">
         <is>
           <t>Lentilha (1kg)</t>
         </is>
       </c>
-      <c r="B254" s="11" t="n">
+      <c r="B254" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="11" t="inlineStr">
+      <c r="A255" t="inlineStr">
         <is>
           <t>Lentilha (200g)</t>
         </is>
       </c>
-      <c r="B255" s="11" t="n">
+      <c r="B255" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="11" t="inlineStr">
+      <c r="A256" t="inlineStr">
         <is>
           <t>Lentilha (300g)</t>
         </is>
       </c>
-      <c r="B256" s="11" t="n">
+      <c r="B256" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="11" t="inlineStr">
+      <c r="A257" t="inlineStr">
         <is>
           <t>Lentilha (380g)</t>
         </is>
       </c>
-      <c r="B257" s="11" t="n">
+      <c r="B257" t="n">
         <v>0.38</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="11" t="inlineStr">
+      <c r="A258" t="inlineStr">
         <is>
           <t>Lentilha (500g)</t>
         </is>
       </c>
-      <c r="B258" s="11" t="n">
+      <c r="B258" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="11" t="inlineStr">
+      <c r="A259" t="inlineStr">
         <is>
           <t>M&amp;M (45g)</t>
         </is>
       </c>
-      <c r="B259" s="11" t="n">
+      <c r="B259" t="n">
         <v>0.045</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="11" t="inlineStr">
+      <c r="A260" t="inlineStr">
         <is>
           <t>Macarrão (1kg)</t>
         </is>
       </c>
-      <c r="B260" s="11" t="n">
+      <c r="B260" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="11" t="inlineStr">
+      <c r="A261" t="inlineStr">
         <is>
           <t>Macarrão (200g)</t>
         </is>
       </c>
-      <c r="B261" s="11" t="n">
+      <c r="B261" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="11" t="inlineStr">
+      <c r="A262" t="inlineStr">
         <is>
           <t>Macarrão (300g)</t>
         </is>
       </c>
-      <c r="B262" s="11" t="n">
+      <c r="B262" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="11" t="inlineStr">
+      <c r="A263" t="inlineStr">
         <is>
           <t>Macarrão (500g)</t>
         </is>
       </c>
-      <c r="B263" s="11" t="n">
+      <c r="B263" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="11" t="inlineStr">
+      <c r="A264" t="inlineStr">
         <is>
           <t>Maionese (1kg)</t>
         </is>
       </c>
-      <c r="B264" s="11" t="n">
+      <c r="B264" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="11" t="inlineStr">
+      <c r="A265" t="inlineStr">
         <is>
           <t>Maionese (200g)</t>
         </is>
       </c>
-      <c r="B265" s="11" t="n">
+      <c r="B265" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="11" t="inlineStr">
+      <c r="A266" t="inlineStr">
         <is>
           <t>Maionese (250g)</t>
         </is>
       </c>
-      <c r="B266" s="11" t="n">
+      <c r="B266" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="11" t="inlineStr">
+      <c r="A267" t="inlineStr">
         <is>
           <t>Maionese (270g)</t>
         </is>
       </c>
-      <c r="B267" s="11" t="n">
+      <c r="B267" t="n">
         <v>0.27</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="11" t="inlineStr">
+      <c r="A268" t="inlineStr">
         <is>
           <t>Maionese (300g)</t>
         </is>
       </c>
-      <c r="B268" s="11" t="n">
+      <c r="B268" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="11" t="inlineStr">
+      <c r="A269" t="inlineStr">
         <is>
           <t>Maionese (400g)</t>
         </is>
       </c>
-      <c r="B269" s="11" t="n">
+      <c r="B269" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="11" t="inlineStr">
+      <c r="A270" t="inlineStr">
         <is>
           <t>Maionese (500g)</t>
         </is>
       </c>
-      <c r="B270" s="11" t="n">
+      <c r="B270" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="11" t="inlineStr">
+      <c r="A271" t="inlineStr">
         <is>
           <t>Maionese (700g)</t>
         </is>
       </c>
-      <c r="B271" s="11" t="n">
+      <c r="B271" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="11" t="inlineStr">
+      <c r="A272" t="inlineStr">
         <is>
           <t>Maizena (200g)</t>
         </is>
       </c>
-      <c r="B272" s="11" t="n">
+      <c r="B272" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="11" t="inlineStr">
+      <c r="A273" t="inlineStr">
         <is>
           <t>Maizena (500g)</t>
         </is>
       </c>
-      <c r="B273" s="11" t="n">
+      <c r="B273" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="11" t="inlineStr">
+      <c r="A274" t="inlineStr">
         <is>
           <t>Maria Mole (50g)</t>
         </is>
       </c>
-      <c r="B274" s="11" t="n">
+      <c r="B274" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="11" t="inlineStr">
+      <c r="A275" t="inlineStr">
         <is>
           <t>Massa Lasanha (200g)</t>
         </is>
       </c>
-      <c r="B275" s="11" t="n">
+      <c r="B275" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="11" t="inlineStr">
+      <c r="A276" t="inlineStr">
         <is>
           <t>Massa Lasanha (500g)</t>
         </is>
       </c>
-      <c r="B276" s="11" t="n">
+      <c r="B276" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="11" t="inlineStr">
+      <c r="A277" t="inlineStr">
         <is>
           <t>Milho Conserva (230g)</t>
         </is>
       </c>
-      <c r="B277" s="11" t="n">
+      <c r="B277" t="n">
         <v>0.23</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="11" t="inlineStr">
+      <c r="A278" t="inlineStr">
         <is>
           <t>Milho Conserva (500g)</t>
         </is>
       </c>
-      <c r="B278" s="11" t="n">
+      <c r="B278" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="11" t="inlineStr">
+      <c r="A279" t="inlineStr">
         <is>
           <t>Milho de Pipoca (200g)</t>
         </is>
       </c>
-      <c r="B279" s="11" t="n">
+      <c r="B279" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="11" t="inlineStr">
+      <c r="A280" t="inlineStr">
         <is>
           <t>Milho de Pipoca (500g)</t>
         </is>
       </c>
-      <c r="B280" s="11" t="n">
+      <c r="B280" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="11" t="inlineStr">
+      <c r="A281" t="inlineStr">
         <is>
           <t>Milho e Ervilha (200g)</t>
         </is>
       </c>
-      <c r="B281" s="11" t="n">
+      <c r="B281" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="11" t="inlineStr">
+      <c r="A282" t="inlineStr">
         <is>
           <t>Mingau (230g)</t>
         </is>
       </c>
-      <c r="B282" s="11" t="n">
+      <c r="B282" t="n">
         <v>0.23</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="11" t="inlineStr">
+      <c r="A283" t="inlineStr">
         <is>
           <t>Miojo (500g)</t>
         </is>
       </c>
-      <c r="B283" s="11" t="n">
+      <c r="B283" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="11" t="inlineStr">
+      <c r="A284" t="inlineStr">
         <is>
           <t>Miojo (80g)</t>
         </is>
       </c>
-      <c r="B284" s="11" t="n">
+      <c r="B284" t="n">
         <v>0.08</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="11" t="inlineStr">
+      <c r="A285" t="inlineStr">
         <is>
           <t>Mistura para Bolo (300g)</t>
         </is>
       </c>
-      <c r="B285" s="11" t="n">
+      <c r="B285" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="11" t="inlineStr">
+      <c r="A286" t="inlineStr">
         <is>
           <t>Mistura para Bolo (400g)</t>
         </is>
       </c>
-      <c r="B286" s="11" t="n">
+      <c r="B286" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="11" t="inlineStr">
+      <c r="A287" t="inlineStr">
         <is>
           <t>Mistura para Bolo (450g)</t>
         </is>
       </c>
-      <c r="B287" s="11" t="n">
+      <c r="B287" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="11" t="inlineStr">
+      <c r="A288" t="inlineStr">
         <is>
           <t>Mistura para Empanar (300g)</t>
         </is>
       </c>
-      <c r="B288" s="11" t="n">
+      <c r="B288" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="11" t="inlineStr">
+      <c r="A289" t="inlineStr">
         <is>
           <t>Molho 4 Queijos (300g)</t>
         </is>
       </c>
-      <c r="B289" s="11" t="n">
+      <c r="B289" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="11" t="inlineStr">
+      <c r="A290" t="inlineStr">
         <is>
           <t>Molho Curry (210g)</t>
         </is>
       </c>
-      <c r="B290" s="11" t="n">
+      <c r="B290" t="n">
         <v>0.21</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="11" t="inlineStr">
+      <c r="A291" t="inlineStr">
         <is>
           <t>Molho de Tomate (130g)</t>
         </is>
       </c>
-      <c r="B291" s="11" t="n">
+      <c r="B291" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="11" t="inlineStr">
+      <c r="A292" t="inlineStr">
         <is>
           <t>Molho de Tomate (190g)</t>
         </is>
       </c>
-      <c r="B292" s="11" t="n">
+      <c r="B292" t="n">
         <v>0.19</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="11" t="inlineStr">
+      <c r="A293" t="inlineStr">
         <is>
           <t>Molho de Tomate (260g)</t>
         </is>
       </c>
-      <c r="B293" s="11" t="n">
+      <c r="B293" t="n">
         <v>0.26</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="11" t="inlineStr">
+      <c r="A294" t="inlineStr">
         <is>
           <t>Molho de Tomate (2kg)</t>
         </is>
       </c>
-      <c r="B294" s="11" t="n">
+      <c r="B294" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="11" t="inlineStr">
+      <c r="A295" t="inlineStr">
         <is>
           <t>Molho de Tomate (300g)</t>
         </is>
       </c>
-      <c r="B295" s="11" t="n">
+      <c r="B295" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="11" t="inlineStr">
+      <c r="A296" t="inlineStr">
         <is>
           <t>Molho de Tomate (320g)</t>
         </is>
       </c>
-      <c r="B296" s="11" t="n">
+      <c r="B296" t="n">
         <v>0.32</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="11" t="inlineStr">
+      <c r="A297" t="inlineStr">
         <is>
           <t>Molho de Tomate (340g)</t>
         </is>
       </c>
-      <c r="B297" s="11" t="n">
+      <c r="B297" t="n">
         <v>0.34</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="11" t="inlineStr">
+      <c r="A298" t="inlineStr">
         <is>
           <t>Molho de Tomate (390g)</t>
         </is>
       </c>
-      <c r="B298" s="11" t="n">
+      <c r="B298" t="n">
         <v>0.39</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="11" t="inlineStr">
+      <c r="A299" t="inlineStr">
         <is>
           <t>Molho de Tomate (400g)</t>
         </is>
       </c>
-      <c r="B299" s="11" t="n">
+      <c r="B299" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="11" t="inlineStr">
+      <c r="A300" t="inlineStr">
         <is>
           <t>Molho de Tomate (440g)</t>
         </is>
       </c>
-      <c r="B300" s="11" t="n">
+      <c r="B300" t="n">
         <v>0.44</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="11" t="inlineStr">
+      <c r="A301" t="inlineStr">
         <is>
           <t>Molho de Tomate (520g)</t>
         </is>
       </c>
-      <c r="B301" s="11" t="n">
+      <c r="B301" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="11" t="inlineStr">
+      <c r="A302" t="inlineStr">
         <is>
           <t>Molho de Tomate (680g)</t>
         </is>
       </c>
-      <c r="B302" s="11" t="n">
+      <c r="B302" t="n">
         <v>0.68</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="11" t="inlineStr">
+      <c r="A303" t="inlineStr">
         <is>
           <t>Molho Yakisoba (300g)</t>
         </is>
       </c>
-      <c r="B303" s="11" t="n">
+      <c r="B303" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="11" t="inlineStr">
+      <c r="A304" t="inlineStr">
         <is>
           <t>Mostarda (190g)</t>
         </is>
       </c>
-      <c r="B304" s="11" t="n">
+      <c r="B304" t="n">
         <v>0.19</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="11" t="inlineStr">
+      <c r="A305" t="inlineStr">
         <is>
           <t>Mostarda (200g)</t>
         </is>
       </c>
-      <c r="B305" s="11" t="n">
+      <c r="B305" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="11" t="inlineStr">
+      <c r="A306" t="inlineStr">
         <is>
           <t>Nozes (200g)</t>
         </is>
       </c>
-      <c r="B306" s="11" t="n">
+      <c r="B306" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="11" t="inlineStr">
+      <c r="A307" t="inlineStr">
         <is>
           <t>Orégano (10g)</t>
         </is>
       </c>
-      <c r="B307" s="11" t="n">
+      <c r="B307" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="11" t="inlineStr">
+      <c r="A308" t="inlineStr">
         <is>
           <t>Palmito (300g)</t>
         </is>
       </c>
-      <c r="B308" s="11" t="n">
+      <c r="B308" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="11" t="inlineStr">
+      <c r="A309" t="inlineStr">
         <is>
           <t>Palmito (500g)</t>
         </is>
       </c>
-      <c r="B309" s="11" t="n">
+      <c r="B309" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="11" t="inlineStr">
+      <c r="A310" t="inlineStr">
         <is>
           <t>Palmito (530g)</t>
         </is>
       </c>
-      <c r="B310" s="11" t="n">
+      <c r="B310" t="n">
         <v>0.53</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="11" t="inlineStr">
+      <c r="A311" t="inlineStr">
         <is>
           <t>Panetone (400g)</t>
         </is>
       </c>
-      <c r="B311" s="11" t="n">
+      <c r="B311" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="11" t="inlineStr">
+      <c r="A312" t="inlineStr">
         <is>
           <t>Panetone (500g)</t>
         </is>
       </c>
-      <c r="B312" s="11" t="n">
+      <c r="B312" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="11" t="inlineStr">
+      <c r="A313" t="inlineStr">
         <is>
           <t>Panetone (80g)</t>
         </is>
       </c>
-      <c r="B313" s="11" t="n">
+      <c r="B313" t="n">
         <v>0.08</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="11" t="inlineStr">
+      <c r="A314" t="inlineStr">
         <is>
           <t>Pão de Forma (500g)</t>
         </is>
       </c>
-      <c r="B314" s="11" t="n">
+      <c r="B314" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="11" t="inlineStr">
+      <c r="A315" t="inlineStr">
         <is>
           <t>Pão de Mel (200g)</t>
         </is>
       </c>
-      <c r="B315" s="11" t="n">
+      <c r="B315" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="11" t="inlineStr">
+      <c r="A316" t="inlineStr">
         <is>
           <t>Pão de Mel (240g)</t>
         </is>
       </c>
-      <c r="B316" s="11" t="n">
+      <c r="B316" t="n">
         <v>0.24</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="11" t="inlineStr">
+      <c r="A317" t="inlineStr">
         <is>
           <t>Pão de Mel (300g)</t>
         </is>
       </c>
-      <c r="B317" s="11" t="n">
+      <c r="B317" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="11" t="inlineStr">
+      <c r="A318" t="inlineStr">
         <is>
           <t>Pão de Mel (500g)</t>
         </is>
       </c>
-      <c r="B318" s="11" t="n">
+      <c r="B318" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="11" t="inlineStr">
+      <c r="A319" t="inlineStr">
         <is>
           <t>Patê de Carne (100g)</t>
         </is>
       </c>
-      <c r="B319" s="11" t="n">
+      <c r="B319" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="11" t="inlineStr">
+      <c r="A320" t="inlineStr">
         <is>
           <t>Patê de Peru (100g)</t>
         </is>
       </c>
-      <c r="B320" s="11" t="n">
+      <c r="B320" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="11" t="inlineStr">
+      <c r="A321" t="inlineStr">
         <is>
           <t>Patê de Presunto (100g)</t>
         </is>
       </c>
-      <c r="B321" s="11" t="n">
+      <c r="B321" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="11" t="inlineStr">
+      <c r="A322" t="inlineStr">
         <is>
           <t>Patê de Presunto (150g)</t>
         </is>
       </c>
-      <c r="B322" s="11" t="n">
+      <c r="B322" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="11" t="inlineStr">
+      <c r="A323" t="inlineStr">
         <is>
           <t>Patê de Sardinha (150g)</t>
         </is>
       </c>
-      <c r="B323" s="11" t="n">
+      <c r="B323" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="11" t="inlineStr">
+      <c r="A324" t="inlineStr">
         <is>
           <t>Patê de Sardinha (170g)</t>
         </is>
       </c>
-      <c r="B324" s="11" t="n">
+      <c r="B324" t="n">
         <v>0.17</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="11" t="inlineStr">
+      <c r="A325" t="inlineStr">
         <is>
           <t>Pêssego em Calda (500g)</t>
         </is>
       </c>
-      <c r="B325" s="11" t="n">
+      <c r="B325" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="11" t="inlineStr">
+      <c r="A326" t="inlineStr">
         <is>
           <t>Pipoca de Microondas (100g)</t>
         </is>
       </c>
-      <c r="B326" s="11" t="n">
+      <c r="B326" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="11" t="inlineStr">
+      <c r="A327" t="inlineStr">
         <is>
           <t>Pipoca de Microondas (50g)</t>
         </is>
       </c>
-      <c r="B327" s="11" t="n">
+      <c r="B327" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="11" t="inlineStr">
+      <c r="A328" t="inlineStr">
         <is>
           <t>Pipoca Doce (100g)</t>
         </is>
       </c>
-      <c r="B328" s="11" t="n">
+      <c r="B328" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="11" t="inlineStr">
+      <c r="A329" t="inlineStr">
         <is>
           <t>Polenta (1kg)</t>
         </is>
       </c>
-      <c r="B329" s="11" t="n">
+      <c r="B329" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="11" t="inlineStr">
+      <c r="A330" t="inlineStr">
         <is>
           <t>Polenta (500g)</t>
         </is>
       </c>
-      <c r="B330" s="11" t="n">
+      <c r="B330" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="11" t="inlineStr">
+      <c r="A331" t="inlineStr">
         <is>
           <t>Polvilho (1kg)</t>
         </is>
       </c>
-      <c r="B331" s="11" t="n">
+      <c r="B331" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="11" t="inlineStr">
+      <c r="A332" t="inlineStr">
         <is>
           <t>Polvilho (500g)</t>
         </is>
       </c>
-      <c r="B332" s="11" t="n">
+      <c r="B332" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="11" t="inlineStr">
+      <c r="A333" t="inlineStr">
         <is>
           <t>Polvilho Azedo (500g)</t>
         </is>
       </c>
-      <c r="B333" s="11" t="n">
+      <c r="B333" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="11" t="inlineStr">
+      <c r="A334" t="inlineStr">
         <is>
           <t>Polvilho Doce (1kg)</t>
         </is>
       </c>
-      <c r="B334" s="11" t="n">
+      <c r="B334" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="11" t="inlineStr">
+      <c r="A335" t="inlineStr">
         <is>
           <t>Polvilho Doce (500g)</t>
         </is>
       </c>
-      <c r="B335" s="11" t="n">
+      <c r="B335" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="11" t="inlineStr">
+      <c r="A336" t="inlineStr">
         <is>
           <t>Proteína Texturizada (250g)</t>
         </is>
       </c>
-      <c r="B336" s="11" t="n">
+      <c r="B336" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="11" t="inlineStr">
+      <c r="A337" t="inlineStr">
         <is>
           <t>Pudim (30g)</t>
         </is>
       </c>
-      <c r="B337" s="11" t="n">
+      <c r="B337" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="11" t="inlineStr">
+      <c r="A338" t="inlineStr">
         <is>
           <t>Pudim (40g)</t>
         </is>
       </c>
-      <c r="B338" s="11" t="n">
+      <c r="B338" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="11" t="inlineStr">
+      <c r="A339" t="inlineStr">
         <is>
           <t>Pudim (50g)</t>
         </is>
       </c>
-      <c r="B339" s="11" t="n">
+      <c r="B339" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="11" t="inlineStr">
+      <c r="A340" t="inlineStr">
         <is>
           <t>Queijo Ralado (50g)</t>
         </is>
       </c>
-      <c r="B340" s="11" t="n">
+      <c r="B340" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="11" t="inlineStr">
+      <c r="A341" t="inlineStr">
         <is>
           <t>Sagu (150g)</t>
         </is>
       </c>
-      <c r="B341" s="11" t="n">
+      <c r="B341" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="11" t="inlineStr">
+      <c r="A342" t="inlineStr">
         <is>
           <t>Sagu (250g)</t>
         </is>
       </c>
-      <c r="B342" s="11" t="n">
+      <c r="B342" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="11" t="inlineStr">
+      <c r="A343" t="inlineStr">
         <is>
           <t>Sagu (500g)</t>
         </is>
       </c>
-      <c r="B343" s="11" t="n">
+      <c r="B343" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="11" t="inlineStr">
+      <c r="A344" t="inlineStr">
         <is>
           <t>Sal (1kg)</t>
         </is>
       </c>
-      <c r="B344" s="11" t="n">
+      <c r="B344" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="11" t="inlineStr">
+      <c r="A345" t="inlineStr">
         <is>
           <t>Sal (500g)</t>
         </is>
       </c>
-      <c r="B345" s="11" t="n">
+      <c r="B345" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="11" t="inlineStr">
+      <c r="A346" t="inlineStr">
         <is>
           <t>Sal Grosso (1kg)</t>
         </is>
       </c>
-      <c r="B346" s="11" t="n">
+      <c r="B346" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="11" t="inlineStr">
+      <c r="A347" t="inlineStr">
         <is>
           <t>Salgadinho (50g)</t>
         </is>
       </c>
-      <c r="B347" s="11" t="n">
+      <c r="B347" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="11" t="inlineStr">
+      <c r="A348" t="inlineStr">
         <is>
           <t>Salsicha (300g)</t>
         </is>
       </c>
-      <c r="B348" s="11" t="n">
+      <c r="B348" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="11" t="inlineStr">
+      <c r="A349" t="inlineStr">
         <is>
           <t>Salsicha Lata (200g)</t>
         </is>
       </c>
-      <c r="B349" s="11" t="n">
+      <c r="B349" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="11" t="inlineStr">
+      <c r="A350" t="inlineStr">
         <is>
           <t>Salsicha Tipo Viena (200g)</t>
         </is>
       </c>
-      <c r="B350" s="11" t="n">
+      <c r="B350" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="11" t="inlineStr">
+      <c r="A351" t="inlineStr">
         <is>
           <t>Sardinha (125g)</t>
         </is>
       </c>
-      <c r="B351" s="11" t="n">
+      <c r="B351" t="n">
         <v>0.125</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="11" t="inlineStr">
+      <c r="A352" t="inlineStr">
         <is>
           <t>Sardinha (165g)</t>
         </is>
       </c>
-      <c r="B352" s="11" t="n">
+      <c r="B352" t="n">
         <v>0.165</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="11" t="inlineStr">
+      <c r="A353" t="inlineStr">
         <is>
           <t>Sardinha (250g)</t>
         </is>
       </c>
-      <c r="B353" s="11" t="n">
+      <c r="B353" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="11" t="inlineStr">
+      <c r="A354" t="inlineStr">
         <is>
           <t>Sardinha (80g)</t>
         </is>
       </c>
-      <c r="B354" s="11" t="n">
+      <c r="B354" t="n">
         <v>0.08</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="11" t="inlineStr">
+      <c r="A355" t="inlineStr">
         <is>
           <t>Sazon (37,5g)</t>
         </is>
       </c>
-      <c r="B355" s="11" t="n">
+      <c r="B355" t="n">
         <v>0.037</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="11" t="inlineStr">
+      <c r="A356" t="inlineStr">
         <is>
           <t>Sazon (60g)</t>
         </is>
       </c>
-      <c r="B356" s="11" t="n">
+      <c r="B356" t="n">
         <v>0.06</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="11" t="inlineStr">
+      <c r="A357" t="inlineStr">
         <is>
           <t>Seleta de Legumes (200g)</t>
         </is>
       </c>
-      <c r="B357" s="11" t="n">
+      <c r="B357" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="11" t="inlineStr">
+      <c r="A358" t="inlineStr">
         <is>
           <t>Seleta de Legumes (280g)</t>
         </is>
       </c>
-      <c r="B358" s="11" t="n">
+      <c r="B358" t="n">
         <v>0.28</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="11" t="inlineStr">
+      <c r="A359" t="inlineStr">
         <is>
           <t>Seleta de Legumes (300g)</t>
         </is>
       </c>
-      <c r="B359" s="11" t="n">
+      <c r="B359" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="11" t="inlineStr">
+      <c r="A360" t="inlineStr">
         <is>
           <t>Soja Pronta (500g)</t>
         </is>
       </c>
-      <c r="B360" s="11" t="n">
+      <c r="B360" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="11" t="inlineStr">
+      <c r="A361" t="inlineStr">
         <is>
           <t>Sopa (196g)</t>
         </is>
       </c>
-      <c r="B361" s="11" t="n">
+      <c r="B361" t="n">
         <v>0.196</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="11" t="inlineStr">
+      <c r="A362" t="inlineStr">
         <is>
           <t>Sopa de Cebola (38g)</t>
         </is>
       </c>
-      <c r="B362" s="11" t="n">
+      <c r="B362" t="n">
         <v>0.038</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="11" t="inlineStr">
+      <c r="A363" t="inlineStr">
         <is>
           <t>Sopa Pronta (200g)</t>
         </is>
       </c>
-      <c r="B363" s="11" t="n">
+      <c r="B363" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="11" t="inlineStr">
+      <c r="A364" t="inlineStr">
         <is>
           <t>Sopa Pronta (500g)</t>
         </is>
       </c>
-      <c r="B364" s="11" t="n">
+      <c r="B364" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="11" t="inlineStr">
+      <c r="A365" t="inlineStr">
         <is>
           <t>Sopa Sachê (17g)</t>
         </is>
       </c>
-      <c r="B365" s="11" t="n">
+      <c r="B365" t="n">
         <v>0.017</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="11" t="inlineStr">
+      <c r="A366" t="inlineStr">
         <is>
           <t>Sopão (160g)</t>
         </is>
       </c>
-      <c r="B366" s="11" t="n">
+      <c r="B366" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="11" t="inlineStr">
+      <c r="A367" t="inlineStr">
         <is>
           <t>Sopão (200g)</t>
         </is>
       </c>
-      <c r="B367" s="11" t="n">
+      <c r="B367" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="11" t="inlineStr">
+      <c r="A368" t="inlineStr">
         <is>
           <t>Suco Sachê (10g)</t>
         </is>
       </c>
-      <c r="B368" s="11" t="n">
+      <c r="B368" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="11" t="inlineStr">
+      <c r="A369" t="inlineStr">
         <is>
           <t>Suco Sachê (25g)</t>
         </is>
       </c>
-      <c r="B369" s="11" t="n">
+      <c r="B369" t="n">
         <v>0.025</v>
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="11" t="inlineStr">
+      <c r="A370" t="inlineStr">
         <is>
           <t>Suspiro (70g)</t>
         </is>
       </c>
-      <c r="B370" s="11" t="n">
+      <c r="B370" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="11" t="inlineStr">
+      <c r="A371" t="inlineStr">
         <is>
           <t>Tapioca (1kg)</t>
         </is>
       </c>
-      <c r="B371" s="11" t="n">
+      <c r="B371" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="11" t="inlineStr">
+      <c r="A372" t="inlineStr">
         <is>
           <t>Tapioca (500g)</t>
         </is>
       </c>
-      <c r="B372" s="11" t="n">
+      <c r="B372" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="11" t="inlineStr">
+      <c r="A373" t="inlineStr">
         <is>
           <t>Tempero Pronto (300g)</t>
         </is>
       </c>
-      <c r="B373" s="11" t="n">
+      <c r="B373" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="11" t="inlineStr">
+      <c r="A374" t="inlineStr">
         <is>
           <t>Tempero Pronto (500g)</t>
         </is>
       </c>
-      <c r="B374" s="11" t="n">
+      <c r="B374" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="11" t="inlineStr">
+      <c r="A375" t="inlineStr">
         <is>
           <t>Tempero Pronto (60g)</t>
         </is>
       </c>
-      <c r="B375" s="11" t="n">
+      <c r="B375" t="n">
         <v>0.06</v>
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="11" t="inlineStr">
+      <c r="A376" t="inlineStr">
         <is>
           <t>Tomate Pelado (400g)</t>
         </is>
       </c>
-      <c r="B376" s="11" t="n">
+      <c r="B376" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="11" t="inlineStr">
+      <c r="A377" t="inlineStr">
         <is>
           <t>Tomate Picado (400g)</t>
         </is>
       </c>
-      <c r="B377" s="11" t="n">
+      <c r="B377" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="11" t="inlineStr">
+      <c r="A378" t="inlineStr">
         <is>
           <t>Torrada (100g)</t>
         </is>
       </c>
-      <c r="B378" s="11" t="n">
+      <c r="B378" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="11" t="inlineStr">
+      <c r="A379" t="inlineStr">
         <is>
           <t>Torrada (120g)</t>
         </is>
       </c>
-      <c r="B379" s="11" t="n">
+      <c r="B379" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="11" t="inlineStr">
+      <c r="A380" t="inlineStr">
         <is>
           <t>Torrada (142g)</t>
         </is>
       </c>
-      <c r="B380" s="11" t="n">
+      <c r="B380" t="n">
         <v>0.142</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="11" t="inlineStr">
+      <c r="A381" t="inlineStr">
         <is>
           <t>Torrada (160g)</t>
         </is>
       </c>
-      <c r="B381" s="11" t="n">
+      <c r="B381" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="11" t="inlineStr">
+      <c r="A382" t="inlineStr">
         <is>
           <t>Trigo para Kibe (500g)</t>
         </is>
       </c>
-      <c r="B382" s="11" t="n">
+      <c r="B382" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="11" t="inlineStr">
+      <c r="A383" t="inlineStr">
         <is>
           <t>Uva Passa (100g)</t>
         </is>
       </c>
-      <c r="B383" s="11" t="n">
+      <c r="B383" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="11" t="inlineStr">
+      <c r="A384" t="inlineStr">
         <is>
           <t>Barra de Cereal (1un)</t>
         </is>
       </c>
-      <c r="B384" s="11" t="n">
+      <c r="B384" t="n">
         <v>0.025</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="11" t="inlineStr">
+      <c r="A385" t="inlineStr">
         <is>
           <t>Barra de Cereal (4un)</t>
         </is>
       </c>
-      <c r="B385" s="11" t="n">
+      <c r="B385" t="n">
         <v>0.08</v>
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="11" t="inlineStr">
+      <c r="A386" t="inlineStr">
         <is>
           <t>Chá</t>
         </is>
       </c>
-      <c r="B386" s="11" t="n">
+      <c r="B386" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="11" t="inlineStr">
+      <c r="A387" t="inlineStr">
         <is>
           <t>Chá (10un)</t>
         </is>
       </c>
-      <c r="B387" s="11" t="n">
+      <c r="B387" t="n">
         <v>0.015</v>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="11" t="inlineStr">
+      <c r="A388" t="inlineStr">
         <is>
           <t>Chá (15un)</t>
         </is>
       </c>
-      <c r="B388" s="11" t="n">
+      <c r="B388" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="11" t="inlineStr">
+      <c r="A389" t="inlineStr">
         <is>
           <t>Club Social (1un)</t>
         </is>
       </c>
-      <c r="B389" s="11" t="n">
+      <c r="B389" t="n">
         <v>0.024</v>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="11" t="inlineStr">
+      <c r="A390" t="inlineStr">
         <is>
           <t>Club Social (6un)</t>
         </is>
       </c>
-      <c r="B390" s="11" t="n">
+      <c r="B390" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="11" t="inlineStr">
+      <c r="A391" t="inlineStr">
         <is>
           <t>Filtro de Café (30un)</t>
         </is>
       </c>
-      <c r="B391" s="11" t="n">
+      <c r="B391" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="11" t="inlineStr">
+      <c r="A392" t="inlineStr">
         <is>
           <t>Leite (12un)</t>
         </is>
       </c>
-      <c r="B392" s="11" t="n">
+      <c r="B392" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="11" t="inlineStr">
+      <c r="A393" t="inlineStr">
         <is>
           <t>Leite (6un)</t>
         </is>
       </c>
-      <c r="B393" s="11" t="n">
+      <c r="B393" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="11" t="inlineStr">
+      <c r="A394" t="inlineStr">
         <is>
           <t xml:space="preserve">feijão </t>
         </is>
       </c>
-      <c r="B394" s="11" t="n">
+      <c r="B394" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="11" t="inlineStr">
+      <c r="A395" t="inlineStr">
         <is>
           <t xml:space="preserve">macarrão </t>
         </is>
       </c>
-      <c r="B395" s="11" t="n">
+      <c r="B395" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="11" t="inlineStr">
+      <c r="A396" t="inlineStr">
         <is>
           <t>Farinha de milho (250g)</t>
         </is>
       </c>
-      <c r="B396" s="11" t="n">
+      <c r="B396" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="11" t="inlineStr">
+      <c r="A397" t="inlineStr">
         <is>
           <t>molho de tomate 300g</t>
         </is>
       </c>
-      <c r="B397" s="11" t="n">
+      <c r="B397" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="11" t="inlineStr">
+      <c r="A398" t="inlineStr">
         <is>
           <t xml:space="preserve">suco em pó </t>
         </is>
       </c>
-      <c r="B398" s="11" t="n">
+      <c r="B398" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="11" t="inlineStr">
+      <c r="A399" t="inlineStr">
         <is>
           <t>Extrato de tomate (190g)</t>
         </is>
       </c>
-      <c r="B399" s="11" t="n">
+      <c r="B399" t="n">
         <v>0.19</v>
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="11" t="inlineStr">
+      <c r="A400" t="inlineStr">
         <is>
           <t>Suco (18g)</t>
         </is>
       </c>
-      <c r="B400" s="11" t="n">
+      <c r="B400" t="n">
         <v>0.018</v>
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="11" t="inlineStr">
+      <c r="A401" t="inlineStr">
         <is>
           <t>Biscoito recheado (90g)</t>
         </is>
       </c>
-      <c r="B401" s="11" t="n">
+      <c r="B401" t="n">
         <v>0.09</v>
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="11" t="inlineStr">
+      <c r="A402" t="inlineStr">
         <is>
           <t>Achocolatado (370g)</t>
         </is>
       </c>
-      <c r="B402" s="11" t="n">
+      <c r="B402" t="n">
         <v>0.37</v>
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="11" t="inlineStr">
+      <c r="A403" t="inlineStr">
         <is>
           <t>Macarrão (200g)</t>
         </is>
       </c>
-      <c r="B403" s="11" t="n">
+      <c r="B403" t="n">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Lava roupas (800g)</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -47210,402 +47188,407 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="16.8" customWidth="1" style="5" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>L/embalagem</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="6">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>Achocolatado (1L)</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="6">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Adoçante (100mL)</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="5" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="6">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Água de Coco (2L)</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="6">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>Água Tônica (237mL)</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="5" t="n">
         <v>0.237</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="6">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Azeite (200mL)</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="5" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="6">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>Azeite (500mL)</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="5" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="6">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>Bebida Láctea Baunilha (200mL)</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="5" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="6">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>Bebida Láctea Chocolate (180mL)</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="5" t="n">
         <v>0.18</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="6">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>Bebida Láctea Chocolate (1L)</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="6">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>Espumante (660mL)</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="5" t="n">
         <v>0.66</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="6">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>Gatorade (500mL)</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="5" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="13" ht="15" customHeight="1" s="6">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>Leite (1L)</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="6">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>Leite de Coco (200mL)</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="5" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="6">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>Leite de Soja (1L)</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="6">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>Molho de Pimenta (150mL)</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="5" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="6">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>Molho de Pimenta (200mL)</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="5" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="6">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>Óleo (200mL)</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="5" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="6">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>Óleo (900mL)</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="5" t="n">
         <v>0.9</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="6">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>Refrigerante (1,5L)</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="5" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="6">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>Refrigerante (1L)</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="6">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>Refrigerante (2,5L)</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="5" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="6">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>Refrigerante (2L)</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="24" ht="15" customHeight="1" s="6">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>Refrigerante (3L)</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="5" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="6">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>Refrigerante Lata (350mL)</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="5" t="n">
         <v>0.35</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="6">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>Suco (1,5L)</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="5" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="27" ht="15" customHeight="1" s="6">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>Suco (1L)</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="28" ht="15" customHeight="1" s="6">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>Suco (390mL)</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="5" t="n">
         <v>0.39</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="29" ht="15" customHeight="1" s="6">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>Suco (900 mL)</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="5" t="n">
         <v>0.9</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="30" ht="15" customHeight="1" s="6">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>Suco Concentrado (1L)</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="31" ht="15" customHeight="1" s="6">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>Suco Concentrado (500mL)</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="5" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="32" ht="15" customHeight="1" s="6">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>Vinagre (200mL)</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="5" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="33" ht="15" customHeight="1" s="6">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>Vinagre (2L)</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="34" ht="15" customHeight="1" s="6">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>Vinagre (750mL)</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="5" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="35" ht="15" customHeight="1" s="6">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">óleo </t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="36" ht="15" customHeight="1" s="6">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Leite 1L </t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="37" ht="15" customHeight="1" s="6">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>Leite (1L)</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="38" ht="15" customHeight="1" s="6">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>Leite (1L)</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="5" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -47617,834 +47600,838 @@
   </sheetPr>
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="34.79" customWidth="1" style="5" min="1" max="1"/>
+    <col width="16.91" customWidth="1" style="5" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="9">
-      <c r="A1" s="10" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Unnamed: 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="9">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>L/embalagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="6">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>Água Sanitária (1L)</t>
         </is>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="9">
-      <c r="A3" s="11" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="6">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Água Sanitária (2L)</t>
         </is>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="9">
-      <c r="A4" s="11" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="6">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Água Sanitária (5L)</t>
         </is>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="9">
-      <c r="A5" s="11" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="6">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>Álcool (1L)</t>
         </is>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="9">
-      <c r="A6" s="11" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="6">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Álcool (500mL)</t>
         </is>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="5" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="9">
-      <c r="A7" s="11" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="6">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>Álcool Gel (1L)</t>
         </is>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="9">
-      <c r="A8" s="11" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="6">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>Álcool Gel (500mL)</t>
         </is>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="5" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="9">
-      <c r="A9" s="11" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="6">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>Algodão (25g)</t>
         </is>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="5" t="n">
         <v>0.025</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="9">
-      <c r="A10" s="11" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="6">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>Algodão (50g)</t>
         </is>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="5" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="9">
-      <c r="A11" s="11" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="6">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>Alvejante (1L)</t>
         </is>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="9">
-      <c r="A12" s="11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="6">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>Alvejante (2L)</t>
         </is>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="9">
-      <c r="A13" s="11" t="inlineStr">
+    <row r="13" ht="15" customHeight="1" s="6">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>Alvejante (500mL)</t>
         </is>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="5" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="9">
-      <c r="A14" s="11" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="6">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>Amaciante (1L)</t>
         </is>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="9">
-      <c r="A15" s="11" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="6">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>Amaciante (2L)</t>
         </is>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="9">
-      <c r="A16" s="11" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="6">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>Amaciante (500mL)</t>
         </is>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="9">
-      <c r="A17" s="11" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="6">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>Amaciante (5L)</t>
         </is>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="5" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="9">
-      <c r="A18" s="11" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="6">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>Amaciante (900mL)</t>
         </is>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="9">
-      <c r="A19" s="11" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="6">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>Antisséptico (100mL)</t>
         </is>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="9">
-      <c r="A20" s="11" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="6">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>Antisséptico (440mL)</t>
         </is>
       </c>
-      <c r="B20" s="11" t="n">
+      <c r="B20" s="5" t="n">
         <v>0.44</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="9">
-      <c r="A21" s="11" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="6">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>Brilho Alumínio (500mL)</t>
         </is>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="9">
-      <c r="A22" s="11" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="6">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>Bucha (1un)</t>
         </is>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B22" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="9">
-      <c r="A23" s="11" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="6">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>Cloro Ativo (500mL)</t>
         </is>
       </c>
-      <c r="B23" s="11" t="n">
+      <c r="B23" s="5" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="9">
-      <c r="A24" s="11" t="inlineStr">
+    <row r="24" ht="15" customHeight="1" s="6">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>Cloro Ativo (5L)</t>
         </is>
       </c>
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="9">
-      <c r="A25" s="11" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="6">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>Condicionador (200mL)</t>
         </is>
       </c>
-      <c r="B25" s="11" t="n">
+      <c r="B25" s="5" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="9">
-      <c r="A26" s="11" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="6">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>Condicionador (325mL)</t>
         </is>
       </c>
-      <c r="B26" s="11" t="n">
+      <c r="B26" s="5" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="9">
-      <c r="A27" s="11" t="inlineStr">
+    <row r="27" ht="15" customHeight="1" s="6">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>Condicionador (350mL)</t>
         </is>
       </c>
-      <c r="B27" s="11" t="n">
+      <c r="B27" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="9">
-      <c r="A28" s="11" t="inlineStr">
+    <row r="28" ht="15" customHeight="1" s="6">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>Condicionador (400mL)</t>
         </is>
       </c>
-      <c r="B28" s="11" t="n">
+      <c r="B28" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="9">
-      <c r="A29" s="11" t="inlineStr">
+    <row r="29" ht="15" customHeight="1" s="6">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>Condicionador (500mL)</t>
         </is>
       </c>
-      <c r="B29" s="11" t="n">
+      <c r="B29" s="5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="9">
-      <c r="A30" s="11" t="inlineStr">
+    <row r="30" ht="15" customHeight="1" s="6">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>Creme (400mL)</t>
         </is>
       </c>
-      <c r="B30" s="11" t="n">
+      <c r="B30" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="9">
-      <c r="A31" s="11" t="inlineStr">
+    <row r="31" ht="15" customHeight="1" s="6">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>Desengordurante (500mL)</t>
         </is>
       </c>
-      <c r="B31" s="11" t="n">
+      <c r="B31" s="5" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="9">
-      <c r="A32" s="11" t="inlineStr">
+    <row r="32" ht="15" customHeight="1" s="6">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>Desinfetante (1,75L)</t>
         </is>
       </c>
-      <c r="B32" s="11" t="n">
+      <c r="B32" s="5" t="n">
         <v>1.75</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="9">
-      <c r="A33" s="11" t="inlineStr">
+    <row r="33" ht="15" customHeight="1" s="6">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>Desinfetante (1L)</t>
         </is>
       </c>
-      <c r="B33" s="11" t="n">
+      <c r="B33" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" s="9">
-      <c r="A34" s="11" t="inlineStr">
+    <row r="34" ht="15" customHeight="1" s="6">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>Desinfetante (2L)</t>
         </is>
       </c>
-      <c r="B34" s="11" t="n">
+      <c r="B34" s="5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="9">
-      <c r="A35" s="11" t="inlineStr">
+    <row r="35" ht="15" customHeight="1" s="6">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>Desinfetante (300mL)</t>
         </is>
       </c>
-      <c r="B35" s="11" t="n">
+      <c r="B35" s="5" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" s="9">
-      <c r="A36" s="11" t="inlineStr">
+    <row r="36" ht="15" customHeight="1" s="6">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>Desinfetante (500mL)</t>
         </is>
       </c>
-      <c r="B36" s="11" t="n">
+      <c r="B36" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" s="9">
-      <c r="A37" s="11" t="inlineStr">
+    <row r="37" ht="15" customHeight="1" s="6">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>Desinfetante (5L)</t>
         </is>
       </c>
-      <c r="B37" s="11" t="n">
+      <c r="B37" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" s="9">
-      <c r="A38" s="11" t="inlineStr">
+    <row r="38" ht="15" customHeight="1" s="6">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>Desinfetante (750mL)</t>
         </is>
       </c>
-      <c r="B38" s="11" t="n">
+      <c r="B38" s="5" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" s="9">
-      <c r="A39" s="11" t="inlineStr">
+    <row r="39" ht="15" customHeight="1" s="6">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>Detergente (1L)</t>
         </is>
       </c>
-      <c r="B39" s="11" t="n">
+      <c r="B39" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1" s="9">
-      <c r="A40" s="11" t="inlineStr">
+    <row r="40" ht="15" customHeight="1" s="6">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>Detergente (5L)</t>
         </is>
       </c>
-      <c r="B40" s="11" t="n">
+      <c r="B40" s="5" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1" s="9">
-      <c r="A41" s="11" t="inlineStr">
+    <row r="41" ht="15" customHeight="1" s="6">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>Enxaguante Bucal (250mL)</t>
         </is>
       </c>
-      <c r="B41" s="11" t="n">
+      <c r="B41" s="5" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" s="9">
-      <c r="A42" s="11" t="inlineStr">
+    <row r="42" ht="15" customHeight="1" s="6">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>Enxaguante Bucal (350mL)</t>
         </is>
       </c>
-      <c r="B42" s="11" t="n">
+      <c r="B42" s="5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" s="9">
-      <c r="A43" s="11" t="inlineStr">
+    <row r="43" ht="15" customHeight="1" s="6">
+      <c r="A43" s="5" t="inlineStr">
         <is>
           <t>Enxaguante Bucal (500mL)</t>
         </is>
       </c>
-      <c r="B43" s="11" t="n">
+      <c r="B43" s="5" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1" s="9">
-      <c r="A44" s="11" t="inlineStr">
+    <row r="44" ht="15" customHeight="1" s="6">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>Hidratante (150mL)</t>
         </is>
       </c>
-      <c r="B44" s="11" t="n">
+      <c r="B44" s="5" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" s="9">
-      <c r="A45" s="11" t="inlineStr">
+    <row r="45" ht="15" customHeight="1" s="6">
+      <c r="A45" s="5" t="inlineStr">
         <is>
           <t>Hidratante (200mL)</t>
         </is>
       </c>
-      <c r="B45" s="11" t="n">
+      <c r="B45" s="5" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1" s="9">
-      <c r="A46" s="11" t="inlineStr">
+    <row r="46" ht="15" customHeight="1" s="6">
+      <c r="A46" s="5" t="inlineStr">
         <is>
           <t>Hidratante (400mL)</t>
         </is>
       </c>
-      <c r="B46" s="11" t="n">
+      <c r="B46" s="5" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1" s="9">
-      <c r="A47" s="11" t="inlineStr">
+    <row r="47" ht="15" customHeight="1" s="6">
+      <c r="A47" s="5" t="inlineStr">
         <is>
           <t>Hidratante (500mL)</t>
         </is>
       </c>
-      <c r="B47" s="11" t="n">
+      <c r="B47" s="5" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1" s="9">
-      <c r="A48" s="11" t="inlineStr">
+    <row r="48" ht="15" customHeight="1" s="6">
+      <c r="A48" s="5" t="inlineStr">
         <is>
           <t>Hidratante para Cabelo (300mL)</t>
         </is>
       </c>
-      <c r="B48" s="11" t="n">
+      <c r="B48" s="5" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1" s="9">
-      <c r="A49" s="11" t="inlineStr">
+    <row r="49" ht="15" customHeight="1" s="6">
+      <c r="A49" s="5" t="inlineStr">
         <is>
           <t>Lava Roupas Líquido (900mL)</t>
         </is>
       </c>
-      <c r="B49" s="11" t="n">
+      <c r="B49" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1" s="9">
-      <c r="A50" s="11" t="inlineStr">
+    <row r="50" ht="15" customHeight="1" s="6">
+      <c r="A50" s="5" t="inlineStr">
         <is>
           <t>Limpador (2L)</t>
         </is>
       </c>
-      <c r="B50" s="11" t="n">
+      <c r="B50" s="5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1" s="9">
-      <c r="A51" s="11" t="inlineStr">
+    <row r="51" ht="15" customHeight="1" s="6">
+      <c r="A51" s="5" t="inlineStr">
         <is>
           <t>Limpador (500mL)</t>
         </is>
       </c>
-      <c r="B51" s="11" t="n">
+      <c r="B51" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1" s="9">
-      <c r="A52" s="11" t="inlineStr">
+    <row r="52" ht="15" customHeight="1" s="6">
+      <c r="A52" s="5" t="inlineStr">
         <is>
           <t>Lustra Móveis (200mL)</t>
         </is>
       </c>
-      <c r="B52" s="11" t="n">
+      <c r="B52" s="5" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1" s="9">
-      <c r="A53" s="11" t="inlineStr">
+    <row r="53" ht="15" customHeight="1" s="6">
+      <c r="A53" s="5" t="inlineStr">
         <is>
           <t>Multiuso (1L)</t>
         </is>
       </c>
-      <c r="B53" s="11" t="n">
+      <c r="B53" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1" s="9">
-      <c r="A54" s="11" t="inlineStr">
+    <row r="54" ht="15" customHeight="1" s="6">
+      <c r="A54" s="5" t="inlineStr">
         <is>
           <t>Multiuso (200ml)</t>
         </is>
       </c>
-      <c r="B54" s="11" t="n">
+      <c r="B54" s="5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1" s="9">
-      <c r="A55" s="11" t="inlineStr">
+    <row r="55" ht="15" customHeight="1" s="6">
+      <c r="A55" s="5" t="inlineStr">
         <is>
           <t>Multiuso (450mL)</t>
         </is>
       </c>
-      <c r="B55" s="11" t="n">
+      <c r="B55" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" s="9">
-      <c r="A56" s="11" t="inlineStr">
+    <row r="56" ht="15" customHeight="1" s="6">
+      <c r="A56" s="5" t="inlineStr">
         <is>
           <t>Multiuso (500mL)</t>
         </is>
       </c>
-      <c r="B56" s="11" t="n">
+      <c r="B56" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1" s="9">
-      <c r="A57" s="11" t="inlineStr">
+    <row r="57" ht="15" customHeight="1" s="6">
+      <c r="A57" s="5" t="inlineStr">
         <is>
           <t>Multiuso (750mL)</t>
         </is>
       </c>
-      <c r="B57" s="11" t="n">
+      <c r="B57" s="5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1" s="9">
-      <c r="A58" s="11" t="inlineStr">
+    <row r="58" ht="15" customHeight="1" s="6">
+      <c r="A58" s="5" t="inlineStr">
         <is>
           <t>Multiuso Pacote 3 Unidades (500mL)</t>
         </is>
       </c>
-      <c r="B58" s="11" t="n">
+      <c r="B58" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1" s="9">
-      <c r="A59" s="11" t="inlineStr">
+    <row r="59" ht="15" customHeight="1" s="6">
+      <c r="A59" s="5" t="inlineStr">
         <is>
           <t>Perfume (100mL)</t>
         </is>
       </c>
-      <c r="B59" s="11" t="n">
+      <c r="B59" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1" s="9">
-      <c r="A60" s="11" t="inlineStr">
+    <row r="60" ht="15" customHeight="1" s="6">
+      <c r="A60" s="5" t="inlineStr">
         <is>
           <t>Perfume de Bebê (500 mL)</t>
         </is>
       </c>
-      <c r="B60" s="11" t="n">
+      <c r="B60" s="5" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1" s="9">
-      <c r="A61" s="11" t="inlineStr">
+    <row r="61" ht="15" customHeight="1" s="6">
+      <c r="A61" s="5" t="inlineStr">
         <is>
           <t>Protetor Solar (400mL)</t>
         </is>
       </c>
-      <c r="B61" s="11" t="n">
+      <c r="B61" s="5" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1" s="9">
-      <c r="A62" s="11" t="inlineStr">
+    <row r="62" ht="15" customHeight="1" s="6">
+      <c r="A62" s="5" t="inlineStr">
         <is>
           <t>Querosene (1L)</t>
         </is>
       </c>
-      <c r="B62" s="11" t="n">
+      <c r="B62" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1" s="9">
-      <c r="A63" s="11" t="inlineStr">
+    <row r="63" ht="15" customHeight="1" s="6">
+      <c r="A63" s="5" t="inlineStr">
         <is>
           <t>Querosene (500mL)</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1" s="9">
-      <c r="A64" s="11" t="inlineStr">
+    <row r="64" ht="15" customHeight="1" s="6">
+      <c r="A64" s="5" t="inlineStr">
         <is>
           <t>Querosene (900mL)</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1" s="9">
-      <c r="A65" s="11" t="inlineStr">
+    <row r="65" ht="15" customHeight="1" s="6">
+      <c r="A65" s="5" t="inlineStr">
         <is>
           <t>Roupa Íntima Descartável</t>
         </is>
       </c>
-      <c r="B65" s="11" t="n">
+      <c r="B65" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="15" customHeight="1" s="9">
-      <c r="A66" s="11" t="inlineStr">
+    <row r="66" ht="15" customHeight="1" s="6">
+      <c r="A66" s="5" t="inlineStr">
         <is>
           <t>Sabão Líquido (1L)</t>
         </is>
       </c>
-      <c r="B66" s="11" t="n">
+      <c r="B66" s="5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1" s="9">
-      <c r="A67" s="11" t="inlineStr">
+    <row r="67" ht="15" customHeight="1" s="6">
+      <c r="A67" s="5" t="inlineStr">
         <is>
           <t>Sabão Líquido (1L)</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1" s="9">
-      <c r="A68" s="11" t="inlineStr">
+    <row r="68" ht="15" customHeight="1" s="6">
+      <c r="A68" s="5" t="inlineStr">
         <is>
           <t>Sabão Líquido (2L)</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1" s="9">
-      <c r="A69" s="11" t="inlineStr">
+    <row r="69" ht="15" customHeight="1" s="6">
+      <c r="A69" s="5" t="inlineStr">
         <is>
           <t>Sabão Líquido (3L)</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1" s="9">
-      <c r="A70" s="11" t="inlineStr">
+    <row r="70" ht="15" customHeight="1" s="6">
+      <c r="A70" s="5" t="inlineStr">
         <is>
           <t>Sabão Líquido (450mL)</t>
         </is>
       </c>
-      <c r="B70" s="11" t="n">
+      <c r="B70" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1" s="9">
-      <c r="A71" s="11" t="inlineStr">
+    <row r="71" ht="15" customHeight="1" s="6">
+      <c r="A71" s="5" t="inlineStr">
         <is>
           <t>Sabão Líquido (5L)</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1" s="9">
-      <c r="A72" s="11" t="inlineStr">
+    <row r="72" ht="15" customHeight="1" s="6">
+      <c r="A72" s="5" t="inlineStr">
         <is>
           <t>Sabonete Líquido (200mL)</t>
         </is>
       </c>
-      <c r="B72" s="11" t="n">
+      <c r="B72" s="5" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="73" ht="15" customHeight="1" s="9">
-      <c r="A73" s="11" t="inlineStr">
+    <row r="73" ht="15" customHeight="1" s="6">
+      <c r="A73" s="5" t="inlineStr">
         <is>
           <t>Sabonete Líquido (250mL)</t>
         </is>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1" s="9">
-      <c r="A74" s="11" t="inlineStr">
+    <row r="74" ht="15" customHeight="1" s="6">
+      <c r="A74" s="5" t="inlineStr">
         <is>
           <t>Sabonete Líquido (500mL)</t>
         </is>
       </c>
-      <c r="B74" s="11" t="n">
+      <c r="B74" s="5" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1" s="9">
-      <c r="A75" s="11" t="inlineStr">
+    <row r="75" ht="15" customHeight="1" s="6">
+      <c r="A75" s="5" t="inlineStr">
         <is>
           <t>Shampoo (175 mL)</t>
         </is>
       </c>
-      <c r="B75" s="11" t="n">
+      <c r="B75" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1" s="9">
-      <c r="A76" s="11" t="inlineStr">
+    <row r="76" ht="15" customHeight="1" s="6">
+      <c r="A76" s="5" t="inlineStr">
         <is>
           <t>Shampoo (250mL)</t>
         </is>
       </c>
-      <c r="B76" s="11" t="n">
+      <c r="B76" s="5" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1" s="9">
-      <c r="A77" s="11" t="inlineStr">
+    <row r="77" ht="15" customHeight="1" s="6">
+      <c r="A77" s="5" t="inlineStr">
         <is>
           <t>Shampoo (300mL)</t>
         </is>
       </c>
-      <c r="B77" s="11" t="n">
+      <c r="B77" s="5" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" ht="15" customHeight="1" s="9">
-      <c r="A78" s="11" t="inlineStr">
+    <row r="78" ht="15" customHeight="1" s="6">
+      <c r="A78" s="5" t="inlineStr">
         <is>
           <t>Shampoo (325mL)</t>
         </is>
       </c>
-      <c r="B78" s="11" t="n">
+      <c r="B78" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="79" ht="15" customHeight="1" s="9">
-      <c r="A79" s="11" t="inlineStr">
+    <row r="79" ht="15" customHeight="1" s="6">
+      <c r="A79" s="5" t="inlineStr">
         <is>
           <t>Shampoo (350mL)</t>
         </is>
       </c>
-      <c r="B79" s="11" t="n">
+      <c r="B79" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="80" ht="15" customHeight="1" s="9">
-      <c r="A80" s="11" t="inlineStr">
+    <row r="80" ht="15" customHeight="1" s="6">
+      <c r="A80" s="5" t="inlineStr">
         <is>
           <t>Shampoo (400mL)</t>
         </is>
       </c>
     </row>
-    <row r="81" ht="15" customHeight="1" s="9">
-      <c r="A81" s="11" t="inlineStr">
+    <row r="81" ht="15" customHeight="1" s="6">
+      <c r="A81" s="5" t="inlineStr">
         <is>
           <t>Shampoo (425mL)</t>
         </is>
       </c>
-      <c r="B81" s="11" t="n">
+      <c r="B81" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="82" ht="15" customHeight="1" s="9">
-      <c r="A82" s="11" t="inlineStr">
+    <row r="82" ht="15" customHeight="1" s="6">
+      <c r="A82" s="5" t="inlineStr">
         <is>
           <t>Shampoo (500mL)</t>
         </is>
       </c>
-      <c r="B82" s="11" t="n">
+      <c r="B82" s="5" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" ht="15" customHeight="1" s="9">
-      <c r="A83" s="11" t="inlineStr">
+    <row r="83" ht="15" customHeight="1" s="6">
+      <c r="A83" s="5" t="inlineStr">
         <is>
           <t>Shampoo e Condicionador (325mL)</t>
         </is>
       </c>
-      <c r="B83" s="11" t="n">
+      <c r="B83" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1" s="9">
-      <c r="A84" s="11" t="inlineStr">
+    <row r="84" ht="15" customHeight="1" s="6">
+      <c r="A84" s="5" t="inlineStr">
         <is>
           <t>Tira Manchas (450mL)</t>
         </is>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1" s="9">
-      <c r="A85" s="11" t="inlineStr">
+    <row r="85" ht="15" customHeight="1" s="6">
+      <c r="A85" s="5" t="inlineStr">
         <is>
           <t>Água Sanitária (2L)</t>
         </is>
       </c>
-      <c r="B85" s="11" t="n">
+      <c r="B85" s="5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -48457,1574 +48444,1585 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="20.27" customWidth="1" style="5" min="1" max="1"/>
+    <col width="14.85" customWidth="1" style="5" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
-        <is>
-          <t>Unnamed: 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>se quiser sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="6">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>Absorvente (08un)</t>
         </is>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="5" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="6">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Absorvente (10un)</t>
         </is>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="6">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Absorvente (15un)</t>
         </is>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="5" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="6">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>Absorvente (16un)</t>
         </is>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="5" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="6">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Absorvente (20un)</t>
         </is>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="5" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="6">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>Absorvente (30un)</t>
         </is>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="5" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="6">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>Absorvente (32un)</t>
         </is>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="5" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="6">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>Absorvente (36un)</t>
         </is>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="5" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="6">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>Absorvente (40un)</t>
         </is>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="5" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="11" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="6">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>Absorvente (60un)</t>
         </is>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="5" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="6">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>Absorvente (80un)</t>
         </is>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="5" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="11" t="inlineStr">
+    <row r="13" ht="15" customHeight="1" s="6">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>Aparelho Barbear (2un)</t>
         </is>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="6">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>Band Aid (10un)</t>
         </is>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="6">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>Band Aid (40un)</t>
         </is>
       </c>
-      <c r="B15" s="11" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="inlineStr">
+      <c r="B15" s="5" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="6">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>Bob (8un)</t>
         </is>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="5" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="11" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="6">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>Desodorante Spray (02un)</t>
         </is>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="11" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="6">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>Detergente (6un)</t>
         </is>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="5" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="11" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="6">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>Escova de Dente (1un)</t>
         </is>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="5" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="11" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="6">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>Escova de Dente (2un)</t>
         </is>
       </c>
-      <c r="B20" s="11" t="n">
+      <c r="B20" s="5" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="11" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="6">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>Escova de Dente (3un)</t>
         </is>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="5" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="6">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>Escova de Dente (4un)</t>
         </is>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B22" s="5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="6">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>Escova de Dente (5un)</t>
         </is>
       </c>
-      <c r="B23" s="11" t="n">
+      <c r="B23" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
+    <row r="24" ht="15" customHeight="1" s="6">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>Esponja (1un)</t>
         </is>
       </c>
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="5" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="11" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="6">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>Esponja (3un)</t>
         </is>
       </c>
-      <c r="B25" s="11" t="n">
+      <c r="B25" s="5" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="6">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>Esponja (4un)</t>
         </is>
       </c>
-      <c r="B26" s="11" t="n">
+      <c r="B26" s="5" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
+    <row r="27" ht="15" customHeight="1" s="6">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>Filtro de Café (30un)</t>
         </is>
       </c>
-      <c r="B27" s="11" t="n">
+      <c r="B27" s="5" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
+    <row r="28" ht="15" customHeight="1" s="6">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>Fio Dental</t>
         </is>
       </c>
-      <c r="B28" s="11" t="n">
+      <c r="B28" s="5" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
+    <row r="29" ht="15" customHeight="1" s="6">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>Fósforo (200un)</t>
         </is>
       </c>
-      <c r="B29" s="11" t="n">
+      <c r="B29" s="5" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
+    <row r="30" ht="15" customHeight="1" s="6">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>Fósforo (40un)</t>
         </is>
       </c>
-      <c r="B30" s="11" t="n">
+      <c r="B30" s="5" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
+    <row r="31" ht="15" customHeight="1" s="6">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>Fósforo (50un)</t>
         </is>
       </c>
-      <c r="B31" s="11" t="n">
+      <c r="B31" s="5" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
+    <row r="32" ht="15" customHeight="1" s="6">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>Fósforo Pacote 10 Caixas (40un)</t>
         </is>
       </c>
-      <c r="B32" s="11" t="n">
+      <c r="B32" s="5" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="11" t="inlineStr">
+    <row r="33" ht="15" customHeight="1" s="6">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>Absorvente (15un)</t>
         </is>
       </c>
-      <c r="B33" s="11" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="inlineStr">
+      <c r="B33" s="5" t="n"/>
+    </row>
+    <row r="34" ht="15" customHeight="1" s="6">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>Fraldas Geriátricas (16un)</t>
         </is>
       </c>
-      <c r="B34" s="11" t="n">
+      <c r="B34" s="5" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="11" t="inlineStr">
+    <row r="35" ht="15" customHeight="1" s="6">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>Fraldas Geriátricas (18un)</t>
         </is>
       </c>
-      <c r="B35" s="11" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="11" t="inlineStr">
+      <c r="B35" s="5" t="n"/>
+    </row>
+    <row r="36" ht="15" customHeight="1" s="6">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>Fraldas Geriátricas (20un)</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
+      <c r="B36" s="5" t="n"/>
+    </row>
+    <row r="37" ht="15" customHeight="1" s="6">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>Fraldas Geriátricas (24un)</t>
         </is>
       </c>
-      <c r="B37" s="11" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="inlineStr">
+      <c r="B37" s="5" t="n"/>
+    </row>
+    <row r="38" ht="15" customHeight="1" s="6">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>Fraldas Geriátricas (30un)</t>
         </is>
       </c>
-      <c r="B38" s="11" t="n">
+      <c r="B38" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="11" t="inlineStr">
+    <row r="39" ht="15" customHeight="1" s="6">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>Fraldas Geriátricas (7un)</t>
         </is>
       </c>
-      <c r="B39" s="11" t="n">
+      <c r="B39" s="5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="11" t="inlineStr">
+    <row r="40" ht="15" customHeight="1" s="6">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>Fraldas Geriátricas (9un)</t>
         </is>
       </c>
-      <c r="B40" s="11" t="n">
+      <c r="B40" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="11" t="inlineStr">
+    <row r="41" ht="15" customHeight="1" s="6">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (12un)</t>
         </is>
       </c>
-      <c r="B41" s="11" t="n">
+      <c r="B41" s="5" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="11" t="inlineStr">
+    <row r="42" ht="15" customHeight="1" s="6">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (14un)</t>
         </is>
       </c>
-      <c r="B42" s="11" t="n">
+      <c r="B42" s="5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="11" t="inlineStr">
+    <row r="43" ht="15" customHeight="1" s="6">
+      <c r="A43" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (16un)</t>
         </is>
       </c>
-      <c r="B43" s="11" t="n">
+      <c r="B43" s="5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="11" t="inlineStr">
+    <row r="44" ht="15" customHeight="1" s="6">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (18un)</t>
         </is>
       </c>
-      <c r="B44" s="11" t="n">
+      <c r="B44" s="5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="11" t="inlineStr">
+    <row r="45" ht="15" customHeight="1" s="6">
+      <c r="A45" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (20un)</t>
         </is>
       </c>
-      <c r="B45" s="11" t="n">
+      <c r="B45" s="5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="11" t="inlineStr">
+    <row r="46" ht="15" customHeight="1" s="6">
+      <c r="A46" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (22un)</t>
         </is>
       </c>
-      <c r="B46" s="11" t="n">
+      <c r="B46" s="5" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="11" t="inlineStr">
+    <row r="47" ht="15" customHeight="1" s="6">
+      <c r="A47" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (24un)</t>
         </is>
       </c>
-      <c r="B47" s="11" t="n">
+      <c r="B47" s="5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="11" t="inlineStr">
+    <row r="48" ht="15" customHeight="1" s="6">
+      <c r="A48" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (26un)</t>
         </is>
       </c>
-      <c r="B48" s="11" t="n">
+      <c r="B48" s="5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="11" t="inlineStr">
+    <row r="49" ht="15" customHeight="1" s="6">
+      <c r="A49" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (28un)</t>
         </is>
       </c>
-      <c r="B49" s="11" t="n">
+      <c r="B49" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="11" t="inlineStr">
+    <row r="50" ht="15" customHeight="1" s="6">
+      <c r="A50" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (30un)</t>
         </is>
       </c>
-      <c r="B50" s="11" t="n">
+      <c r="B50" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
+    <row r="51" ht="15" customHeight="1" s="6">
+      <c r="A51" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (32un)</t>
         </is>
       </c>
-      <c r="B51" s="11" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
+      <c r="B51" s="5" t="n"/>
+    </row>
+    <row r="52" ht="15" customHeight="1" s="6">
+      <c r="A52" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (34un)</t>
         </is>
       </c>
-      <c r="B52" s="11" t="n">
+      <c r="B52" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="11" t="inlineStr">
+    <row r="53" ht="15" customHeight="1" s="6">
+      <c r="A53" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (36un)</t>
         </is>
       </c>
-      <c r="B53" s="11" t="n">
+      <c r="B53" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="11" t="inlineStr">
+    <row r="54" ht="15" customHeight="1" s="6">
+      <c r="A54" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (38un)</t>
         </is>
       </c>
-      <c r="B54" s="11" t="n">
+      <c r="B54" s="5" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="11" t="inlineStr">
+    <row r="55" ht="15" customHeight="1" s="6">
+      <c r="A55" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (40un)</t>
         </is>
       </c>
-      <c r="B55" s="11" t="n">
+      <c r="B55" s="5" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
+    <row r="56" ht="15" customHeight="1" s="6">
+      <c r="A56" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (42un)</t>
         </is>
       </c>
-      <c r="B56" s="11" t="n">
+      <c r="B56" s="5" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
+    <row r="57" ht="15" customHeight="1" s="6">
+      <c r="A57" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (44un)</t>
         </is>
       </c>
-      <c r="B57" s="11" t="n">
+      <c r="B57" s="5" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
+    <row r="58" ht="15" customHeight="1" s="6">
+      <c r="A58" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (46un)</t>
         </is>
       </c>
-      <c r="B58" s="11" t="n">
+      <c r="B58" s="5" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="11" t="inlineStr">
+    <row r="59" ht="15" customHeight="1" s="6">
+      <c r="A59" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (48un)</t>
         </is>
       </c>
-      <c r="B59" s="11" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="11" t="inlineStr">
+      <c r="B59" s="5" t="n"/>
+    </row>
+    <row r="60" ht="15" customHeight="1" s="6">
+      <c r="A60" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (50un)</t>
         </is>
       </c>
-      <c r="B60" s="11" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="11" t="inlineStr">
+      <c r="B60" s="5" t="n"/>
+    </row>
+    <row r="61" ht="15" customHeight="1" s="6">
+      <c r="A61" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (52un)</t>
         </is>
       </c>
-      <c r="B61" s="11" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="11" t="inlineStr">
+      <c r="B61" s="5" t="n"/>
+    </row>
+    <row r="62" ht="15" customHeight="1" s="6">
+      <c r="A62" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (56un)</t>
         </is>
       </c>
-      <c r="B62" s="11" t="n">
+      <c r="B62" s="5" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="11" t="inlineStr">
+    <row r="63" ht="15" customHeight="1" s="6">
+      <c r="A63" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (58un)</t>
         </is>
       </c>
-      <c r="B63" s="11" t="n">
+      <c r="B63" s="5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="11" t="inlineStr">
+    <row r="64" ht="15" customHeight="1" s="6">
+      <c r="A64" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (60un)</t>
         </is>
       </c>
-      <c r="B64" s="11" t="n">
+      <c r="B64" s="5" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="11" t="inlineStr">
+    <row r="65" ht="15" customHeight="1" s="6">
+      <c r="A65" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (70un)</t>
         </is>
       </c>
-      <c r="B65" s="11" t="n">
+      <c r="B65" s="5" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="11" t="inlineStr">
+    <row r="66" ht="15" customHeight="1" s="6">
+      <c r="A66" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (7un)</t>
         </is>
       </c>
-      <c r="B66" s="11" t="n">
+      <c r="B66" s="5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="11" t="inlineStr">
+    <row r="67" ht="15" customHeight="1" s="6">
+      <c r="A67" s="5" t="inlineStr">
         <is>
           <t>Fraldas Infantis (8un)</t>
         </is>
       </c>
-      <c r="B67" s="11" t="n">
+      <c r="B67" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="11" t="inlineStr">
+    <row r="68" ht="15" customHeight="1" s="6">
+      <c r="A68" s="5" t="inlineStr">
         <is>
           <t>Hastes Flexíveis (75un)</t>
         </is>
       </c>
-      <c r="B68" s="11" t="inlineStr">
+      <c r="B68" s="5" t="inlineStr">
         <is>
           <t>1 caixa com 75un</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="11" t="inlineStr">
+    <row r="69" ht="15" customHeight="1" s="6">
+      <c r="A69" s="5" t="inlineStr">
         <is>
           <t>Gaze</t>
         </is>
       </c>
-      <c r="B69" s="11" t="n">
+      <c r="B69" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="11" t="inlineStr">
+    <row r="70" ht="15" customHeight="1" s="6">
+      <c r="A70" s="5" t="inlineStr">
         <is>
           <t>Guardanapo</t>
         </is>
       </c>
-      <c r="B70" s="11" t="n">
+      <c r="B70" s="5" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="11" t="inlineStr">
+    <row r="71" ht="15" customHeight="1" s="6">
+      <c r="A71" s="5" t="inlineStr">
         <is>
           <t>Kit Shampoo e Condicionador</t>
         </is>
       </c>
-      <c r="B71" s="11" t="n">
+      <c r="B71" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="11" t="inlineStr">
+    <row r="72" ht="15" customHeight="1" s="6">
+      <c r="A72" s="5" t="inlineStr">
         <is>
           <t>Lâmina de Barbear (1un)</t>
         </is>
       </c>
-      <c r="B72" s="11" t="n">
+      <c r="B72" s="5" t="n">
         <v>0.09</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="11" t="inlineStr">
+    <row r="73" ht="15" customHeight="1" s="6">
+      <c r="A73" s="5" t="inlineStr">
         <is>
           <t>Lâmina de Barbear (2un)</t>
         </is>
       </c>
-      <c r="B73" s="11" t="n">
+      <c r="B73" s="5" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="11" t="inlineStr">
+    <row r="74" ht="15" customHeight="1" s="6">
+      <c r="A74" s="5" t="inlineStr">
         <is>
           <t>Lâmina de Barbear (3un)</t>
         </is>
       </c>
-      <c r="B74" s="11" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="11" t="inlineStr">
+      <c r="B74" s="5" t="n"/>
+    </row>
+    <row r="75" ht="15" customHeight="1" s="6">
+      <c r="A75" s="5" t="inlineStr">
         <is>
           <t>Lâmina de Barbear (4un)</t>
         </is>
       </c>
-      <c r="B75" s="11" t="n">
+      <c r="B75" s="5" t="n">
         <v>0.9</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="11" t="inlineStr">
+    <row r="76" ht="15" customHeight="1" s="6">
+      <c r="A76" s="5" t="inlineStr">
         <is>
           <t>Lâmina de Barbear (5un)</t>
         </is>
       </c>
-      <c r="B76" s="11" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="11" t="inlineStr">
+      <c r="B76" s="5" t="n"/>
+    </row>
+    <row r="77" ht="15" customHeight="1" s="6">
+      <c r="A77" s="5" t="inlineStr">
         <is>
           <t>Lâmina de Barbear (7un)</t>
         </is>
       </c>
-      <c r="B77" s="11" t="n">
+      <c r="B77" s="5" t="n">
         <v>0.45</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="11" t="inlineStr">
+    <row r="78" ht="15" customHeight="1" s="6">
+      <c r="A78" s="5" t="inlineStr">
         <is>
           <t>Lâmina de Barbear (8un)</t>
         </is>
       </c>
-      <c r="B78" s="11" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="11" t="inlineStr">
+      <c r="B78" s="5" t="n"/>
+    </row>
+    <row r="79" ht="15" customHeight="1" s="6">
+      <c r="A79" s="5" t="inlineStr">
         <is>
           <t>Lâmina Refil (2un)</t>
         </is>
       </c>
-      <c r="B79" s="11" t="n">
+      <c r="B79" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="11" t="inlineStr">
+    <row r="80" ht="15" customHeight="1" s="6">
+      <c r="A80" s="5" t="inlineStr">
         <is>
           <t>Lâmina Refil (4un)</t>
         </is>
       </c>
-      <c r="B80" s="11" t="n">
+      <c r="B80" s="5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="11" t="inlineStr">
+    <row r="81" ht="15" customHeight="1" s="6">
+      <c r="A81" s="5" t="inlineStr">
         <is>
           <t>Lâmina Refil (5un)</t>
         </is>
       </c>
-      <c r="B81" s="11" t="n">
+      <c r="B81" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="11" t="inlineStr">
+    <row r="82" ht="15" customHeight="1" s="6">
+      <c r="A82" s="5" t="inlineStr">
         <is>
           <t>Lenços de Papel (50un)</t>
         </is>
       </c>
-      <c r="B82" s="11" t="n">
+      <c r="B82" s="5" t="n">
         <v>2.8</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="11" t="inlineStr">
+    <row r="83" ht="15" customHeight="1" s="6">
+      <c r="A83" s="5" t="inlineStr">
         <is>
           <t>Lenços Papel (100un)</t>
         </is>
       </c>
-      <c r="B83" s="11" t="n">
+      <c r="B83" s="5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="11" t="inlineStr">
+    <row r="84" ht="15" customHeight="1" s="6">
+      <c r="A84" s="5" t="inlineStr">
         <is>
           <t>Lenços Umedecidos (40un)</t>
         </is>
       </c>
-      <c r="B84" s="11" t="n">
+      <c r="B84" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="11" t="inlineStr">
+    <row r="85" ht="15" customHeight="1" s="6">
+      <c r="A85" s="5" t="inlineStr">
         <is>
           <t>Lenços Umedecidos (48 un)</t>
         </is>
       </c>
-      <c r="B85" s="11" t="n">
+      <c r="B85" s="5" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="11" t="inlineStr">
+    <row r="86" ht="15" customHeight="1" s="6">
+      <c r="A86" s="5" t="inlineStr">
         <is>
           <t>Lenços Umedecidos (75un)</t>
         </is>
       </c>
-      <c r="B86" s="11" t="n">
+      <c r="B86" s="5" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="11" t="inlineStr">
+    <row r="87" ht="15" customHeight="1" s="6">
+      <c r="A87" s="5" t="inlineStr">
         <is>
           <t>Limpa Vidros</t>
         </is>
       </c>
-      <c r="B87" s="11" t="n">
+      <c r="B87" s="5" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="11" t="inlineStr">
+    <row r="88" ht="15" customHeight="1" s="6">
+      <c r="A88" s="5" t="inlineStr">
         <is>
           <t>Loção Pós-Barba</t>
         </is>
       </c>
-      <c r="B88" s="11" t="n">
+      <c r="B88" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="11" t="inlineStr">
+    <row r="89" ht="15" customHeight="1" s="6">
+      <c r="A89" s="5" t="inlineStr">
         <is>
           <t>Pano de Limpeza (5un)</t>
         </is>
       </c>
-      <c r="B89" s="11" t="n">
+      <c r="B89" s="5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="11" t="inlineStr">
+    <row r="90" ht="15" customHeight="1" s="6">
+      <c r="A90" s="5" t="inlineStr">
         <is>
           <t>Papel Higiênico (12un)</t>
         </is>
       </c>
-      <c r="B90" s="11" t="n">
+      <c r="B90" s="5" t="n">
         <v>0.325</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="11" t="inlineStr">
+    <row r="91" ht="15" customHeight="1" s="6">
+      <c r="A91" s="5" t="inlineStr">
         <is>
           <t>Papel Higiênico (16un)</t>
         </is>
       </c>
-      <c r="B91" s="11" t="n">
+      <c r="B91" s="5" t="n">
         <v>0.35</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="11" t="inlineStr">
+    <row r="92" ht="15" customHeight="1" s="6">
+      <c r="A92" s="5" t="inlineStr">
         <is>
           <t>Papel Higiênico (24un)</t>
         </is>
       </c>
-      <c r="B92" s="11" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="11" t="inlineStr">
+      <c r="B92" s="5" t="n"/>
+    </row>
+    <row r="93" ht="15" customHeight="1" s="6">
+      <c r="A93" s="5" t="inlineStr">
         <is>
           <t>Papel Higiênico (44uni)</t>
         </is>
       </c>
-      <c r="B93" s="11" t="n">
+      <c r="B93" s="5" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="11" t="inlineStr">
+    <row r="94" ht="15" customHeight="1" s="6">
+      <c r="A94" s="5" t="inlineStr">
         <is>
           <t>Papel Higiênico (4un)</t>
         </is>
       </c>
-      <c r="B94" s="11" t="n">
+      <c r="B94" s="5" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="11" t="inlineStr">
+    <row r="95" ht="15" customHeight="1" s="6">
+      <c r="A95" s="5" t="inlineStr">
         <is>
           <t>Papel Higiênico (8un)</t>
         </is>
       </c>
-      <c r="B95" s="11" t="n">
+      <c r="B95" s="5" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="11" t="inlineStr">
+    <row r="96" ht="15" customHeight="1" s="6">
+      <c r="A96" s="5" t="inlineStr">
         <is>
           <t>Papel Toalha (12un)</t>
         </is>
       </c>
-      <c r="B96" s="11" t="n">
+      <c r="B96" s="5" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="11" t="inlineStr">
+    <row r="97" ht="15" customHeight="1" s="6">
+      <c r="A97" s="5" t="inlineStr">
         <is>
           <t>Papel Toalha (2un)</t>
         </is>
       </c>
-      <c r="B97" s="11" t="n">
+      <c r="B97" s="5" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="11" t="inlineStr">
+    <row r="98" ht="15" customHeight="1" s="6">
+      <c r="A98" s="5" t="inlineStr">
         <is>
           <t>Pregadores (10un)</t>
         </is>
       </c>
-      <c r="B98" s="11" t="n">
+      <c r="B98" s="5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="11" t="inlineStr">
+    <row r="99" ht="15" customHeight="1" s="6">
+      <c r="A99" s="5" t="inlineStr">
         <is>
           <t>Sabão em Barra (5un)</t>
         </is>
       </c>
-      <c r="B99" s="11" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="11" t="inlineStr">
+      <c r="B99" s="5" t="n"/>
+    </row>
+    <row r="100" ht="15" customHeight="1" s="6">
+      <c r="A100" s="5" t="inlineStr">
         <is>
           <t>Sabão em Barra (1un)</t>
         </is>
       </c>
-      <c r="B100" s="11" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="11" t="inlineStr">
+      <c r="B100" s="5" t="n"/>
+    </row>
+    <row r="101" ht="15" customHeight="1" s="6">
+      <c r="A101" s="5" t="inlineStr">
         <is>
           <t>Sabonete (3un)</t>
         </is>
       </c>
-      <c r="B101" s="11" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="11" t="inlineStr">
+      <c r="B101" s="5" t="n"/>
+    </row>
+    <row r="102" ht="15" customHeight="1" s="6">
+      <c r="A102" s="5" t="inlineStr">
         <is>
           <t>Sabonete (4un)</t>
         </is>
       </c>
-      <c r="B102" s="11" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="11" t="inlineStr">
+      <c r="B102" s="5" t="n"/>
+    </row>
+    <row r="103" ht="15" customHeight="1" s="6">
+      <c r="A103" s="5" t="inlineStr">
         <is>
           <t>Sabonete (6un)</t>
         </is>
       </c>
-      <c r="B103" s="11" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="11" t="inlineStr">
+      <c r="B103" s="5" t="n"/>
+    </row>
+    <row r="104" ht="15" customHeight="1" s="6">
+      <c r="A104" s="5" t="inlineStr">
         <is>
           <t>Sabonete (8un)</t>
         </is>
       </c>
-      <c r="B104" s="11" t="n">
+      <c r="B104" s="5" t="n">
         <v>0.68</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="11" t="inlineStr">
+    <row r="105" ht="15" customHeight="1" s="6">
+      <c r="A105" s="5" t="inlineStr">
         <is>
           <t>Saco de Lixo 100L (5un)</t>
         </is>
       </c>
-      <c r="B105" s="11" t="n">
+      <c r="B105" s="5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="11" t="inlineStr">
+    <row r="106" ht="15" customHeight="1" s="6">
+      <c r="A106" s="5" t="inlineStr">
         <is>
           <t>Saco de Lixo 15L (100un)</t>
         </is>
       </c>
-      <c r="B106" s="11" t="n">
+      <c r="B106" s="5" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="11" t="inlineStr">
+    <row r="107" ht="15" customHeight="1" s="6">
+      <c r="A107" s="5" t="inlineStr">
         <is>
           <t>Saco de Lixo 15L (20un)</t>
         </is>
       </c>
-      <c r="B107" s="11" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="11" t="inlineStr">
+      <c r="B107" s="5" t="n"/>
+    </row>
+    <row r="108" ht="15" customHeight="1" s="6">
+      <c r="A108" s="5" t="inlineStr">
         <is>
           <t>Saco de Lixo 15L (6un)</t>
         </is>
       </c>
-      <c r="B108" s="11" t="n">
+      <c r="B108" s="5" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="11" t="inlineStr">
+    <row r="109" ht="15" customHeight="1" s="6">
+      <c r="A109" s="5" t="inlineStr">
         <is>
           <t>Saco de Lixo 30L (50un)</t>
         </is>
       </c>
-      <c r="B109" s="11" t="n">
+      <c r="B109" s="5" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="11" t="inlineStr">
+    <row r="110" ht="15" customHeight="1" s="6">
+      <c r="A110" s="5" t="inlineStr">
         <is>
           <t>Saco de Lixo 50L (10un)</t>
         </is>
       </c>
-      <c r="B110" s="11" t="n">
+      <c r="B110" s="5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="11" t="inlineStr">
+    <row r="111" ht="15" customHeight="1" s="6">
+      <c r="A111" s="5" t="inlineStr">
         <is>
           <t>Desodorante Creme</t>
         </is>
       </c>
-      <c r="B111" s="11" t="n">
+      <c r="B111" s="5" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="11" t="inlineStr">
+    <row r="112" ht="15" customHeight="1" s="6">
+      <c r="A112" s="5" t="inlineStr">
         <is>
           <t>Desodorante Rollon</t>
         </is>
       </c>
-      <c r="B112" s="11" t="n">
+      <c r="B112" s="5" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="11" t="inlineStr">
+    <row r="113" ht="15" customHeight="1" s="6">
+      <c r="A113" s="5" t="inlineStr">
         <is>
           <t>Desodorante Spray</t>
         </is>
       </c>
-      <c r="B113" s="11" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="11" t="inlineStr">
+      <c r="B113" s="5" t="n"/>
+    </row>
+    <row r="114" ht="15" customHeight="1" s="6">
+      <c r="A114" s="5" t="inlineStr">
         <is>
           <t>Detergente Concentrado</t>
         </is>
       </c>
-      <c r="B114" s="11" t="n">
+      <c r="B114" s="5" t="n">
         <v>0.416</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="11" t="inlineStr">
+    <row r="115" ht="15" customHeight="1" s="6">
+      <c r="A115" s="5" t="inlineStr">
         <is>
           <t>Papel Manteiga (7,5m)</t>
         </is>
       </c>
-      <c r="B115" s="11" t="n">
+      <c r="B115" s="5" t="n">
         <v>7.5</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="11" t="inlineStr">
+    <row r="116" ht="15" customHeight="1" s="6">
+      <c r="A116" s="5" t="inlineStr">
         <is>
           <t>SBP</t>
         </is>
       </c>
-      <c r="B116" s="11" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="11" t="inlineStr">
+      <c r="B116" s="5" t="n"/>
+    </row>
+    <row r="117" ht="15" customHeight="1" s="6">
+      <c r="A117" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Papel Higiênico 12 rolos </t>
         </is>
       </c>
-      <c r="B117" s="11" t="n">
+      <c r="B117" s="5" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="19.84" customWidth="1" style="5" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
-        <is>
-          <t>Unnamed: 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>kg/embalagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="6">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>Desodorante (50g)</t>
         </is>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="6">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Desodorante (90g)</t>
         </is>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="6">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>esponja lã de aço (45g)</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>45g</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="6">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>Lava Roupas em Pó (1kg)</t>
         </is>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="6">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Lava Roupas em Pó (800g)</t>
         </is>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="6">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>Pasta de Dente (100g)</t>
         </is>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="6">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>Pasta de Dente (120g)</t>
         </is>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="6">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>Pasta de Dente (140g)</t>
         </is>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="5" t="n">
         <v>0.14</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="6">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>Pasta de Dente (180g)</t>
         </is>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="5" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="11" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="6">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>Pasta de Dente (30g)</t>
         </is>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="5" t="n">
         <v>0.03</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="6">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>Pasta de Dente (50g)</t>
         </is>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="5" t="n">
         <v>0.45</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="11" t="inlineStr">
+    <row r="13" ht="15" customHeight="1" s="6">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>Pasta de Dente (70g)</t>
         </is>
       </c>
-      <c r="B13" s="11" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
+      <c r="B13" s="5" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="6">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>Pasta de Dente (90g)</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
+      <c r="B14" s="5" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="6">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>Pasta de Dente Pacote 3 Unidades (70g)</t>
         </is>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="5" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="11" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="6">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>Polvilho Antisséptico (100g)</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="inlineStr">
+      <c r="B16" s="5" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="6">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>Sabao em Pó (1,6kg)</t>
         </is>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="5" t="n">
         <v>1.6</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="11" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="6">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>Sabão em Pó (1kg)</t>
         </is>
       </c>
-      <c r="B18" s="11" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="inlineStr">
+      <c r="B18" s="5" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="6">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>Sabão em Pó (2,8kg)</t>
         </is>
       </c>
-      <c r="B19" s="11" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="inlineStr">
+      <c r="B19" s="5" t="n"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="6">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>Sabão em Pó (2kg)</t>
         </is>
       </c>
-      <c r="B20" s="11" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="inlineStr">
+      <c r="B20" s="5" t="n"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="6">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>Sabão em Pó (3kg)</t>
         </is>
       </c>
-      <c r="B21" s="11" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
+      <c r="B21" s="5" t="n"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="6">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>Sabão em Pó (400g)</t>
         </is>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B22" s="5" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="6">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>Sabão em Pó (420g)</t>
         </is>
       </c>
-      <c r="B23" s="11" t="n">
+      <c r="B23" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
+    <row r="24" ht="15" customHeight="1" s="6">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>Sabão em Pó (800g)</t>
         </is>
       </c>
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="5" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="11" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="6">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>Sabão em Pó (850g)</t>
         </is>
       </c>
-      <c r="B25" s="11" t="n">
+      <c r="B25" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="6">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>Sabonete (100g)</t>
         </is>
       </c>
-      <c r="B26" s="11" t="n">
+      <c r="B26" s="5" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
+    <row r="27" ht="15" customHeight="1" s="6">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>Sabonete (125g)</t>
         </is>
       </c>
-      <c r="B27" s="11" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
+      <c r="B27" s="5" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="6">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>Sabonete (150g)</t>
         </is>
       </c>
-      <c r="B28" s="11" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
+      <c r="B28" s="5" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="6">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>Sabonete (180g)</t>
         </is>
       </c>
-      <c r="B29" s="11" t="n">
+      <c r="B29" s="5" t="n">
         <v>0.18</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
+    <row r="30" ht="15" customHeight="1" s="6">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>Sabonete (200g)</t>
         </is>
       </c>
-      <c r="B30" s="11" t="n">
+      <c r="B30" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
+    <row r="31" ht="15" customHeight="1" s="6">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>Sabonete (75g)</t>
         </is>
       </c>
-      <c r="B31" s="11" t="n">
+      <c r="B31" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
+    <row r="32" ht="15" customHeight="1" s="6">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>Sabonete (80g)</t>
         </is>
       </c>
-      <c r="B32" s="11" t="n">
+      <c r="B32" s="5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="11" t="inlineStr">
+    <row r="33" ht="15" customHeight="1" s="6">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>Sabonete (84g)</t>
         </is>
       </c>
-      <c r="B33" s="11" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="inlineStr">
+      <c r="B33" s="5" t="n"/>
+    </row>
+    <row r="34" ht="15" customHeight="1" s="6">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>Sabonete (85g)</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="inlineStr">
+      <c r="B34" s="5" t="n"/>
+    </row>
+    <row r="35" ht="15" customHeight="1" s="6">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>Sabonete (90g)</t>
         </is>
       </c>
-      <c r="B35" s="11" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="11" t="inlineStr">
+      <c r="B35" s="5" t="n"/>
+    </row>
+    <row r="36" ht="15" customHeight="1" s="6">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>Sanitizante para Tecidos e Roupas (800g)</t>
         </is>
       </c>
-      <c r="B36" s="11" t="n">
+      <c r="B36" s="5" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
+    <row r="37" ht="15" customHeight="1" s="6">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>Talco (100g)</t>
         </is>
       </c>
-      <c r="B37" s="11" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="inlineStr">
+      <c r="B37" s="5" t="n"/>
+    </row>
+    <row r="38" ht="15" customHeight="1" s="6">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>Talco (200g)</t>
         </is>
       </c>
-      <c r="B38" s="11" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="inlineStr">
+      <c r="B38" s="5" t="n"/>
+    </row>
+    <row r="39" ht="15" customHeight="1" s="6">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>Tira Manchas (450g)</t>
         </is>
       </c>
-      <c r="B39" s="11" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="inlineStr">
+      <c r="B39" s="5" t="n"/>
+    </row>
+    <row r="40" ht="15" customHeight="1" s="6">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>Vanish (400g)</t>
         </is>
       </c>
-      <c r="B40" s="11" t="n">
+      <c r="B40" s="5" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="11" t="inlineStr">
+    <row r="41" ht="15" customHeight="1" s="6">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>Sabão em pó (1,6kg)</t>
         </is>
       </c>
-      <c r="B41" s="11" t="n">
+      <c r="B41" s="5" t="n">
         <v>1.6</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="11" t="inlineStr">
+    <row r="42" ht="15" customHeight="1" s="6">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>esponja de lã de aço 45g</t>
         </is>
       </c>
-      <c r="B42" s="11" t="n">
+      <c r="B42" s="5" t="n">
         <v>0.045</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="11" t="inlineStr">
+    <row r="43" ht="15" customHeight="1" s="6">
+      <c r="A43" s="5" t="inlineStr">
         <is>
           <t>Sabão em pó (800g)</t>
         </is>
       </c>
-      <c r="B43" s="11" t="n">
+      <c r="B43" s="5" t="n">
         <v>0.8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/Banco de dados.xlsx
+++ b/Banco de dados.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="CB" sheetId="1" state="visible" r:id="rId1"/>
@@ -96,10 +96,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -112,12 +109,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -488,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2872"/>
+  <dimension ref="A1:C2873"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,17 +494,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CB</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Tipo</t>
         </is>
@@ -43117,6 +43114,21 @@
       <c r="C2872" t="inlineStr">
         <is>
           <t>Alimentos (peso)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" t="n">
+        <v>12345467</v>
+      </c>
+      <c r="B2873" t="inlineStr">
+        <is>
+          <t>Computador (5Kg)</t>
+        </is>
+      </c>
+      <c r="C2873" t="inlineStr">
+        <is>
+          <t>Nenhuma das anteriores</t>
         </is>
       </c>
     </row>
@@ -43127,4062 +43139,4064 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:B404"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>kg/embalagem</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="4">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Abacaxi em Calda (820g)</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="6" t="n">
         <v>0.82</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="4">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Abacaxi em Calda (830g)</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="6" t="n">
         <v>0.83</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Achocolatado (1,1kg)</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="6" t="n">
         <v>1.1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="4">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Achocolatado (100g)</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="4">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Achocolatado (1kg)</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="4">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Achocolatado (200g)</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="4">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Achocolatado (300g)</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="4">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>Achocolatado (370g)</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="6" t="n">
         <v>0.37</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="4">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Achocolatado (400g)</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="4">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>Achocolatado (500g)</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="4">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Achocolatado (600g)</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="6" t="n">
         <v>0.6</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="13" ht="15" customHeight="1" s="4">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>Achocolatado (800g)</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="6" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="4">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>Achocolatado (900g)</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="6" t="n">
         <v>0.9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="4">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>Açúcar (1kg)</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="4">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>Açúcar (2kg)</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="4">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>Açúcar (300g)</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="4">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>Açúcar (500g)</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="4">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>Açúcar (5kg)</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="4">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>Amendoim (27g)</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="6" t="n">
         <v>0.027</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="4">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>Amendoim (500g)</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="4">
+      <c r="A22" s="6" t="inlineStr">
         <is>
           <t>Amido de Milho (150g)</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="6" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="4">
+      <c r="A23" s="6" t="inlineStr">
         <is>
           <t>Amido de Milho (200g)</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="24" ht="15" customHeight="1" s="4">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>Amido de Milho (500g)</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="4">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>Arroz (1kg)</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="4">
+      <c r="A26" s="6" t="inlineStr">
         <is>
           <t>Arroz (2kg)</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="27" ht="15" customHeight="1" s="4">
+      <c r="A27" s="6" t="inlineStr">
         <is>
           <t>Arroz (5kg)</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="28" ht="15" customHeight="1" s="4">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>Arroz Doce (175g)</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="6" t="n">
         <v>0.175</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="29" ht="15" customHeight="1" s="4">
+      <c r="A29" s="6" t="inlineStr">
         <is>
           <t>Arroz integral (1kg)</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="30" ht="15" customHeight="1" s="4">
+      <c r="A30" s="6" t="inlineStr">
         <is>
           <t>Arroz integral (500g)</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="31" ht="15" customHeight="1" s="4">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Atum (170g)</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="6" t="n">
         <v>0.17</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="32" ht="15" customHeight="1" s="4">
+      <c r="A32" s="6" t="inlineStr">
         <is>
           <t>Atum (325g)</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="6" t="n">
         <v>0.325</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="33" ht="15" customHeight="1" s="4">
+      <c r="A33" s="6" t="inlineStr">
         <is>
           <t>Atum Lata (140g)</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="6" t="n">
         <v>0.14</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="34" ht="15" customHeight="1" s="4">
+      <c r="A34" s="6" t="inlineStr">
         <is>
           <t>Aveia (170g)</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="6" t="n">
         <v>0.17</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="35" ht="15" customHeight="1" s="4">
+      <c r="A35" s="6" t="inlineStr">
         <is>
           <t>Aveia (200g)</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="36" ht="15" customHeight="1" s="4">
+      <c r="A36" s="6" t="inlineStr">
         <is>
           <t>Aveia (500g)</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="37" ht="15" customHeight="1" s="4">
+      <c r="A37" s="6" t="inlineStr">
         <is>
           <t>Azeitona (100g)</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="38" ht="15" customHeight="1" s="4">
+      <c r="A38" s="6" t="inlineStr">
         <is>
           <t>Azeitona (120g)</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="6" t="n">
         <v>0.12</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="39" ht="15" customHeight="1" s="4">
+      <c r="A39" s="6" t="inlineStr">
         <is>
           <t>Azeitona (150g)</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="6" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="40" ht="15" customHeight="1" s="4">
+      <c r="A40" s="6" t="inlineStr">
         <is>
           <t>Azeitona (160g)</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="6" t="n">
         <v>0.16</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="41" ht="15" customHeight="1" s="4">
+      <c r="A41" s="6" t="inlineStr">
         <is>
           <t>Azeitona (1kg)</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="42" ht="15" customHeight="1" s="4">
+      <c r="A42" s="6" t="inlineStr">
         <is>
           <t>Azeitona (270g)</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="6" t="n">
         <v>0.27</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="43" ht="15" customHeight="1" s="4">
+      <c r="A43" s="6" t="inlineStr">
         <is>
           <t>Azeitona (280g)</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="6" t="n">
         <v>0.28</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="44" ht="15" customHeight="1" s="4">
+      <c r="A44" s="6" t="inlineStr">
         <is>
           <t>Azeitona (50g)</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" s="6" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="45" ht="15" customHeight="1" s="4">
+      <c r="A45" s="6" t="inlineStr">
         <is>
           <t>Bala de Goma (20g)</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" s="6" t="n">
         <v>0.02</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="46" ht="15" customHeight="1" s="4">
+      <c r="A46" s="6" t="inlineStr">
         <is>
           <t>Bala Pacote (150g)</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="6" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="47" ht="15" customHeight="1" s="4">
+      <c r="A47" s="6" t="inlineStr">
         <is>
           <t>Bala Pacote (200g)</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="48" ht="15" customHeight="1" s="4">
+      <c r="A48" s="6" t="inlineStr">
         <is>
           <t>Bala Pacote (250g)</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="49" ht="15" customHeight="1" s="4">
+      <c r="A49" s="6" t="inlineStr">
         <is>
           <t>Bala Pacote (300g)</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="50" ht="15" customHeight="1" s="4">
+      <c r="A50" s="6" t="inlineStr">
         <is>
           <t>Bala Pacote (500g)</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="51" ht="15" customHeight="1" s="4">
+      <c r="A51" s="6" t="inlineStr">
         <is>
           <t>Bala Pacote (600g)</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" s="6" t="n">
         <v>0.6</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="52" ht="15" customHeight="1" s="4">
+      <c r="A52" s="6" t="inlineStr">
         <is>
           <t>Bala Pacote (70g)</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="53" ht="15" customHeight="1" s="4">
+      <c r="A53" s="6" t="inlineStr">
         <is>
           <t>Base para Sorvete (80g)</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" s="6" t="n">
         <v>0.08</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="54" ht="15" customHeight="1" s="4">
+      <c r="A54" s="6" t="inlineStr">
         <is>
           <t>Batata Palha (120g)</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" s="6" t="n">
         <v>0.12</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="55" ht="15" customHeight="1" s="4">
+      <c r="A55" s="6" t="inlineStr">
         <is>
           <t>Batata Palha (140g)</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" s="6" t="n">
         <v>0.14</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="56" ht="15" customHeight="1" s="4">
+      <c r="A56" s="6" t="inlineStr">
         <is>
           <t>Batata Palha (1kg)</t>
         </is>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="57" ht="15" customHeight="1" s="4">
+      <c r="A57" s="6" t="inlineStr">
         <is>
           <t>Batata Palha (200g)</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="58" ht="15" customHeight="1" s="4">
+      <c r="A58" s="6" t="inlineStr">
         <is>
           <t>Batata Palha (400g)</t>
         </is>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="59" ht="15" customHeight="1" s="4">
+      <c r="A59" s="6" t="inlineStr">
         <is>
           <t>Bife Vegetal (400g)</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="60" ht="15" customHeight="1" s="4">
+      <c r="A60" s="6" t="inlineStr">
         <is>
           <t>Biscoito de Polvilho Doce (100g)</t>
         </is>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="61" ht="15" customHeight="1" s="4">
+      <c r="A61" s="6" t="inlineStr">
         <is>
           <t>Biscoito de Polvilho Salgado (100g)</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="62" ht="15" customHeight="1" s="4">
+      <c r="A62" s="6" t="inlineStr">
         <is>
           <t>Biscoito de Polvinho Doce (300g)</t>
         </is>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="63" ht="15" customHeight="1" s="4">
+      <c r="A63" s="6" t="inlineStr">
         <is>
           <t>Biscoito de Polvinho Salgado (300g)</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="64" ht="15" customHeight="1" s="4">
+      <c r="A64" s="6" t="inlineStr">
         <is>
           <t>Biscoito Doce (140g)</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" s="6" t="n">
         <v>0.145</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="65" ht="15" customHeight="1" s="4">
+      <c r="A65" s="6" t="inlineStr">
         <is>
           <t>Biscoito Doce (140g)</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" s="6" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="66" ht="15" customHeight="1" s="4">
+      <c r="A66" s="6" t="inlineStr">
         <is>
           <t>Biscoito Doce (170g)</t>
         </is>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="6" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="67" ht="15" customHeight="1" s="4">
+      <c r="A67" s="6" t="inlineStr">
         <is>
           <t>Biscoito Doce (200g)</t>
         </is>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="68" ht="15" customHeight="1" s="4">
+      <c r="A68" s="6" t="inlineStr">
         <is>
           <t>Biscoito Doce (300g)</t>
         </is>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="69" ht="15" customHeight="1" s="4">
+      <c r="A69" s="6" t="inlineStr">
         <is>
           <t>Biscoito Doce (330g)</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="6" t="n">
         <v>0.33</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="70" ht="15" customHeight="1" s="4">
+      <c r="A70" s="6" t="inlineStr">
         <is>
           <t>Biscoito Doce (350g)</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="6" t="n">
         <v>0.35</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="71" ht="15" customHeight="1" s="4">
+      <c r="A71" s="6" t="inlineStr">
         <is>
           <t>Biscoito Doce (360g)</t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" s="6" t="n">
         <v>0.36</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="72" ht="15" customHeight="1" s="4">
+      <c r="A72" s="6" t="inlineStr">
         <is>
           <t>Biscoito Doce (375g)</t>
         </is>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" s="6" t="n">
         <v>0.375</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="73" ht="15" customHeight="1" s="4">
+      <c r="A73" s="6" t="inlineStr">
         <is>
           <t>Biscoito Doce (400g)</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="74" ht="15" customHeight="1" s="4">
+      <c r="A74" s="6" t="inlineStr">
         <is>
           <t>Biscoito Doce (500g)</t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="75" ht="15" customHeight="1" s="4">
+      <c r="A75" s="6" t="inlineStr">
         <is>
           <t>Biscoito Doce (60g)</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" s="6" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="76" ht="15" customHeight="1" s="4">
+      <c r="A76" s="6" t="inlineStr">
         <is>
           <t>Biscoito Doce (90g)</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="6" t="n">
         <v>0.09</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="77" ht="15" customHeight="1" s="4">
+      <c r="A77" s="6" t="inlineStr">
         <is>
           <t>Biscoito Maisena (400g)</t>
         </is>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="78" ht="15" customHeight="1" s="4">
+      <c r="A78" s="6" t="inlineStr">
         <is>
           <t>Biscoito Salgado (100g)</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="79" ht="15" customHeight="1" s="4">
+      <c r="A79" s="6" t="inlineStr">
         <is>
           <t>Biscoito Salgado (110g)</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" s="6" t="n">
         <v>0.11</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="80" ht="15" customHeight="1" s="4">
+      <c r="A80" s="6" t="inlineStr">
         <is>
           <t>Biscoito Salgado (126g)</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" s="6" t="n">
         <v>0.126</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="81" ht="15" customHeight="1" s="4">
+      <c r="A81" s="6" t="inlineStr">
         <is>
           <t>Biscoito Salgado (140g)</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" s="6" t="n">
         <v>0.14</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="82" ht="15" customHeight="1" s="4">
+      <c r="A82" s="6" t="inlineStr">
         <is>
           <t>Biscoito Salgado (145g)</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" s="6" t="n">
         <v>0.145</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="83" ht="15" customHeight="1" s="4">
+      <c r="A83" s="6" t="inlineStr">
         <is>
           <t>Biscoito Salgado (150g)</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" s="6" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+    <row r="84" ht="15" customHeight="1" s="4">
+      <c r="A84" s="6" t="inlineStr">
         <is>
           <t>Biscoito Salgado (160g)</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" s="6" t="n">
         <v>0.16</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+    <row r="85" ht="15" customHeight="1" s="4">
+      <c r="A85" s="6" t="inlineStr">
         <is>
           <t>Biscoito Salgado (170g)</t>
         </is>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" s="6" t="n">
         <v>0.17</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+    <row r="86" ht="15" customHeight="1" s="4">
+      <c r="A86" s="6" t="inlineStr">
         <is>
           <t>Biscoito Salgado (200g)</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+    <row r="87" ht="15" customHeight="1" s="4">
+      <c r="A87" s="6" t="inlineStr">
         <is>
           <t>Biscoito Salgado (27g)</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" s="6" t="n">
         <v>0.027</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+    <row r="88" ht="15" customHeight="1" s="4">
+      <c r="A88" s="6" t="inlineStr">
         <is>
           <t>Biscoito Salgado (360g)</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" s="6" t="n">
         <v>0.36</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="89" ht="15" customHeight="1" s="4">
+      <c r="A89" s="6" t="inlineStr">
         <is>
           <t>Biscoito Salgado (375g)</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" s="6" t="n">
         <v>0.375</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+    <row r="90" ht="15" customHeight="1" s="4">
+      <c r="A90" s="6" t="inlineStr">
         <is>
           <t>Biscoito Salgado (400g)</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+    <row r="91" ht="15" customHeight="1" s="4">
+      <c r="A91" s="6" t="inlineStr">
         <is>
           <t>Biscoito Salgado (500g)</t>
         </is>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+    <row r="92" ht="15" customHeight="1" s="4">
+      <c r="A92" s="6" t="inlineStr">
         <is>
           <t>Biscoito Salgado (80g)</t>
         </is>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" s="6" t="n">
         <v>0.08</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+    <row r="93" ht="15" customHeight="1" s="4">
+      <c r="A93" s="6" t="inlineStr">
         <is>
           <t>Biscoito Salgado (90g)</t>
         </is>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" s="6" t="n">
         <v>0.09</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+    <row r="94" ht="15" customHeight="1" s="4">
+      <c r="A94" s="6" t="inlineStr">
         <is>
           <t>Bisnaguinha (300g)</t>
         </is>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+    <row r="95" ht="15" customHeight="1" s="4">
+      <c r="A95" s="6" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheada (122g)</t>
         </is>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" s="6" t="n">
         <v>0.122</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="96" ht="15" customHeight="1" s="4">
+      <c r="A96" s="6" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (100g)</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="97" ht="15" customHeight="1" s="4">
+      <c r="A97" s="6" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (110g)</t>
         </is>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" s="6" t="n">
         <v>0.11</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="98" ht="15" customHeight="1" s="4">
+      <c r="A98" s="6" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (112g)</t>
         </is>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" s="6" t="n">
         <v>0.112</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="99" ht="15" customHeight="1" s="4">
+      <c r="A99" s="6" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (115g)</t>
         </is>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" s="6" t="n">
         <v>0.115</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+    <row r="100" ht="15" customHeight="1" s="4">
+      <c r="A100" s="6" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (120g)</t>
         </is>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" s="6" t="n">
         <v>0.12</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+    <row r="101" ht="15" customHeight="1" s="4">
+      <c r="A101" s="6" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (126g)</t>
         </is>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" s="6" t="n">
         <v>0.126</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+    <row r="102" ht="15" customHeight="1" s="4">
+      <c r="A102" s="6" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (130g)</t>
         </is>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" s="6" t="n">
         <v>0.13</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+    <row r="103" ht="15" customHeight="1" s="4">
+      <c r="A103" s="6" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (135g)</t>
         </is>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" s="6" t="n">
         <v>0.135</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+    <row r="104" ht="15" customHeight="1" s="4">
+      <c r="A104" s="6" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (140g)</t>
         </is>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" s="6" t="n">
         <v>0.14</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+    <row r="105" ht="15" customHeight="1" s="4">
+      <c r="A105" s="6" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (145g)</t>
         </is>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" s="6" t="n">
         <v>0.145</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+    <row r="106" ht="15" customHeight="1" s="4">
+      <c r="A106" s="6" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (150g)</t>
         </is>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" s="6" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+    <row r="107" ht="15" customHeight="1" s="4">
+      <c r="A107" s="6" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (160g)</t>
         </is>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" s="6" t="n">
         <v>0.16</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+    <row r="108" ht="15" customHeight="1" s="4">
+      <c r="A108" s="6" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (250g)</t>
         </is>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+    <row r="109" ht="15" customHeight="1" s="4">
+      <c r="A109" s="6" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (375g)</t>
         </is>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" s="6" t="n">
         <v>0.375</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+    <row r="110" ht="15" customHeight="1" s="4">
+      <c r="A110" s="6" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (80g)</t>
         </is>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" s="6" t="n">
         <v>0.08</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+    <row r="111" ht="15" customHeight="1" s="4">
+      <c r="A111" s="6" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (90g)</t>
         </is>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" s="6" t="n">
         <v>0.09</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+    <row r="112" ht="15" customHeight="1" s="4">
+      <c r="A112" s="6" t="inlineStr">
         <is>
           <t>Bolacha Doce Recheio (90g)</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" s="6" t="n">
         <v>0.14</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+    <row r="113" ht="15" customHeight="1" s="4">
+      <c r="A113" s="6" t="inlineStr">
         <is>
           <t>Bolacha Maizena (350g)</t>
         </is>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" s="6" t="n">
         <v>0.35</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+    <row r="114" ht="15" customHeight="1" s="4">
+      <c r="A114" s="6" t="inlineStr">
         <is>
           <t>Bolacha Salg (144g)</t>
         </is>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" s="6" t="n">
         <v>0.144</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+    <row r="115" ht="15" customHeight="1" s="4">
+      <c r="A115" s="6" t="inlineStr">
         <is>
           <t>Bolacha Salg Recheio (100g)</t>
         </is>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+    <row r="116" ht="15" customHeight="1" s="4">
+      <c r="A116" s="6" t="inlineStr">
         <is>
           <t>Bolacha Salg Recheio (110g)</t>
         </is>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" s="6" t="n">
         <v>0.11</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+    <row r="117" ht="15" customHeight="1" s="4">
+      <c r="A117" s="6" t="inlineStr">
         <is>
           <t>Bolacha Salg Recheio (140g)</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" s="6" t="n">
         <v>0.14</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+    <row r="118" ht="15" customHeight="1" s="4">
+      <c r="A118" s="6" t="inlineStr">
         <is>
           <t>Bolacha Salg Recheio (145g)</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" s="6" t="n">
         <v>0.145</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+    <row r="119" ht="15" customHeight="1" s="4">
+      <c r="A119" s="6" t="inlineStr">
         <is>
           <t>Bolacha Salg Recheio (80g)</t>
         </is>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" s="6" t="n">
         <v>0.08</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+    <row r="120" ht="15" customHeight="1" s="4">
+      <c r="A120" s="6" t="inlineStr">
         <is>
           <t>Bolinho (35g)</t>
         </is>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" s="6" t="n">
         <v>0.035</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+    <row r="121" ht="15" customHeight="1" s="4">
+      <c r="A121" s="6" t="inlineStr">
         <is>
           <t>Bolo (100g)</t>
         </is>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+    <row r="122" ht="15" customHeight="1" s="4">
+      <c r="A122" s="6" t="inlineStr">
         <is>
           <t>Bolo (300g)</t>
         </is>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+    <row r="123" ht="15" customHeight="1" s="4">
+      <c r="A123" s="6" t="inlineStr">
         <is>
           <t>Bolo (380g)</t>
         </is>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" s="6" t="n">
         <v>0.38</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+    <row r="124" ht="15" customHeight="1" s="4">
+      <c r="A124" s="6" t="inlineStr">
         <is>
           <t>Bolo (400g)</t>
         </is>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+    <row r="125" ht="15" customHeight="1" s="4">
+      <c r="A125" s="6" t="inlineStr">
         <is>
           <t>Bolo (450g)</t>
         </is>
       </c>
-      <c r="B125" t="n">
+      <c r="B125" s="6" t="n">
         <v>0.45</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+    <row r="126" ht="15" customHeight="1" s="4">
+      <c r="A126" s="6" t="inlineStr">
         <is>
           <t>Bolo de Caneca (70g)</t>
         </is>
       </c>
-      <c r="B126" t="n">
+      <c r="B126" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+    <row r="127" ht="15" customHeight="1" s="4">
+      <c r="A127" s="6" t="inlineStr">
         <is>
           <t>Bolo Pronto (250g)</t>
         </is>
       </c>
-      <c r="B127" t="n">
+      <c r="B127" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+    <row r="128" ht="15" customHeight="1" s="4">
+      <c r="A128" s="6" t="inlineStr">
         <is>
           <t>Bombom de Cereja (94g)</t>
         </is>
       </c>
-      <c r="B128" t="n">
+      <c r="B128" s="6" t="n">
         <v>0.094</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+    <row r="129" ht="15" customHeight="1" s="4">
+      <c r="A129" s="6" t="inlineStr">
         <is>
           <t>Bombons sortidos (250g)</t>
         </is>
       </c>
-      <c r="B129" t="n">
+      <c r="B129" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+    <row r="130" ht="15" customHeight="1" s="4">
+      <c r="A130" s="6" t="inlineStr">
         <is>
           <t>Café (1kg)</t>
         </is>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="131" ht="15" customHeight="1" s="4">
+      <c r="A131" s="6" t="inlineStr">
         <is>
           <t>Café (250g)</t>
         </is>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="132" ht="15" customHeight="1" s="4">
+      <c r="A132" s="6" t="inlineStr">
         <is>
           <t>Café (500g)</t>
         </is>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="133" ht="15" customHeight="1" s="4">
+      <c r="A133" s="6" t="inlineStr">
         <is>
           <t>Café Solúvel (50g)</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" s="6" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+    <row r="134" ht="15" customHeight="1" s="4">
+      <c r="A134" s="6" t="inlineStr">
         <is>
           <t>Caixa de Bombons (300g)</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="B134" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="135" ht="15" customHeight="1" s="4">
+      <c r="A135" s="6" t="inlineStr">
         <is>
           <t>Caldo de Carne (19g)</t>
         </is>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" s="6" t="n">
         <v>0.019</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+    <row r="136" ht="15" customHeight="1" s="4">
+      <c r="A136" s="6" t="inlineStr">
         <is>
           <t>Caldo Galinha (50g)</t>
         </is>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" s="6" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+    <row r="137" ht="15" customHeight="1" s="4">
+      <c r="A137" s="6" t="inlineStr">
         <is>
           <t>Caldo Knorr (114g)</t>
         </is>
       </c>
-      <c r="B137" t="n">
+      <c r="B137" s="6" t="n">
         <v>0.114</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+    <row r="138" ht="15" customHeight="1" s="4">
+      <c r="A138" s="6" t="inlineStr">
         <is>
           <t>Caldo Verde (17g)</t>
         </is>
       </c>
-      <c r="B138" t="n">
+      <c r="B138" s="6" t="n">
         <v>0.017</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+    <row r="139" ht="15" customHeight="1" s="4">
+      <c r="A139" s="6" t="inlineStr">
         <is>
           <t>Canjica (500g)</t>
         </is>
       </c>
-      <c r="B139" t="n">
+      <c r="B139" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+    <row r="140" ht="15" customHeight="1" s="4">
+      <c r="A140" s="6" t="inlineStr">
         <is>
           <t>Cappuccino (200g)</t>
         </is>
       </c>
-      <c r="B140" t="n">
+      <c r="B140" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+    <row r="141" ht="15" customHeight="1" s="4">
+      <c r="A141" s="6" t="inlineStr">
         <is>
           <t>Cappuccino (20g)</t>
         </is>
       </c>
-      <c r="B141" t="n">
+      <c r="B141" s="6" t="n">
         <v>0.02</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+    <row r="142" ht="15" customHeight="1" s="4">
+      <c r="A142" s="6" t="inlineStr">
         <is>
           <t>Cereal (120g)</t>
         </is>
       </c>
-      <c r="B142" t="n">
+      <c r="B142" s="6" t="n">
         <v>0.12</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+    <row r="143" ht="15" customHeight="1" s="4">
+      <c r="A143" s="6" t="inlineStr">
         <is>
           <t>Cereal Infantil (230g)</t>
         </is>
       </c>
-      <c r="B143" t="n">
+      <c r="B143" s="6" t="n">
         <v>0.23</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+    <row r="144" ht="15" customHeight="1" s="4">
+      <c r="A144" s="6" t="inlineStr">
         <is>
           <t>Cevada (500g)</t>
         </is>
       </c>
-      <c r="B144" t="n">
+      <c r="B144" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+    <row r="145" ht="15" customHeight="1" s="4">
+      <c r="A145" s="6" t="inlineStr">
         <is>
           <t>Chá (100g)</t>
         </is>
       </c>
-      <c r="B145" t="n">
+      <c r="B145" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+    <row r="146" ht="15" customHeight="1" s="4">
+      <c r="A146" s="6" t="inlineStr">
         <is>
           <t>Chá (12g)</t>
         </is>
       </c>
-      <c r="B146" t="n">
+      <c r="B146" s="6" t="n">
         <v>0.012</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+    <row r="147" ht="15" customHeight="1" s="4">
+      <c r="A147" s="6" t="inlineStr">
         <is>
           <t>Chá (22,5g)</t>
         </is>
       </c>
-      <c r="B147" t="n">
+      <c r="B147" s="6" t="n">
         <v>0.0225</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+    <row r="148" ht="15" customHeight="1" s="4">
+      <c r="A148" s="6" t="inlineStr">
         <is>
           <t>Chá (250g)</t>
         </is>
       </c>
-      <c r="B148" t="n">
+      <c r="B148" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+    <row r="149" ht="15" customHeight="1" s="4">
+      <c r="A149" s="6" t="inlineStr">
         <is>
           <t>Chá (32g)</t>
         </is>
       </c>
-      <c r="B149" t="n">
+      <c r="B149" s="6" t="n">
         <v>0.032</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+    <row r="150" ht="15" customHeight="1" s="4">
+      <c r="A150" s="6" t="inlineStr">
         <is>
           <t>Chá (40g)</t>
         </is>
       </c>
-      <c r="B150" t="n">
+      <c r="B150" s="6" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+    <row r="151" ht="15" customHeight="1" s="4">
+      <c r="A151" s="6" t="inlineStr">
         <is>
           <t>Chimarrão (500g)</t>
         </is>
       </c>
-      <c r="B151" t="n">
+      <c r="B151" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+    <row r="152" ht="15" customHeight="1" s="4">
+      <c r="A152" s="6" t="inlineStr">
         <is>
           <t>Chocolate (126g)</t>
         </is>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" s="6" t="n">
         <v>0.126</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+    <row r="153" ht="15" customHeight="1" s="4">
+      <c r="A153" s="6" t="inlineStr">
         <is>
           <t>Chocolate Barra (100g)</t>
         </is>
       </c>
-      <c r="B153" t="n">
+      <c r="B153" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+    <row r="154" ht="15" customHeight="1" s="4">
+      <c r="A154" s="6" t="inlineStr">
         <is>
           <t>Chocolate Barra (41,5g)</t>
         </is>
       </c>
-      <c r="B154" t="n">
+      <c r="B154" s="6" t="n">
         <v>0.0415</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+    <row r="155" ht="15" customHeight="1" s="4">
+      <c r="A155" s="6" t="inlineStr">
         <is>
           <t>Chocolate Bis (126g)</t>
         </is>
       </c>
-      <c r="B155" t="n">
+      <c r="B155" s="6" t="n">
         <v>0.126</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+    <row r="156" ht="15" customHeight="1" s="4">
+      <c r="A156" s="6" t="inlineStr">
         <is>
           <t>Chocotone (90g)</t>
         </is>
       </c>
-      <c r="B156" t="n">
+      <c r="B156" s="6" t="n">
         <v>0.09</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+    <row r="157" ht="15" customHeight="1" s="4">
+      <c r="A157" s="6" t="inlineStr">
         <is>
           <t>Cocada (300g)</t>
         </is>
       </c>
-      <c r="B157" t="n">
+      <c r="B157" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+    <row r="158" ht="15" customHeight="1" s="4">
+      <c r="A158" s="6" t="inlineStr">
         <is>
           <t>Coco Ralado (100g)</t>
         </is>
       </c>
-      <c r="B158" t="n">
+      <c r="B158" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+    <row r="159" ht="15" customHeight="1" s="4">
+      <c r="A159" s="6" t="inlineStr">
         <is>
           <t>Coco Ralado (50g)</t>
         </is>
       </c>
-      <c r="B159" t="n">
+      <c r="B159" s="6" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+    <row r="160" ht="15" customHeight="1" s="4">
+      <c r="A160" s="6" t="inlineStr">
         <is>
           <t>Cookie (400g)</t>
         </is>
       </c>
-      <c r="B160" t="n">
+      <c r="B160" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+    <row r="161" ht="15" customHeight="1" s="4">
+      <c r="A161" s="6" t="inlineStr">
         <is>
           <t>Creme de Cebola em Pó (68g)</t>
         </is>
       </c>
-      <c r="B161" t="n">
+      <c r="B161" s="6" t="n">
         <v>0.068</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+    <row r="162" ht="15" customHeight="1" s="4">
+      <c r="A162" s="6" t="inlineStr">
         <is>
           <t>Creme de Leite (200g)</t>
         </is>
       </c>
-      <c r="B162" t="n">
+      <c r="B162" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+    <row r="163" ht="15" customHeight="1" s="4">
+      <c r="A163" s="6" t="inlineStr">
         <is>
           <t>Cuscuz (500g)</t>
         </is>
       </c>
-      <c r="B163" t="n">
+      <c r="B163" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+    <row r="164" ht="15" customHeight="1" s="4">
+      <c r="A164" s="6" t="inlineStr">
         <is>
           <t>Doce de Abóbora (220g)</t>
         </is>
       </c>
-      <c r="B164" t="n">
+      <c r="B164" s="6" t="n">
         <v>0.22</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+    <row r="165" ht="15" customHeight="1" s="4">
+      <c r="A165" s="6" t="inlineStr">
         <is>
           <t>Doce de Leite (250g)</t>
         </is>
       </c>
-      <c r="B165" t="n">
+      <c r="B165" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+    <row r="166" ht="15" customHeight="1" s="4">
+      <c r="A166" s="6" t="inlineStr">
         <is>
           <t>Doce de Leite (300g)</t>
         </is>
       </c>
-      <c r="B166" t="n">
+      <c r="B166" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+    <row r="167" ht="15" customHeight="1" s="4">
+      <c r="A167" s="6" t="inlineStr">
         <is>
           <t>Doce de Leite (400g)</t>
         </is>
       </c>
-      <c r="B167" t="n">
+      <c r="B167" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+    <row r="168" ht="15" customHeight="1" s="4">
+      <c r="A168" s="6" t="inlineStr">
         <is>
           <t>Erva-Doce (40g)</t>
         </is>
       </c>
-      <c r="B168" t="n">
+      <c r="B168" s="6" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+    <row r="169" ht="15" customHeight="1" s="4">
+      <c r="A169" s="6" t="inlineStr">
         <is>
           <t>Ervilha Lata (200g)</t>
         </is>
       </c>
-      <c r="B169" t="n">
+      <c r="B169" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+    <row r="170" ht="15" customHeight="1" s="4">
+      <c r="A170" s="6" t="inlineStr">
         <is>
           <t>Ervilha Lata (280g)</t>
         </is>
       </c>
-      <c r="B170" t="n">
+      <c r="B170" s="6" t="n">
         <v>0.28</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+    <row r="171" ht="15" customHeight="1" s="4">
+      <c r="A171" s="6" t="inlineStr">
         <is>
           <t>Ervilha Lata (300g)</t>
         </is>
       </c>
-      <c r="B171" t="n">
+      <c r="B171" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+    <row r="172" ht="15" customHeight="1" s="4">
+      <c r="A172" s="6" t="inlineStr">
         <is>
           <t>Ervilha Sachê (300g)</t>
         </is>
       </c>
-      <c r="B172" t="n">
+      <c r="B172" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+    <row r="173" ht="15" customHeight="1" s="4">
+      <c r="A173" s="6" t="inlineStr">
         <is>
           <t>Ervilha Seca (500g)</t>
         </is>
       </c>
-      <c r="B173" t="n">
+      <c r="B173" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="174" ht="15" customHeight="1" s="4">
+      <c r="A174" s="6" t="inlineStr">
         <is>
           <t>Extrato de Tomate (130g)</t>
         </is>
       </c>
-      <c r="B174" t="n">
+      <c r="B174" s="6" t="n">
         <v>0.13</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+    <row r="175" ht="15" customHeight="1" s="4">
+      <c r="A175" s="6" t="inlineStr">
         <is>
           <t>Extrato de Tomate (140g)</t>
         </is>
       </c>
-      <c r="B175" t="n">
+      <c r="B175" s="6" t="n">
         <v>0.14</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+    <row r="176" ht="15" customHeight="1" s="4">
+      <c r="A176" s="6" t="inlineStr">
         <is>
           <t>Extrato de Tomate (190g)</t>
         </is>
       </c>
-      <c r="B176" t="n">
+      <c r="B176" s="6" t="n">
         <v>0.19</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
+    <row r="177" ht="15" customHeight="1" s="4">
+      <c r="A177" s="6" t="inlineStr">
         <is>
           <t>Extrato de Tomate (280g)</t>
         </is>
       </c>
-      <c r="B177" t="n">
+      <c r="B177" s="6" t="n">
         <v>0.28</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
+    <row r="178" ht="15" customHeight="1" s="4">
+      <c r="A178" s="6" t="inlineStr">
         <is>
           <t>Extrato de Tomate (320g)</t>
         </is>
       </c>
-      <c r="B178" t="n">
+      <c r="B178" s="6" t="n">
         <v>0.32</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
+    <row r="179" ht="15" customHeight="1" s="4">
+      <c r="A179" s="6" t="inlineStr">
         <is>
           <t>Extrato de Tomate (340g)</t>
         </is>
       </c>
-      <c r="B179" t="n">
+      <c r="B179" s="6" t="n">
         <v>0.34</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
+    <row r="180" ht="15" customHeight="1" s="4">
+      <c r="A180" s="6" t="inlineStr">
         <is>
           <t>Extrato de Tomate (375g)</t>
         </is>
       </c>
-      <c r="B180" t="n">
+      <c r="B180" s="6" t="n">
         <v>0.375</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
+    <row r="181" ht="15" customHeight="1" s="4">
+      <c r="A181" s="6" t="inlineStr">
         <is>
           <t>Extrato de Tomate (400g)</t>
         </is>
       </c>
-      <c r="B181" t="n">
+      <c r="B181" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
+    <row r="182" ht="15" customHeight="1" s="4">
+      <c r="A182" s="6" t="inlineStr">
         <is>
           <t>Extrato de Tomate (520g)</t>
         </is>
       </c>
-      <c r="B182" t="n">
+      <c r="B182" s="6" t="n">
         <v>0.52</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+    <row r="183" ht="15" customHeight="1" s="4">
+      <c r="A183" s="6" t="inlineStr">
         <is>
           <t>Farinha de Arroz (1kg)</t>
         </is>
       </c>
-      <c r="B183" t="n">
+      <c r="B183" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
+    <row r="184" ht="15" customHeight="1" s="4">
+      <c r="A184" s="6" t="inlineStr">
         <is>
           <t>Farinha de Aveia (170g)</t>
         </is>
       </c>
-      <c r="B184" t="n">
+      <c r="B184" s="6" t="n">
         <v>0.17</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
+    <row r="185" ht="15" customHeight="1" s="4">
+      <c r="A185" s="6" t="inlineStr">
         <is>
           <t>Farinha de Kibe (500g)</t>
         </is>
       </c>
-      <c r="B185" t="n">
+      <c r="B185" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
+    <row r="186" ht="15" customHeight="1" s="4">
+      <c r="A186" s="6" t="inlineStr">
         <is>
           <t>Farinha de Mandioca (1kg)</t>
         </is>
       </c>
-      <c r="B186" t="n">
+      <c r="B186" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
+    <row r="187" ht="15" customHeight="1" s="4">
+      <c r="A187" s="6" t="inlineStr">
         <is>
           <t>Farinha de Mandioca (300g)</t>
         </is>
       </c>
-      <c r="B187" t="n">
+      <c r="B187" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
+    <row r="188" ht="15" customHeight="1" s="4">
+      <c r="A188" s="6" t="inlineStr">
         <is>
           <t>Farinha de Mandioca (500g)</t>
         </is>
       </c>
-      <c r="B188" t="n">
+      <c r="B188" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+    <row r="189" ht="15" customHeight="1" s="4">
+      <c r="A189" s="6" t="inlineStr">
         <is>
           <t>Farinha de Milho (450g)</t>
         </is>
       </c>
-      <c r="B189" t="n">
+      <c r="B189" s="6" t="n">
         <v>0.45</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
+    <row r="190" ht="15" customHeight="1" s="4">
+      <c r="A190" s="6" t="inlineStr">
         <is>
           <t>Farinha de Milho (500g)</t>
         </is>
       </c>
-      <c r="B190" t="n">
+      <c r="B190" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
+    <row r="191" ht="15" customHeight="1" s="4">
+      <c r="A191" s="6" t="inlineStr">
         <is>
           <t>Farinha de Milho Temperada (350g)</t>
         </is>
       </c>
-      <c r="B191" t="n">
+      <c r="B191" s="6" t="n">
         <v>0.35</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
+    <row r="192" ht="15" customHeight="1" s="4">
+      <c r="A192" s="6" t="inlineStr">
         <is>
           <t>Farinha de Rosca (500g)</t>
         </is>
       </c>
-      <c r="B192" t="n">
+      <c r="B192" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
+    <row r="193" ht="15" customHeight="1" s="4">
+      <c r="A193" s="6" t="inlineStr">
         <is>
           <t>Farinha de Trigo (1kg)</t>
         </is>
       </c>
-      <c r="B193" t="n">
+      <c r="B193" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
+    <row r="194" ht="15" customHeight="1" s="4">
+      <c r="A194" s="6" t="inlineStr">
         <is>
           <t>Farinha Láctea (210g)</t>
         </is>
       </c>
-      <c r="B194" t="n">
+      <c r="B194" s="6" t="n">
         <v>0.21</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
+    <row r="195" ht="15" customHeight="1" s="4">
+      <c r="A195" s="6" t="inlineStr">
         <is>
           <t>Farinha Láctea (230g)</t>
         </is>
       </c>
-      <c r="B195" t="n">
+      <c r="B195" s="6" t="n">
         <v>0.23</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
+    <row r="196" ht="15" customHeight="1" s="4">
+      <c r="A196" s="6" t="inlineStr">
         <is>
           <t>Farofa (150g)</t>
         </is>
       </c>
-      <c r="B196" t="n">
+      <c r="B196" s="6" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
+    <row r="197" ht="15" customHeight="1" s="4">
+      <c r="A197" s="6" t="inlineStr">
         <is>
           <t>Farofa (200g)</t>
         </is>
       </c>
-      <c r="B197" t="n">
+      <c r="B197" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
+    <row r="198" ht="15" customHeight="1" s="4">
+      <c r="A198" s="6" t="inlineStr">
         <is>
           <t>Farofa (250g)</t>
         </is>
       </c>
-      <c r="B198" t="n">
+      <c r="B198" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
+    <row r="199" ht="15" customHeight="1" s="4">
+      <c r="A199" s="6" t="inlineStr">
         <is>
           <t>Farofa (300g)</t>
         </is>
       </c>
-      <c r="B199" t="n">
+      <c r="B199" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
+    <row r="200" ht="15" customHeight="1" s="4">
+      <c r="A200" s="6" t="inlineStr">
         <is>
           <t>Farofa (400g)</t>
         </is>
       </c>
-      <c r="B200" t="n">
+      <c r="B200" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
+    <row r="201" ht="15" customHeight="1" s="4">
+      <c r="A201" s="6" t="inlineStr">
         <is>
           <t>Farofa (500g)</t>
         </is>
       </c>
-      <c r="B201" t="n">
+      <c r="B201" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
+    <row r="202" ht="15" customHeight="1" s="4">
+      <c r="A202" s="6" t="inlineStr">
         <is>
           <t>Farofa de Mandioca (250g)</t>
         </is>
       </c>
-      <c r="B202" t="n">
+      <c r="B202" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
+    <row r="203" ht="15" customHeight="1" s="4">
+      <c r="A203" s="6" t="inlineStr">
         <is>
           <t>Farofa de Mandioca (400g)</t>
         </is>
       </c>
-      <c r="B203" t="n">
+      <c r="B203" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
+    <row r="204" ht="15" customHeight="1" s="4">
+      <c r="A204" s="6" t="inlineStr">
         <is>
           <t>Feijão (1kg)</t>
         </is>
       </c>
-      <c r="B204" t="n">
+      <c r="B204" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
+    <row r="205" ht="15" customHeight="1" s="4">
+      <c r="A205" s="6" t="inlineStr">
         <is>
           <t>Feijão (2kg)</t>
         </is>
       </c>
-      <c r="B205" t="n">
+      <c r="B205" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+    <row r="206" ht="15" customHeight="1" s="4">
+      <c r="A206" s="6" t="inlineStr">
         <is>
           <t>Feijão (500g)</t>
         </is>
       </c>
-      <c r="B206" t="n">
+      <c r="B206" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
+    <row r="207" ht="15" customHeight="1" s="4">
+      <c r="A207" s="6" t="inlineStr">
         <is>
           <t>Feijão de Caixa (380g)</t>
         </is>
       </c>
-      <c r="B207" t="n">
+      <c r="B207" s="6" t="n">
         <v>0.38</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+    <row r="208" ht="15" customHeight="1" s="4">
+      <c r="A208" s="6" t="inlineStr">
         <is>
           <t>Feijão de Caixa (490g)</t>
         </is>
       </c>
-      <c r="B208" t="n">
+      <c r="B208" s="6" t="n">
         <v>0.49</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+    <row r="209" ht="15" customHeight="1" s="4">
+      <c r="A209" s="6" t="inlineStr">
         <is>
           <t>Feijoada (430g)</t>
         </is>
       </c>
-      <c r="B209" t="n">
+      <c r="B209" s="6" t="n">
         <v>0.43</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+    <row r="210" ht="15" customHeight="1" s="4">
+      <c r="A210" s="6" t="inlineStr">
         <is>
           <t>Feijoada Enlatada (830g)</t>
         </is>
       </c>
-      <c r="B210" t="n">
+      <c r="B210" s="6" t="n">
         <v>0.83</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
+    <row r="211" ht="15" customHeight="1" s="4">
+      <c r="A211" s="6" t="inlineStr">
         <is>
           <t>Fermento (100g)</t>
         </is>
       </c>
-      <c r="B211" t="n">
+      <c r="B211" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
+    <row r="212" ht="15" customHeight="1" s="4">
+      <c r="A212" s="6" t="inlineStr">
         <is>
           <t>Fermento (250g)</t>
         </is>
       </c>
-      <c r="B212" t="n">
+      <c r="B212" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
+    <row r="213" ht="15" customHeight="1" s="4">
+      <c r="A213" s="6" t="inlineStr">
         <is>
           <t>Figo em Calda (850g)</t>
         </is>
       </c>
-      <c r="B213" t="n">
+      <c r="B213" s="6" t="n">
         <v>0.85</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
+    <row r="214" ht="15" customHeight="1" s="4">
+      <c r="A214" s="6" t="inlineStr">
         <is>
           <t>Flocos de Arroz (500g)</t>
         </is>
       </c>
-      <c r="B214" t="n">
+      <c r="B214" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
+    <row r="215" ht="15" customHeight="1" s="4">
+      <c r="A215" s="6" t="inlineStr">
         <is>
           <t>Flocos de Milho (500g)</t>
         </is>
       </c>
-      <c r="B215" t="n">
+      <c r="B215" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
+    <row r="216" ht="15" customHeight="1" s="4">
+      <c r="A216" s="6" t="inlineStr">
         <is>
           <t>Fuba (1kg)</t>
         </is>
       </c>
-      <c r="B216" t="n">
+      <c r="B216" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
+    <row r="217" ht="15" customHeight="1" s="4">
+      <c r="A217" s="6" t="inlineStr">
         <is>
           <t>Fuba (500g)</t>
         </is>
       </c>
-      <c r="B217" t="n">
+      <c r="B217" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
+    <row r="218" ht="15" customHeight="1" s="4">
+      <c r="A218" s="6" t="inlineStr">
         <is>
           <t>Fuba (5kg)</t>
         </is>
       </c>
-      <c r="B218" t="n">
+      <c r="B218" s="6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
+    <row r="219" ht="15" customHeight="1" s="4">
+      <c r="A219" s="6" t="inlineStr">
         <is>
           <t>Gelatina (12g)</t>
         </is>
       </c>
-      <c r="B219" t="n">
+      <c r="B219" s="6" t="n">
         <v>0.012</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
+    <row r="220" ht="15" customHeight="1" s="4">
+      <c r="A220" s="6" t="inlineStr">
         <is>
           <t>Gelatina (20g)</t>
         </is>
       </c>
-      <c r="B220" t="n">
+      <c r="B220" s="6" t="n">
         <v>0.02</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
+    <row r="221" ht="15" customHeight="1" s="4">
+      <c r="A221" s="6" t="inlineStr">
         <is>
           <t>Gelatina (25g)</t>
         </is>
       </c>
-      <c r="B221" t="n">
+      <c r="B221" s="6" t="n">
         <v>0.025</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
+    <row r="222" ht="15" customHeight="1" s="4">
+      <c r="A222" s="6" t="inlineStr">
         <is>
           <t>Gelatina (25g)</t>
         </is>
       </c>
-      <c r="B222" t="n">
+      <c r="B222" s="6" t="n">
         <v>0.025</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
+    <row r="223" ht="15" customHeight="1" s="4">
+      <c r="A223" s="6" t="inlineStr">
         <is>
           <t>Gelatina (30g)</t>
         </is>
       </c>
-      <c r="B223" t="n">
+      <c r="B223" s="6" t="n">
         <v>0.03</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
+    <row r="224" ht="15" customHeight="1" s="4">
+      <c r="A224" s="6" t="inlineStr">
         <is>
           <t>Gelatina (35g)</t>
         </is>
       </c>
-      <c r="B224" t="n">
+      <c r="B224" s="6" t="n">
         <v>0.035</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
+    <row r="225" ht="15" customHeight="1" s="4">
+      <c r="A225" s="6" t="inlineStr">
         <is>
           <t>Gelatina (50g)</t>
         </is>
       </c>
-      <c r="B225" t="n">
+      <c r="B225" s="6" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
+    <row r="226" ht="15" customHeight="1" s="4">
+      <c r="A226" s="6" t="inlineStr">
         <is>
           <t>Geléia de Damasco (230g)</t>
         </is>
       </c>
-      <c r="B226" t="n">
+      <c r="B226" s="6" t="n">
         <v>0.23</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
+    <row r="227" ht="15" customHeight="1" s="4">
+      <c r="A227" s="6" t="inlineStr">
         <is>
           <t>Geléia de Goiaba (100g)</t>
         </is>
       </c>
-      <c r="B227" t="n">
+      <c r="B227" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
+    <row r="228" ht="15" customHeight="1" s="4">
+      <c r="A228" s="6" t="inlineStr">
         <is>
           <t>Goiabada (200g)</t>
         </is>
       </c>
-      <c r="B228" t="n">
+      <c r="B228" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
+    <row r="229" ht="15" customHeight="1" s="4">
+      <c r="A229" s="6" t="inlineStr">
         <is>
           <t>Goiabada (250g)</t>
         </is>
       </c>
-      <c r="B229" t="n">
+      <c r="B229" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
+    <row r="230" ht="15" customHeight="1" s="4">
+      <c r="A230" s="6" t="inlineStr">
         <is>
           <t>Goiabada (300g)</t>
         </is>
       </c>
-      <c r="B230" t="n">
+      <c r="B230" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
+    <row r="231" ht="15" customHeight="1" s="4">
+      <c r="A231" s="6" t="inlineStr">
         <is>
           <t>Goiabada (400g)</t>
         </is>
       </c>
-      <c r="B231" t="n">
+      <c r="B231" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
+    <row r="232" ht="15" customHeight="1" s="4">
+      <c r="A232" s="6" t="inlineStr">
         <is>
           <t>Goiabada (500g)</t>
         </is>
       </c>
-      <c r="B232" t="n">
+      <c r="B232" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
+    <row r="233" ht="15" customHeight="1" s="4">
+      <c r="A233" s="6" t="inlineStr">
         <is>
           <t>Granulado (130g)</t>
         </is>
       </c>
-      <c r="B233" t="n">
+      <c r="B233" s="6" t="n">
         <v>0.13</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
+    <row r="234" ht="15" customHeight="1" s="4">
+      <c r="A234" s="6" t="inlineStr">
         <is>
           <t>Granulado (150g)</t>
         </is>
       </c>
-      <c r="B234" t="n">
+      <c r="B234" s="6" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
+    <row r="235" ht="15" customHeight="1" s="4">
+      <c r="A235" s="6" t="inlineStr">
         <is>
           <t>Granulado (1kg)</t>
         </is>
       </c>
-      <c r="B235" t="n">
+      <c r="B235" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
+    <row r="236" ht="15" customHeight="1" s="4">
+      <c r="A236" s="6" t="inlineStr">
         <is>
           <t>Granulado (500g)</t>
         </is>
       </c>
-      <c r="B236" t="n">
+      <c r="B236" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
+    <row r="237" ht="15" customHeight="1" s="4">
+      <c r="A237" s="6" t="inlineStr">
         <is>
           <t>Granulado (50g)</t>
         </is>
       </c>
-      <c r="B237" t="n">
+      <c r="B237" s="6" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
+    <row r="238" ht="15" customHeight="1" s="4">
+      <c r="A238" s="6" t="inlineStr">
         <is>
           <t>Grão de Bico (300g)</t>
         </is>
       </c>
-      <c r="B238" t="n">
+      <c r="B238" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
+    <row r="239" ht="15" customHeight="1" s="4">
+      <c r="A239" s="6" t="inlineStr">
         <is>
           <t>Grão de Bico (500g)</t>
         </is>
       </c>
-      <c r="B239" t="n">
+      <c r="B239" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
+    <row r="240" ht="15" customHeight="1" s="4">
+      <c r="A240" s="6" t="inlineStr">
         <is>
           <t>Grão de Bico (80g)</t>
         </is>
       </c>
-      <c r="B240" t="n">
+      <c r="B240" s="6" t="n">
         <v>0.08</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
+    <row r="241" ht="15" customHeight="1" s="4">
+      <c r="A241" s="6" t="inlineStr">
         <is>
           <t>Jujuba (500g)</t>
         </is>
       </c>
-      <c r="B241" t="n">
+      <c r="B241" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
+    <row r="242" ht="15" customHeight="1" s="4">
+      <c r="A242" s="6" t="inlineStr">
         <is>
           <t>Ketchup (1kg)</t>
         </is>
       </c>
-      <c r="B242" t="n">
+      <c r="B242" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
+    <row r="243" ht="15" customHeight="1" s="4">
+      <c r="A243" s="6" t="inlineStr">
         <is>
           <t>Ketchup (400g)</t>
         </is>
       </c>
-      <c r="B243" t="n">
+      <c r="B243" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
+    <row r="244" ht="15" customHeight="1" s="4">
+      <c r="A244" s="6" t="inlineStr">
         <is>
           <t>Kibe (500g)</t>
         </is>
       </c>
-      <c r="B244" t="n">
+      <c r="B244" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
+    <row r="245" ht="15" customHeight="1" s="4">
+      <c r="A245" s="6" t="inlineStr">
         <is>
           <t>Leite Condensado (400g)</t>
         </is>
       </c>
-      <c r="B245" t="n">
+      <c r="B245" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
+    <row r="246" ht="15" customHeight="1" s="4">
+      <c r="A246" s="6" t="inlineStr">
         <is>
           <t>Leite em Pó (1kg)</t>
         </is>
       </c>
-      <c r="B246" t="n">
+      <c r="B246" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
+    <row r="247" ht="15" customHeight="1" s="4">
+      <c r="A247" s="6" t="inlineStr">
         <is>
           <t>Leite em Pó (200g)</t>
         </is>
       </c>
-      <c r="B247" t="n">
+      <c r="B247" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
+    <row r="248" ht="15" customHeight="1" s="4">
+      <c r="A248" s="6" t="inlineStr">
         <is>
           <t>Leite em Pó (280g)</t>
         </is>
       </c>
-      <c r="B248" t="n">
+      <c r="B248" s="6" t="n">
         <v>0.28</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
+    <row r="249" ht="15" customHeight="1" s="4">
+      <c r="A249" s="6" t="inlineStr">
         <is>
           <t>Leite em Pó (300g)</t>
         </is>
       </c>
-      <c r="B249" t="n">
+      <c r="B249" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
+    <row r="250" ht="15" customHeight="1" s="4">
+      <c r="A250" s="6" t="inlineStr">
         <is>
           <t>Leite em Pó (380g)</t>
         </is>
       </c>
-      <c r="B250" t="n">
+      <c r="B250" s="6" t="n">
         <v>0.38</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
+    <row r="251" ht="15" customHeight="1" s="4">
+      <c r="A251" s="6" t="inlineStr">
         <is>
           <t>Leite em Pó (400g)</t>
         </is>
       </c>
-      <c r="B251" t="n">
+      <c r="B251" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
+    <row r="252" ht="15" customHeight="1" s="4">
+      <c r="A252" s="6" t="inlineStr">
         <is>
           <t>Leite em Pó (500g)</t>
         </is>
       </c>
-      <c r="B252" t="n">
+      <c r="B252" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
+    <row r="253" ht="15" customHeight="1" s="4">
+      <c r="A253" s="6" t="inlineStr">
         <is>
           <t>Leite em Pó (800g)</t>
         </is>
       </c>
-      <c r="B253" t="n">
+      <c r="B253" s="6" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
+    <row r="254" ht="15" customHeight="1" s="4">
+      <c r="A254" s="6" t="inlineStr">
         <is>
           <t>Lentilha (1kg)</t>
         </is>
       </c>
-      <c r="B254" t="n">
+      <c r="B254" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
+    <row r="255" ht="15" customHeight="1" s="4">
+      <c r="A255" s="6" t="inlineStr">
         <is>
           <t>Lentilha (200g)</t>
         </is>
       </c>
-      <c r="B255" t="n">
+      <c r="B255" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
+    <row r="256" ht="15" customHeight="1" s="4">
+      <c r="A256" s="6" t="inlineStr">
         <is>
           <t>Lentilha (300g)</t>
         </is>
       </c>
-      <c r="B256" t="n">
+      <c r="B256" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
+    <row r="257" ht="15" customHeight="1" s="4">
+      <c r="A257" s="6" t="inlineStr">
         <is>
           <t>Lentilha (380g)</t>
         </is>
       </c>
-      <c r="B257" t="n">
+      <c r="B257" s="6" t="n">
         <v>0.38</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
+    <row r="258" ht="15" customHeight="1" s="4">
+      <c r="A258" s="6" t="inlineStr">
         <is>
           <t>Lentilha (500g)</t>
         </is>
       </c>
-      <c r="B258" t="n">
+      <c r="B258" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
+    <row r="259" ht="15" customHeight="1" s="4">
+      <c r="A259" s="6" t="inlineStr">
         <is>
           <t>M&amp;M (45g)</t>
         </is>
       </c>
-      <c r="B259" t="n">
+      <c r="B259" s="6" t="n">
         <v>0.045</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
+    <row r="260" ht="15" customHeight="1" s="4">
+      <c r="A260" s="6" t="inlineStr">
         <is>
           <t>Macarrão (1kg)</t>
         </is>
       </c>
-      <c r="B260" t="n">
+      <c r="B260" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
+    <row r="261" ht="15" customHeight="1" s="4">
+      <c r="A261" s="6" t="inlineStr">
         <is>
           <t>Macarrão (200g)</t>
         </is>
       </c>
-      <c r="B261" t="n">
+      <c r="B261" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
+    <row r="262" ht="15" customHeight="1" s="4">
+      <c r="A262" s="6" t="inlineStr">
         <is>
           <t>Macarrão (300g)</t>
         </is>
       </c>
-      <c r="B262" t="n">
+      <c r="B262" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
+    <row r="263" ht="15" customHeight="1" s="4">
+      <c r="A263" s="6" t="inlineStr">
         <is>
           <t>Macarrão (500g)</t>
         </is>
       </c>
-      <c r="B263" t="n">
+      <c r="B263" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
+    <row r="264" ht="15" customHeight="1" s="4">
+      <c r="A264" s="6" t="inlineStr">
         <is>
           <t>Maionese (1kg)</t>
         </is>
       </c>
-      <c r="B264" t="n">
+      <c r="B264" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
+    <row r="265" ht="15" customHeight="1" s="4">
+      <c r="A265" s="6" t="inlineStr">
         <is>
           <t>Maionese (200g)</t>
         </is>
       </c>
-      <c r="B265" t="n">
+      <c r="B265" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
+    <row r="266" ht="15" customHeight="1" s="4">
+      <c r="A266" s="6" t="inlineStr">
         <is>
           <t>Maionese (250g)</t>
         </is>
       </c>
-      <c r="B266" t="n">
+      <c r="B266" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
+    <row r="267" ht="15" customHeight="1" s="4">
+      <c r="A267" s="6" t="inlineStr">
         <is>
           <t>Maionese (270g)</t>
         </is>
       </c>
-      <c r="B267" t="n">
+      <c r="B267" s="6" t="n">
         <v>0.27</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
+    <row r="268" ht="15" customHeight="1" s="4">
+      <c r="A268" s="6" t="inlineStr">
         <is>
           <t>Maionese (300g)</t>
         </is>
       </c>
-      <c r="B268" t="n">
+      <c r="B268" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
+    <row r="269" ht="15" customHeight="1" s="4">
+      <c r="A269" s="6" t="inlineStr">
         <is>
           <t>Maionese (400g)</t>
         </is>
       </c>
-      <c r="B269" t="n">
+      <c r="B269" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
+    <row r="270" ht="15" customHeight="1" s="4">
+      <c r="A270" s="6" t="inlineStr">
         <is>
           <t>Maionese (500g)</t>
         </is>
       </c>
-      <c r="B270" t="n">
+      <c r="B270" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
+    <row r="271" ht="15" customHeight="1" s="4">
+      <c r="A271" s="6" t="inlineStr">
         <is>
           <t>Maionese (700g)</t>
         </is>
       </c>
-      <c r="B271" t="n">
+      <c r="B271" s="6" t="n">
         <v>0.7</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
+    <row r="272" ht="15" customHeight="1" s="4">
+      <c r="A272" s="6" t="inlineStr">
         <is>
           <t>Maizena (200g)</t>
         </is>
       </c>
-      <c r="B272" t="n">
+      <c r="B272" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
+    <row r="273" ht="15" customHeight="1" s="4">
+      <c r="A273" s="6" t="inlineStr">
         <is>
           <t>Maizena (500g)</t>
         </is>
       </c>
-      <c r="B273" t="n">
+      <c r="B273" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
+    <row r="274" ht="15" customHeight="1" s="4">
+      <c r="A274" s="6" t="inlineStr">
         <is>
           <t>Maria Mole (50g)</t>
         </is>
       </c>
-      <c r="B274" t="n">
+      <c r="B274" s="6" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
+    <row r="275" ht="15" customHeight="1" s="4">
+      <c r="A275" s="6" t="inlineStr">
         <is>
           <t>Massa Lasanha (200g)</t>
         </is>
       </c>
-      <c r="B275" t="n">
+      <c r="B275" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
+    <row r="276" ht="15" customHeight="1" s="4">
+      <c r="A276" s="6" t="inlineStr">
         <is>
           <t>Massa Lasanha (500g)</t>
         </is>
       </c>
-      <c r="B276" t="n">
+      <c r="B276" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
+    <row r="277" ht="15" customHeight="1" s="4">
+      <c r="A277" s="6" t="inlineStr">
         <is>
           <t>Milho Conserva (230g)</t>
         </is>
       </c>
-      <c r="B277" t="n">
+      <c r="B277" s="6" t="n">
         <v>0.23</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
+    <row r="278" ht="15" customHeight="1" s="4">
+      <c r="A278" s="6" t="inlineStr">
         <is>
           <t>Milho Conserva (500g)</t>
         </is>
       </c>
-      <c r="B278" t="n">
+      <c r="B278" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
+    <row r="279" ht="15" customHeight="1" s="4">
+      <c r="A279" s="6" t="inlineStr">
         <is>
           <t>Milho de Pipoca (200g)</t>
         </is>
       </c>
-      <c r="B279" t="n">
+      <c r="B279" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
+    <row r="280" ht="15" customHeight="1" s="4">
+      <c r="A280" s="6" t="inlineStr">
         <is>
           <t>Milho de Pipoca (500g)</t>
         </is>
       </c>
-      <c r="B280" t="n">
+      <c r="B280" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
+    <row r="281" ht="15" customHeight="1" s="4">
+      <c r="A281" s="6" t="inlineStr">
         <is>
           <t>Milho e Ervilha (200g)</t>
         </is>
       </c>
-      <c r="B281" t="n">
+      <c r="B281" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
+    <row r="282" ht="15" customHeight="1" s="4">
+      <c r="A282" s="6" t="inlineStr">
         <is>
           <t>Mingau (230g)</t>
         </is>
       </c>
-      <c r="B282" t="n">
+      <c r="B282" s="6" t="n">
         <v>0.23</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
+    <row r="283" ht="15" customHeight="1" s="4">
+      <c r="A283" s="6" t="inlineStr">
         <is>
           <t>Miojo (500g)</t>
         </is>
       </c>
-      <c r="B283" t="n">
+      <c r="B283" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
+    <row r="284" ht="15" customHeight="1" s="4">
+      <c r="A284" s="6" t="inlineStr">
         <is>
           <t>Miojo (80g)</t>
         </is>
       </c>
-      <c r="B284" t="n">
+      <c r="B284" s="6" t="n">
         <v>0.08</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
+    <row r="285" ht="15" customHeight="1" s="4">
+      <c r="A285" s="6" t="inlineStr">
         <is>
           <t>Mistura para Bolo (300g)</t>
         </is>
       </c>
-      <c r="B285" t="n">
+      <c r="B285" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
+    <row r="286" ht="15" customHeight="1" s="4">
+      <c r="A286" s="6" t="inlineStr">
         <is>
           <t>Mistura para Bolo (400g)</t>
         </is>
       </c>
-      <c r="B286" t="n">
+      <c r="B286" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
+    <row r="287" ht="15" customHeight="1" s="4">
+      <c r="A287" s="6" t="inlineStr">
         <is>
           <t>Mistura para Bolo (450g)</t>
         </is>
       </c>
-      <c r="B287" t="n">
+      <c r="B287" s="6" t="n">
         <v>0.45</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
+    <row r="288" ht="15" customHeight="1" s="4">
+      <c r="A288" s="6" t="inlineStr">
         <is>
           <t>Mistura para Empanar (300g)</t>
         </is>
       </c>
-      <c r="B288" t="n">
+      <c r="B288" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
+    <row r="289" ht="15" customHeight="1" s="4">
+      <c r="A289" s="6" t="inlineStr">
         <is>
           <t>Molho 4 Queijos (300g)</t>
         </is>
       </c>
-      <c r="B289" t="n">
+      <c r="B289" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
+    <row r="290" ht="15" customHeight="1" s="4">
+      <c r="A290" s="6" t="inlineStr">
         <is>
           <t>Molho Curry (210g)</t>
         </is>
       </c>
-      <c r="B290" t="n">
+      <c r="B290" s="6" t="n">
         <v>0.21</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
+    <row r="291" ht="15" customHeight="1" s="4">
+      <c r="A291" s="6" t="inlineStr">
         <is>
           <t>Molho de Tomate (130g)</t>
         </is>
       </c>
-      <c r="B291" t="n">
+      <c r="B291" s="6" t="n">
         <v>0.13</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
+    <row r="292" ht="15" customHeight="1" s="4">
+      <c r="A292" s="6" t="inlineStr">
         <is>
           <t>Molho de Tomate (190g)</t>
         </is>
       </c>
-      <c r="B292" t="n">
+      <c r="B292" s="6" t="n">
         <v>0.19</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
+    <row r="293" ht="15" customHeight="1" s="4">
+      <c r="A293" s="6" t="inlineStr">
         <is>
           <t>Molho de Tomate (260g)</t>
         </is>
       </c>
-      <c r="B293" t="n">
+      <c r="B293" s="6" t="n">
         <v>0.26</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
+    <row r="294" ht="15" customHeight="1" s="4">
+      <c r="A294" s="6" t="inlineStr">
         <is>
           <t>Molho de Tomate (2kg)</t>
         </is>
       </c>
-      <c r="B294" t="n">
+      <c r="B294" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
+    <row r="295" ht="15" customHeight="1" s="4">
+      <c r="A295" s="6" t="inlineStr">
         <is>
           <t>Molho de Tomate (300g)</t>
         </is>
       </c>
-      <c r="B295" t="n">
+      <c r="B295" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
+    <row r="296" ht="15" customHeight="1" s="4">
+      <c r="A296" s="6" t="inlineStr">
         <is>
           <t>Molho de Tomate (320g)</t>
         </is>
       </c>
-      <c r="B296" t="n">
+      <c r="B296" s="6" t="n">
         <v>0.32</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
+    <row r="297" ht="15" customHeight="1" s="4">
+      <c r="A297" s="6" t="inlineStr">
         <is>
           <t>Molho de Tomate (340g)</t>
         </is>
       </c>
-      <c r="B297" t="n">
+      <c r="B297" s="6" t="n">
         <v>0.34</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
+    <row r="298" ht="15" customHeight="1" s="4">
+      <c r="A298" s="6" t="inlineStr">
         <is>
           <t>Molho de Tomate (390g)</t>
         </is>
       </c>
-      <c r="B298" t="n">
+      <c r="B298" s="6" t="n">
         <v>0.39</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
+    <row r="299" ht="15" customHeight="1" s="4">
+      <c r="A299" s="6" t="inlineStr">
         <is>
           <t>Molho de Tomate (400g)</t>
         </is>
       </c>
-      <c r="B299" t="n">
+      <c r="B299" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
+    <row r="300" ht="15" customHeight="1" s="4">
+      <c r="A300" s="6" t="inlineStr">
         <is>
           <t>Molho de Tomate (440g)</t>
         </is>
       </c>
-      <c r="B300" t="n">
+      <c r="B300" s="6" t="n">
         <v>0.44</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
+    <row r="301" ht="15" customHeight="1" s="4">
+      <c r="A301" s="6" t="inlineStr">
         <is>
           <t>Molho de Tomate (520g)</t>
         </is>
       </c>
-      <c r="B301" t="n">
+      <c r="B301" s="6" t="n">
         <v>0.52</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
+    <row r="302" ht="15" customHeight="1" s="4">
+      <c r="A302" s="6" t="inlineStr">
         <is>
           <t>Molho de Tomate (680g)</t>
         </is>
       </c>
-      <c r="B302" t="n">
+      <c r="B302" s="6" t="n">
         <v>0.68</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
+    <row r="303" ht="15" customHeight="1" s="4">
+      <c r="A303" s="6" t="inlineStr">
         <is>
           <t>Molho Yakisoba (300g)</t>
         </is>
       </c>
-      <c r="B303" t="n">
+      <c r="B303" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
+    <row r="304" ht="15" customHeight="1" s="4">
+      <c r="A304" s="6" t="inlineStr">
         <is>
           <t>Mostarda (190g)</t>
         </is>
       </c>
-      <c r="B304" t="n">
+      <c r="B304" s="6" t="n">
         <v>0.19</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
+    <row r="305" ht="15" customHeight="1" s="4">
+      <c r="A305" s="6" t="inlineStr">
         <is>
           <t>Mostarda (200g)</t>
         </is>
       </c>
-      <c r="B305" t="n">
+      <c r="B305" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
+    <row r="306" ht="15" customHeight="1" s="4">
+      <c r="A306" s="6" t="inlineStr">
         <is>
           <t>Nozes (200g)</t>
         </is>
       </c>
-      <c r="B306" t="n">
+      <c r="B306" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
+    <row r="307" ht="15" customHeight="1" s="4">
+      <c r="A307" s="6" t="inlineStr">
         <is>
           <t>Orégano (10g)</t>
         </is>
       </c>
-      <c r="B307" t="n">
+      <c r="B307" s="6" t="n">
         <v>0.01</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
+    <row r="308" ht="15" customHeight="1" s="4">
+      <c r="A308" s="6" t="inlineStr">
         <is>
           <t>Palmito (300g)</t>
         </is>
       </c>
-      <c r="B308" t="n">
+      <c r="B308" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
+    <row r="309" ht="15" customHeight="1" s="4">
+      <c r="A309" s="6" t="inlineStr">
         <is>
           <t>Palmito (500g)</t>
         </is>
       </c>
-      <c r="B309" t="n">
+      <c r="B309" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
+    <row r="310" ht="15" customHeight="1" s="4">
+      <c r="A310" s="6" t="inlineStr">
         <is>
           <t>Palmito (530g)</t>
         </is>
       </c>
-      <c r="B310" t="n">
+      <c r="B310" s="6" t="n">
         <v>0.53</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
+    <row r="311" ht="15" customHeight="1" s="4">
+      <c r="A311" s="6" t="inlineStr">
         <is>
           <t>Panetone (400g)</t>
         </is>
       </c>
-      <c r="B311" t="n">
+      <c r="B311" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
+    <row r="312" ht="15" customHeight="1" s="4">
+      <c r="A312" s="6" t="inlineStr">
         <is>
           <t>Panetone (500g)</t>
         </is>
       </c>
-      <c r="B312" t="n">
+      <c r="B312" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
+    <row r="313" ht="15" customHeight="1" s="4">
+      <c r="A313" s="6" t="inlineStr">
         <is>
           <t>Panetone (80g)</t>
         </is>
       </c>
-      <c r="B313" t="n">
+      <c r="B313" s="6" t="n">
         <v>0.08</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
+    <row r="314" ht="15" customHeight="1" s="4">
+      <c r="A314" s="6" t="inlineStr">
         <is>
           <t>Pão de Forma (500g)</t>
         </is>
       </c>
-      <c r="B314" t="n">
+      <c r="B314" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
+    <row r="315" ht="15" customHeight="1" s="4">
+      <c r="A315" s="6" t="inlineStr">
         <is>
           <t>Pão de Mel (200g)</t>
         </is>
       </c>
-      <c r="B315" t="n">
+      <c r="B315" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
+    <row r="316" ht="15" customHeight="1" s="4">
+      <c r="A316" s="6" t="inlineStr">
         <is>
           <t>Pão de Mel (240g)</t>
         </is>
       </c>
-      <c r="B316" t="n">
+      <c r="B316" s="6" t="n">
         <v>0.24</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
+    <row r="317" ht="15" customHeight="1" s="4">
+      <c r="A317" s="6" t="inlineStr">
         <is>
           <t>Pão de Mel (300g)</t>
         </is>
       </c>
-      <c r="B317" t="n">
+      <c r="B317" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
+    <row r="318" ht="15" customHeight="1" s="4">
+      <c r="A318" s="6" t="inlineStr">
         <is>
           <t>Pão de Mel (500g)</t>
         </is>
       </c>
-      <c r="B318" t="n">
+      <c r="B318" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
+    <row r="319" ht="15" customHeight="1" s="4">
+      <c r="A319" s="6" t="inlineStr">
         <is>
           <t>Patê de Carne (100g)</t>
         </is>
       </c>
-      <c r="B319" t="n">
+      <c r="B319" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
+    <row r="320" ht="15" customHeight="1" s="4">
+      <c r="A320" s="6" t="inlineStr">
         <is>
           <t>Patê de Peru (100g)</t>
         </is>
       </c>
-      <c r="B320" t="n">
+      <c r="B320" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
+    <row r="321" ht="15" customHeight="1" s="4">
+      <c r="A321" s="6" t="inlineStr">
         <is>
           <t>Patê de Presunto (100g)</t>
         </is>
       </c>
-      <c r="B321" t="n">
+      <c r="B321" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
+    <row r="322" ht="15" customHeight="1" s="4">
+      <c r="A322" s="6" t="inlineStr">
         <is>
           <t>Patê de Presunto (150g)</t>
         </is>
       </c>
-      <c r="B322" t="n">
+      <c r="B322" s="6" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
+    <row r="323" ht="15" customHeight="1" s="4">
+      <c r="A323" s="6" t="inlineStr">
         <is>
           <t>Patê de Sardinha (150g)</t>
         </is>
       </c>
-      <c r="B323" t="n">
+      <c r="B323" s="6" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
+    <row r="324" ht="15" customHeight="1" s="4">
+      <c r="A324" s="6" t="inlineStr">
         <is>
           <t>Patê de Sardinha (170g)</t>
         </is>
       </c>
-      <c r="B324" t="n">
+      <c r="B324" s="6" t="n">
         <v>0.17</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
+    <row r="325" ht="15" customHeight="1" s="4">
+      <c r="A325" s="6" t="inlineStr">
         <is>
           <t>Pêssego em Calda (500g)</t>
         </is>
       </c>
-      <c r="B325" t="n">
+      <c r="B325" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
+    <row r="326" ht="15" customHeight="1" s="4">
+      <c r="A326" s="6" t="inlineStr">
         <is>
           <t>Pipoca de Microondas (100g)</t>
         </is>
       </c>
-      <c r="B326" t="n">
+      <c r="B326" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
+    <row r="327" ht="15" customHeight="1" s="4">
+      <c r="A327" s="6" t="inlineStr">
         <is>
           <t>Pipoca de Microondas (50g)</t>
         </is>
       </c>
-      <c r="B327" t="n">
+      <c r="B327" s="6" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
+    <row r="328" ht="15" customHeight="1" s="4">
+      <c r="A328" s="6" t="inlineStr">
         <is>
           <t>Pipoca Doce (100g)</t>
         </is>
       </c>
-      <c r="B328" t="n">
+      <c r="B328" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
+    <row r="329" ht="15" customHeight="1" s="4">
+      <c r="A329" s="6" t="inlineStr">
         <is>
           <t>Polenta (1kg)</t>
         </is>
       </c>
-      <c r="B329" t="n">
+      <c r="B329" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
+    <row r="330" ht="15" customHeight="1" s="4">
+      <c r="A330" s="6" t="inlineStr">
         <is>
           <t>Polenta (500g)</t>
         </is>
       </c>
-      <c r="B330" t="n">
+      <c r="B330" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
+    <row r="331" ht="15" customHeight="1" s="4">
+      <c r="A331" s="6" t="inlineStr">
         <is>
           <t>Polvilho (1kg)</t>
         </is>
       </c>
-      <c r="B331" t="n">
+      <c r="B331" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
+    <row r="332" ht="15" customHeight="1" s="4">
+      <c r="A332" s="6" t="inlineStr">
         <is>
           <t>Polvilho (500g)</t>
         </is>
       </c>
-      <c r="B332" t="n">
+      <c r="B332" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
+    <row r="333" ht="15" customHeight="1" s="4">
+      <c r="A333" s="6" t="inlineStr">
         <is>
           <t>Polvilho Azedo (500g)</t>
         </is>
       </c>
-      <c r="B333" t="n">
+      <c r="B333" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
+    <row r="334" ht="15" customHeight="1" s="4">
+      <c r="A334" s="6" t="inlineStr">
         <is>
           <t>Polvilho Doce (1kg)</t>
         </is>
       </c>
-      <c r="B334" t="n">
+      <c r="B334" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
+    <row r="335" ht="15" customHeight="1" s="4">
+      <c r="A335" s="6" t="inlineStr">
         <is>
           <t>Polvilho Doce (500g)</t>
         </is>
       </c>
-      <c r="B335" t="n">
+      <c r="B335" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
+    <row r="336" ht="15" customHeight="1" s="4">
+      <c r="A336" s="6" t="inlineStr">
         <is>
           <t>Proteína Texturizada (250g)</t>
         </is>
       </c>
-      <c r="B336" t="n">
+      <c r="B336" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
+    <row r="337" ht="15" customHeight="1" s="4">
+      <c r="A337" s="6" t="inlineStr">
         <is>
           <t>Pudim (30g)</t>
         </is>
       </c>
-      <c r="B337" t="n">
+      <c r="B337" s="6" t="n">
         <v>0.03</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
+    <row r="338" ht="15" customHeight="1" s="4">
+      <c r="A338" s="6" t="inlineStr">
         <is>
           <t>Pudim (40g)</t>
         </is>
       </c>
-      <c r="B338" t="n">
+      <c r="B338" s="6" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
+    <row r="339" ht="15" customHeight="1" s="4">
+      <c r="A339" s="6" t="inlineStr">
         <is>
           <t>Pudim (50g)</t>
         </is>
       </c>
-      <c r="B339" t="n">
+      <c r="B339" s="6" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
+    <row r="340" ht="15" customHeight="1" s="4">
+      <c r="A340" s="6" t="inlineStr">
         <is>
           <t>Queijo Ralado (50g)</t>
         </is>
       </c>
-      <c r="B340" t="n">
+      <c r="B340" s="6" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
+    <row r="341" ht="15" customHeight="1" s="4">
+      <c r="A341" s="6" t="inlineStr">
         <is>
           <t>Sagu (150g)</t>
         </is>
       </c>
-      <c r="B341" t="n">
+      <c r="B341" s="6" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
+    <row r="342" ht="15" customHeight="1" s="4">
+      <c r="A342" s="6" t="inlineStr">
         <is>
           <t>Sagu (250g)</t>
         </is>
       </c>
-      <c r="B342" t="n">
+      <c r="B342" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
+    <row r="343" ht="15" customHeight="1" s="4">
+      <c r="A343" s="6" t="inlineStr">
         <is>
           <t>Sagu (500g)</t>
         </is>
       </c>
-      <c r="B343" t="n">
+      <c r="B343" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
+    <row r="344" ht="15" customHeight="1" s="4">
+      <c r="A344" s="6" t="inlineStr">
         <is>
           <t>Sal (1kg)</t>
         </is>
       </c>
-      <c r="B344" t="n">
+      <c r="B344" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
+    <row r="345" ht="15" customHeight="1" s="4">
+      <c r="A345" s="6" t="inlineStr">
         <is>
           <t>Sal (500g)</t>
         </is>
       </c>
-      <c r="B345" t="n">
+      <c r="B345" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
+    <row r="346" ht="15" customHeight="1" s="4">
+      <c r="A346" s="6" t="inlineStr">
         <is>
           <t>Sal Grosso (1kg)</t>
         </is>
       </c>
-      <c r="B346" t="n">
+      <c r="B346" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
+    <row r="347" ht="15" customHeight="1" s="4">
+      <c r="A347" s="6" t="inlineStr">
         <is>
           <t>Salgadinho (50g)</t>
         </is>
       </c>
-      <c r="B347" t="n">
+      <c r="B347" s="6" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
+    <row r="348" ht="15" customHeight="1" s="4">
+      <c r="A348" s="6" t="inlineStr">
         <is>
           <t>Salsicha (300g)</t>
         </is>
       </c>
-      <c r="B348" t="n">
+      <c r="B348" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
+    <row r="349" ht="15" customHeight="1" s="4">
+      <c r="A349" s="6" t="inlineStr">
         <is>
           <t>Salsicha Lata (200g)</t>
         </is>
       </c>
-      <c r="B349" t="n">
+      <c r="B349" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
+    <row r="350" ht="15" customHeight="1" s="4">
+      <c r="A350" s="6" t="inlineStr">
         <is>
           <t>Salsicha Tipo Viena (200g)</t>
         </is>
       </c>
-      <c r="B350" t="n">
+      <c r="B350" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
+    <row r="351" ht="15" customHeight="1" s="4">
+      <c r="A351" s="6" t="inlineStr">
         <is>
           <t>Sardinha (125g)</t>
         </is>
       </c>
-      <c r="B351" t="n">
+      <c r="B351" s="6" t="n">
         <v>0.125</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
+    <row r="352" ht="15" customHeight="1" s="4">
+      <c r="A352" s="6" t="inlineStr">
         <is>
           <t>Sardinha (165g)</t>
         </is>
       </c>
-      <c r="B352" t="n">
+      <c r="B352" s="6" t="n">
         <v>0.165</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
+    <row r="353" ht="15" customHeight="1" s="4">
+      <c r="A353" s="6" t="inlineStr">
         <is>
           <t>Sardinha (250g)</t>
         </is>
       </c>
-      <c r="B353" t="n">
+      <c r="B353" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
+    <row r="354" ht="15" customHeight="1" s="4">
+      <c r="A354" s="6" t="inlineStr">
         <is>
           <t>Sardinha (80g)</t>
         </is>
       </c>
-      <c r="B354" t="n">
+      <c r="B354" s="6" t="n">
         <v>0.08</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
+    <row r="355" ht="15" customHeight="1" s="4">
+      <c r="A355" s="6" t="inlineStr">
         <is>
           <t>Sazon (37,5g)</t>
         </is>
       </c>
-      <c r="B355" t="n">
+      <c r="B355" s="6" t="n">
         <v>0.037</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
+    <row r="356" ht="15" customHeight="1" s="4">
+      <c r="A356" s="6" t="inlineStr">
         <is>
           <t>Sazon (60g)</t>
         </is>
       </c>
-      <c r="B356" t="n">
+      <c r="B356" s="6" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
+    <row r="357" ht="15" customHeight="1" s="4">
+      <c r="A357" s="6" t="inlineStr">
         <is>
           <t>Seleta de Legumes (200g)</t>
         </is>
       </c>
-      <c r="B357" t="n">
+      <c r="B357" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
+    <row r="358" ht="15" customHeight="1" s="4">
+      <c r="A358" s="6" t="inlineStr">
         <is>
           <t>Seleta de Legumes (280g)</t>
         </is>
       </c>
-      <c r="B358" t="n">
+      <c r="B358" s="6" t="n">
         <v>0.28</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
+    <row r="359" ht="15" customHeight="1" s="4">
+      <c r="A359" s="6" t="inlineStr">
         <is>
           <t>Seleta de Legumes (300g)</t>
         </is>
       </c>
-      <c r="B359" t="n">
+      <c r="B359" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
+    <row r="360" ht="15" customHeight="1" s="4">
+      <c r="A360" s="6" t="inlineStr">
         <is>
           <t>Soja Pronta (500g)</t>
         </is>
       </c>
-      <c r="B360" t="n">
+      <c r="B360" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
+    <row r="361" ht="15" customHeight="1" s="4">
+      <c r="A361" s="6" t="inlineStr">
         <is>
           <t>Sopa (196g)</t>
         </is>
       </c>
-      <c r="B361" t="n">
+      <c r="B361" s="6" t="n">
         <v>0.196</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
+    <row r="362" ht="15" customHeight="1" s="4">
+      <c r="A362" s="6" t="inlineStr">
         <is>
           <t>Sopa de Cebola (38g)</t>
         </is>
       </c>
-      <c r="B362" t="n">
+      <c r="B362" s="6" t="n">
         <v>0.038</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
+    <row r="363" ht="15" customHeight="1" s="4">
+      <c r="A363" s="6" t="inlineStr">
         <is>
           <t>Sopa Pronta (200g)</t>
         </is>
       </c>
-      <c r="B363" t="n">
+      <c r="B363" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
+    <row r="364" ht="15" customHeight="1" s="4">
+      <c r="A364" s="6" t="inlineStr">
         <is>
           <t>Sopa Pronta (500g)</t>
         </is>
       </c>
-      <c r="B364" t="n">
+      <c r="B364" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
+    <row r="365" ht="15" customHeight="1" s="4">
+      <c r="A365" s="6" t="inlineStr">
         <is>
           <t>Sopa Sachê (17g)</t>
         </is>
       </c>
-      <c r="B365" t="n">
+      <c r="B365" s="6" t="n">
         <v>0.017</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
+    <row r="366" ht="15" customHeight="1" s="4">
+      <c r="A366" s="6" t="inlineStr">
         <is>
           <t>Sopão (160g)</t>
         </is>
       </c>
-      <c r="B366" t="n">
+      <c r="B366" s="6" t="n">
         <v>0.16</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
+    <row r="367" ht="15" customHeight="1" s="4">
+      <c r="A367" s="6" t="inlineStr">
         <is>
           <t>Sopão (200g)</t>
         </is>
       </c>
-      <c r="B367" t="n">
+      <c r="B367" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
+    <row r="368" ht="15" customHeight="1" s="4">
+      <c r="A368" s="6" t="inlineStr">
         <is>
           <t>Suco Sachê (10g)</t>
         </is>
       </c>
-      <c r="B368" t="n">
+      <c r="B368" s="6" t="n">
         <v>0.01</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
+    <row r="369" ht="15" customHeight="1" s="4">
+      <c r="A369" s="6" t="inlineStr">
         <is>
           <t>Suco Sachê (25g)</t>
         </is>
       </c>
-      <c r="B369" t="n">
+      <c r="B369" s="6" t="n">
         <v>0.025</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
+    <row r="370" ht="15" customHeight="1" s="4">
+      <c r="A370" s="6" t="inlineStr">
         <is>
           <t>Suspiro (70g)</t>
         </is>
       </c>
-      <c r="B370" t="n">
+      <c r="B370" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
+    <row r="371" ht="15" customHeight="1" s="4">
+      <c r="A371" s="6" t="inlineStr">
         <is>
           <t>Tapioca (1kg)</t>
         </is>
       </c>
-      <c r="B371" t="n">
+      <c r="B371" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
+    <row r="372" ht="15" customHeight="1" s="4">
+      <c r="A372" s="6" t="inlineStr">
         <is>
           <t>Tapioca (500g)</t>
         </is>
       </c>
-      <c r="B372" t="n">
+      <c r="B372" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
+    <row r="373" ht="15" customHeight="1" s="4">
+      <c r="A373" s="6" t="inlineStr">
         <is>
           <t>Tempero Pronto (300g)</t>
         </is>
       </c>
-      <c r="B373" t="n">
+      <c r="B373" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
+    <row r="374" ht="15" customHeight="1" s="4">
+      <c r="A374" s="6" t="inlineStr">
         <is>
           <t>Tempero Pronto (500g)</t>
         </is>
       </c>
-      <c r="B374" t="n">
+      <c r="B374" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
+    <row r="375" ht="15" customHeight="1" s="4">
+      <c r="A375" s="6" t="inlineStr">
         <is>
           <t>Tempero Pronto (60g)</t>
         </is>
       </c>
-      <c r="B375" t="n">
+      <c r="B375" s="6" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
+    <row r="376" ht="15" customHeight="1" s="4">
+      <c r="A376" s="6" t="inlineStr">
         <is>
           <t>Tomate Pelado (400g)</t>
         </is>
       </c>
-      <c r="B376" t="n">
+      <c r="B376" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
+    <row r="377" ht="15" customHeight="1" s="4">
+      <c r="A377" s="6" t="inlineStr">
         <is>
           <t>Tomate Picado (400g)</t>
         </is>
       </c>
-      <c r="B377" t="n">
+      <c r="B377" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
+    <row r="378" ht="15" customHeight="1" s="4">
+      <c r="A378" s="6" t="inlineStr">
         <is>
           <t>Torrada (100g)</t>
         </is>
       </c>
-      <c r="B378" t="n">
+      <c r="B378" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
+    <row r="379" ht="15" customHeight="1" s="4">
+      <c r="A379" s="6" t="inlineStr">
         <is>
           <t>Torrada (120g)</t>
         </is>
       </c>
-      <c r="B379" t="n">
+      <c r="B379" s="6" t="n">
         <v>0.12</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
+    <row r="380" ht="15" customHeight="1" s="4">
+      <c r="A380" s="6" t="inlineStr">
         <is>
           <t>Torrada (142g)</t>
         </is>
       </c>
-      <c r="B380" t="n">
+      <c r="B380" s="6" t="n">
         <v>0.142</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
+    <row r="381" ht="15" customHeight="1" s="4">
+      <c r="A381" s="6" t="inlineStr">
         <is>
           <t>Torrada (160g)</t>
         </is>
       </c>
-      <c r="B381" t="n">
+      <c r="B381" s="6" t="n">
         <v>0.16</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
+    <row r="382" ht="15" customHeight="1" s="4">
+      <c r="A382" s="6" t="inlineStr">
         <is>
           <t>Trigo para Kibe (500g)</t>
         </is>
       </c>
-      <c r="B382" t="n">
+      <c r="B382" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
+    <row r="383" ht="15" customHeight="1" s="4">
+      <c r="A383" s="6" t="inlineStr">
         <is>
           <t>Uva Passa (100g)</t>
         </is>
       </c>
-      <c r="B383" t="n">
+      <c r="B383" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
+    <row r="384" ht="15" customHeight="1" s="4">
+      <c r="A384" s="6" t="inlineStr">
         <is>
           <t>Barra de Cereal (1un)</t>
         </is>
       </c>
-      <c r="B384" t="n">
+      <c r="B384" s="6" t="n">
         <v>0.025</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
+    <row r="385" ht="15" customHeight="1" s="4">
+      <c r="A385" s="6" t="inlineStr">
         <is>
           <t>Barra de Cereal (4un)</t>
         </is>
       </c>
-      <c r="B385" t="n">
+      <c r="B385" s="6" t="n">
         <v>0.08</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
+    <row r="386" ht="15" customHeight="1" s="4">
+      <c r="A386" s="6" t="inlineStr">
         <is>
           <t>Chá</t>
         </is>
       </c>
-      <c r="B386" t="n">
+      <c r="B386" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
+    <row r="387" ht="15" customHeight="1" s="4">
+      <c r="A387" s="6" t="inlineStr">
         <is>
           <t>Chá (10un)</t>
         </is>
       </c>
-      <c r="B387" t="n">
+      <c r="B387" s="6" t="n">
         <v>0.015</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
+    <row r="388" ht="15" customHeight="1" s="4">
+      <c r="A388" s="6" t="inlineStr">
         <is>
           <t>Chá (15un)</t>
         </is>
       </c>
-      <c r="B388" t="n">
+      <c r="B388" s="6" t="n">
         <v>0.03</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
+    <row r="389" ht="15" customHeight="1" s="4">
+      <c r="A389" s="6" t="inlineStr">
         <is>
           <t>Club Social (1un)</t>
         </is>
       </c>
-      <c r="B389" t="n">
+      <c r="B389" s="6" t="n">
         <v>0.024</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
+    <row r="390" ht="15" customHeight="1" s="4">
+      <c r="A390" s="6" t="inlineStr">
         <is>
           <t>Club Social (6un)</t>
         </is>
       </c>
-      <c r="B390" t="n">
+      <c r="B390" s="6" t="n">
         <v>0.14</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
+    <row r="391" ht="15" customHeight="1" s="4">
+      <c r="A391" s="6" t="inlineStr">
         <is>
           <t>Filtro de Café (30un)</t>
         </is>
       </c>
-      <c r="B391" t="n">
+      <c r="B391" s="6" t="n">
         <v>0.01</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
+    <row r="392" ht="15" customHeight="1" s="4">
+      <c r="A392" s="6" t="inlineStr">
         <is>
           <t>Leite (12un)</t>
         </is>
       </c>
-      <c r="B392" t="n">
+      <c r="B392" s="6" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
+    <row r="393" ht="15" customHeight="1" s="4">
+      <c r="A393" s="6" t="inlineStr">
         <is>
           <t>Leite (6un)</t>
         </is>
       </c>
-      <c r="B393" t="n">
+      <c r="B393" s="6" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
+    <row r="394" ht="15" customHeight="1" s="4">
+      <c r="A394" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">feijão </t>
         </is>
       </c>
-      <c r="B394" t="n">
+      <c r="B394" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
+    <row r="395" ht="15" customHeight="1" s="4">
+      <c r="A395" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">macarrão </t>
         </is>
       </c>
-      <c r="B395" t="n">
+      <c r="B395" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
+    <row r="396" ht="15" customHeight="1" s="4">
+      <c r="A396" s="6" t="inlineStr">
         <is>
           <t>Farinha de milho (250g)</t>
         </is>
       </c>
-      <c r="B396" t="n">
+      <c r="B396" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
+    <row r="397" ht="15" customHeight="1" s="4">
+      <c r="A397" s="6" t="inlineStr">
         <is>
           <t>molho de tomate 300g</t>
         </is>
       </c>
-      <c r="B397" t="n">
+      <c r="B397" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
+    <row r="398" ht="15" customHeight="1" s="4">
+      <c r="A398" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">suco em pó </t>
         </is>
       </c>
-      <c r="B398" t="n">
+      <c r="B398" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
+    <row r="399" ht="15" customHeight="1" s="4">
+      <c r="A399" s="6" t="inlineStr">
         <is>
           <t>Extrato de tomate (190g)</t>
         </is>
       </c>
-      <c r="B399" t="n">
+      <c r="B399" s="6" t="n">
         <v>0.19</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
+    <row r="400" ht="15" customHeight="1" s="4">
+      <c r="A400" s="6" t="inlineStr">
         <is>
           <t>Suco (18g)</t>
         </is>
       </c>
-      <c r="B400" t="n">
+      <c r="B400" s="6" t="n">
         <v>0.018</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
+    <row r="401" ht="15" customHeight="1" s="4">
+      <c r="A401" s="6" t="inlineStr">
         <is>
           <t>Biscoito recheado (90g)</t>
         </is>
       </c>
-      <c r="B401" t="n">
+      <c r="B401" s="6" t="n">
         <v>0.09</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
+    <row r="402" ht="15" customHeight="1" s="4">
+      <c r="A402" s="6" t="inlineStr">
         <is>
           <t>Achocolatado (370g)</t>
         </is>
       </c>
-      <c r="B402" t="n">
+      <c r="B402" s="6" t="n">
         <v>0.37</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
+    <row r="403" ht="15" customHeight="1" s="4">
+      <c r="A403" s="6" t="inlineStr">
         <is>
           <t>Macarrão (200g)</t>
         </is>
       </c>
-      <c r="B403" t="n">
+      <c r="B403" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
+    <row r="404" ht="15" customHeight="1" s="4">
+      <c r="A404" s="6" t="inlineStr">
         <is>
           <t>Lava roupas (800g)</t>
         </is>
       </c>
-      <c r="B404" t="n">
+      <c r="B404" s="6" t="n">
         <v>800</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -47200,388 +47214,388 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="16.8" customWidth="1" style="5" min="2" max="2"/>
+    <col width="16.8" customWidth="1" style="6" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>L/embalagem</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="4">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Achocolatado (1L)</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="4">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Adoçante (100mL)</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Água de Coco (2L)</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="4">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Água Tônica (237mL)</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="6" t="n">
         <v>0.237</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="6">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="4">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Azeite (200mL)</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="6">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="4">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Azeite (500mL)</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="6">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="4">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Bebida Láctea Baunilha (200mL)</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="6">
-      <c r="A9" s="5" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="4">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>Bebida Láctea Chocolate (180mL)</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="6" t="n">
         <v>0.18</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="6">
-      <c r="A10" s="5" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="4">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Bebida Láctea Chocolate (1L)</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="6">
-      <c r="A11" s="5" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="4">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>Espumante (660mL)</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="6" t="n">
         <v>0.66</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="6">
-      <c r="A12" s="5" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="4">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Gatorade (500mL)</t>
         </is>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="6">
-      <c r="A13" s="5" t="inlineStr">
+    <row r="13" ht="15" customHeight="1" s="4">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>Leite (1L)</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="6">
-      <c r="A14" s="5" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="4">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>Leite de Coco (200mL)</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="6">
-      <c r="A15" s="5" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="4">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>Leite de Soja (1L)</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="6">
-      <c r="A16" s="5" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="4">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>Molho de Pimenta (150mL)</t>
         </is>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="6" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="6">
-      <c r="A17" s="5" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="4">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>Molho de Pimenta (200mL)</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="6">
-      <c r="A18" s="5" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="4">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>Óleo (200mL)</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="6">
-      <c r="A19" s="5" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="4">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>Óleo (900mL)</t>
         </is>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="6" t="n">
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="6">
-      <c r="A20" s="5" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="4">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>Refrigerante (1,5L)</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="6" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="6">
-      <c r="A21" s="5" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="4">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>Refrigerante (1L)</t>
         </is>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="6">
-      <c r="A22" s="5" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="4">
+      <c r="A22" s="6" t="inlineStr">
         <is>
           <t>Refrigerante (2,5L)</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="6" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="6">
-      <c r="A23" s="5" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="4">
+      <c r="A23" s="6" t="inlineStr">
         <is>
           <t>Refrigerante (2L)</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="6">
-      <c r="A24" s="5" t="inlineStr">
+    <row r="24" ht="15" customHeight="1" s="4">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>Refrigerante (3L)</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="6">
-      <c r="A25" s="5" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="4">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>Refrigerante Lata (350mL)</t>
         </is>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="6" t="n">
         <v>0.35</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="6">
-      <c r="A26" s="5" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="4">
+      <c r="A26" s="6" t="inlineStr">
         <is>
           <t>Suco (1,5L)</t>
         </is>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="6" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="6">
-      <c r="A27" s="5" t="inlineStr">
+    <row r="27" ht="15" customHeight="1" s="4">
+      <c r="A27" s="6" t="inlineStr">
         <is>
           <t>Suco (1L)</t>
         </is>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="6">
-      <c r="A28" s="5" t="inlineStr">
+    <row r="28" ht="15" customHeight="1" s="4">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>Suco (390mL)</t>
         </is>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="6" t="n">
         <v>0.39</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="6">
-      <c r="A29" s="5" t="inlineStr">
+    <row r="29" ht="15" customHeight="1" s="4">
+      <c r="A29" s="6" t="inlineStr">
         <is>
           <t>Suco (900 mL)</t>
         </is>
       </c>
-      <c r="B29" s="5" t="n">
+      <c r="B29" s="6" t="n">
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="6">
-      <c r="A30" s="5" t="inlineStr">
+    <row r="30" ht="15" customHeight="1" s="4">
+      <c r="A30" s="6" t="inlineStr">
         <is>
           <t>Suco Concentrado (1L)</t>
         </is>
       </c>
-      <c r="B30" s="5" t="n">
+      <c r="B30" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="6">
-      <c r="A31" s="5" t="inlineStr">
+    <row r="31" ht="15" customHeight="1" s="4">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Suco Concentrado (500mL)</t>
         </is>
       </c>
-      <c r="B31" s="5" t="n">
+      <c r="B31" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="6">
-      <c r="A32" s="5" t="inlineStr">
+    <row r="32" ht="15" customHeight="1" s="4">
+      <c r="A32" s="6" t="inlineStr">
         <is>
           <t>Vinagre (200mL)</t>
         </is>
       </c>
-      <c r="B32" s="5" t="n">
+      <c r="B32" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="6">
-      <c r="A33" s="5" t="inlineStr">
+    <row r="33" ht="15" customHeight="1" s="4">
+      <c r="A33" s="6" t="inlineStr">
         <is>
           <t>Vinagre (2L)</t>
         </is>
       </c>
-      <c r="B33" s="5" t="n">
+      <c r="B33" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" s="6">
-      <c r="A34" s="5" t="inlineStr">
+    <row r="34" ht="15" customHeight="1" s="4">
+      <c r="A34" s="6" t="inlineStr">
         <is>
           <t>Vinagre (750mL)</t>
         </is>
       </c>
-      <c r="B34" s="5" t="n">
+      <c r="B34" s="6" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="6">
-      <c r="A35" s="5" t="inlineStr">
+    <row r="35" ht="15" customHeight="1" s="4">
+      <c r="A35" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">óleo </t>
         </is>
       </c>
-      <c r="B35" s="5" t="n">
+      <c r="B35" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" s="6">
-      <c r="A36" s="5" t="inlineStr">
+    <row r="36" ht="15" customHeight="1" s="4">
+      <c r="A36" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Leite 1L </t>
         </is>
       </c>
-      <c r="B36" s="5" t="n">
+      <c r="B36" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" s="6">
-      <c r="A37" s="5" t="inlineStr">
+    <row r="37" ht="15" customHeight="1" s="4">
+      <c r="A37" s="6" t="inlineStr">
         <is>
           <t>Leite (1L)</t>
         </is>
       </c>
-      <c r="B37" s="5" t="n">
+      <c r="B37" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" s="6">
-      <c r="A38" s="5" t="inlineStr">
+    <row r="38" ht="15" customHeight="1" s="4">
+      <c r="A38" s="6" t="inlineStr">
         <is>
           <t>Leite (1L)</t>
         </is>
       </c>
-      <c r="B38" s="5" t="n">
+      <c r="B38" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47600,838 +47614,838 @@
   </sheetPr>
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="34.79" customWidth="1" style="5" min="1" max="1"/>
-    <col width="16.91" customWidth="1" style="5" min="2" max="2"/>
+    <col width="34.79" customWidth="1" style="6" min="1" max="1"/>
+    <col width="16.91" customWidth="1" style="6" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>L/embalagem</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="4">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Água Sanitária (1L)</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="4">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Água Sanitária (2L)</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Água Sanitária (5L)</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="4">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Álcool (1L)</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="6">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="4">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Álcool (500mL)</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="6">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="4">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Álcool Gel (1L)</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="6">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="4">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Álcool Gel (500mL)</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="6">
-      <c r="A9" s="5" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="4">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>Algodão (25g)</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="6" t="n">
         <v>0.025</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="6">
-      <c r="A10" s="5" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="4">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Algodão (50g)</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="6" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="6">
-      <c r="A11" s="5" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="4">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>Alvejante (1L)</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="6">
-      <c r="A12" s="5" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="4">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Alvejante (2L)</t>
         </is>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="6">
-      <c r="A13" s="5" t="inlineStr">
+    <row r="13" ht="15" customHeight="1" s="4">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>Alvejante (500mL)</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="6">
-      <c r="A14" s="5" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="4">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>Amaciante (1L)</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="6">
-      <c r="A15" s="5" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="4">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>Amaciante (2L)</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="6">
-      <c r="A16" s="5" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="4">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>Amaciante (500mL)</t>
         </is>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="6">
-      <c r="A17" s="5" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="4">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>Amaciante (5L)</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="6">
-      <c r="A18" s="5" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="4">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>Amaciante (900mL)</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="6">
-      <c r="A19" s="5" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="4">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>Antisséptico (100mL)</t>
         </is>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="6">
-      <c r="A20" s="5" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="4">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>Antisséptico (440mL)</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="6" t="n">
         <v>0.44</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="6">
-      <c r="A21" s="5" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="4">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>Brilho Alumínio (500mL)</t>
         </is>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="6">
-      <c r="A22" s="5" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="4">
+      <c r="A22" s="6" t="inlineStr">
         <is>
           <t>Bucha (1un)</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="6">
-      <c r="A23" s="5" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="4">
+      <c r="A23" s="6" t="inlineStr">
         <is>
           <t>Cloro Ativo (500mL)</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="6">
-      <c r="A24" s="5" t="inlineStr">
+    <row r="24" ht="15" customHeight="1" s="4">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>Cloro Ativo (5L)</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="6">
-      <c r="A25" s="5" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="4">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>Condicionador (200mL)</t>
         </is>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="6" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="6">
-      <c r="A26" s="5" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="4">
+      <c r="A26" s="6" t="inlineStr">
         <is>
           <t>Condicionador (325mL)</t>
         </is>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="6">
-      <c r="A27" s="5" t="inlineStr">
+    <row r="27" ht="15" customHeight="1" s="4">
+      <c r="A27" s="6" t="inlineStr">
         <is>
           <t>Condicionador (350mL)</t>
         </is>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="6">
-      <c r="A28" s="5" t="inlineStr">
+    <row r="28" ht="15" customHeight="1" s="4">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>Condicionador (400mL)</t>
         </is>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="6">
-      <c r="A29" s="5" t="inlineStr">
+    <row r="29" ht="15" customHeight="1" s="4">
+      <c r="A29" s="6" t="inlineStr">
         <is>
           <t>Condicionador (500mL)</t>
         </is>
       </c>
-      <c r="B29" s="5" t="n">
+      <c r="B29" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="6">
-      <c r="A30" s="5" t="inlineStr">
+    <row r="30" ht="15" customHeight="1" s="4">
+      <c r="A30" s="6" t="inlineStr">
         <is>
           <t>Creme (400mL)</t>
         </is>
       </c>
-      <c r="B30" s="5" t="n">
+      <c r="B30" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="6">
-      <c r="A31" s="5" t="inlineStr">
+    <row r="31" ht="15" customHeight="1" s="4">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Desengordurante (500mL)</t>
         </is>
       </c>
-      <c r="B31" s="5" t="n">
+      <c r="B31" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="6">
-      <c r="A32" s="5" t="inlineStr">
+    <row r="32" ht="15" customHeight="1" s="4">
+      <c r="A32" s="6" t="inlineStr">
         <is>
           <t>Desinfetante (1,75L)</t>
         </is>
       </c>
-      <c r="B32" s="5" t="n">
+      <c r="B32" s="6" t="n">
         <v>1.75</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="6">
-      <c r="A33" s="5" t="inlineStr">
+    <row r="33" ht="15" customHeight="1" s="4">
+      <c r="A33" s="6" t="inlineStr">
         <is>
           <t>Desinfetante (1L)</t>
         </is>
       </c>
-      <c r="B33" s="5" t="n">
+      <c r="B33" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" s="6">
-      <c r="A34" s="5" t="inlineStr">
+    <row r="34" ht="15" customHeight="1" s="4">
+      <c r="A34" s="6" t="inlineStr">
         <is>
           <t>Desinfetante (2L)</t>
         </is>
       </c>
-      <c r="B34" s="5" t="n">
+      <c r="B34" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="6">
-      <c r="A35" s="5" t="inlineStr">
+    <row r="35" ht="15" customHeight="1" s="4">
+      <c r="A35" s="6" t="inlineStr">
         <is>
           <t>Desinfetante (300mL)</t>
         </is>
       </c>
-      <c r="B35" s="5" t="n">
+      <c r="B35" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" s="6">
-      <c r="A36" s="5" t="inlineStr">
+    <row r="36" ht="15" customHeight="1" s="4">
+      <c r="A36" s="6" t="inlineStr">
         <is>
           <t>Desinfetante (500mL)</t>
         </is>
       </c>
-      <c r="B36" s="5" t="n">
+      <c r="B36" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" s="6">
-      <c r="A37" s="5" t="inlineStr">
+    <row r="37" ht="15" customHeight="1" s="4">
+      <c r="A37" s="6" t="inlineStr">
         <is>
           <t>Desinfetante (5L)</t>
         </is>
       </c>
-      <c r="B37" s="5" t="n">
+      <c r="B37" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" s="6">
-      <c r="A38" s="5" t="inlineStr">
+    <row r="38" ht="15" customHeight="1" s="4">
+      <c r="A38" s="6" t="inlineStr">
         <is>
           <t>Desinfetante (750mL)</t>
         </is>
       </c>
-      <c r="B38" s="5" t="n">
+      <c r="B38" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" s="6">
-      <c r="A39" s="5" t="inlineStr">
+    <row r="39" ht="15" customHeight="1" s="4">
+      <c r="A39" s="6" t="inlineStr">
         <is>
           <t>Detergente (1L)</t>
         </is>
       </c>
-      <c r="B39" s="5" t="n">
+      <c r="B39" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1" s="6">
-      <c r="A40" s="5" t="inlineStr">
+    <row r="40" ht="15" customHeight="1" s="4">
+      <c r="A40" s="6" t="inlineStr">
         <is>
           <t>Detergente (5L)</t>
         </is>
       </c>
-      <c r="B40" s="5" t="n">
+      <c r="B40" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1" s="6">
-      <c r="A41" s="5" t="inlineStr">
+    <row r="41" ht="15" customHeight="1" s="4">
+      <c r="A41" s="6" t="inlineStr">
         <is>
           <t>Enxaguante Bucal (250mL)</t>
         </is>
       </c>
-      <c r="B41" s="5" t="n">
+      <c r="B41" s="6" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" s="6">
-      <c r="A42" s="5" t="inlineStr">
+    <row r="42" ht="15" customHeight="1" s="4">
+      <c r="A42" s="6" t="inlineStr">
         <is>
           <t>Enxaguante Bucal (350mL)</t>
         </is>
       </c>
-      <c r="B42" s="5" t="n">
+      <c r="B42" s="6" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" s="6">
-      <c r="A43" s="5" t="inlineStr">
+    <row r="43" ht="15" customHeight="1" s="4">
+      <c r="A43" s="6" t="inlineStr">
         <is>
           <t>Enxaguante Bucal (500mL)</t>
         </is>
       </c>
-      <c r="B43" s="5" t="n">
+      <c r="B43" s="6" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1" s="6">
-      <c r="A44" s="5" t="inlineStr">
+    <row r="44" ht="15" customHeight="1" s="4">
+      <c r="A44" s="6" t="inlineStr">
         <is>
           <t>Hidratante (150mL)</t>
         </is>
       </c>
-      <c r="B44" s="5" t="n">
+      <c r="B44" s="6" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" s="6">
-      <c r="A45" s="5" t="inlineStr">
+    <row r="45" ht="15" customHeight="1" s="4">
+      <c r="A45" s="6" t="inlineStr">
         <is>
           <t>Hidratante (200mL)</t>
         </is>
       </c>
-      <c r="B45" s="5" t="n">
+      <c r="B45" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1" s="6">
-      <c r="A46" s="5" t="inlineStr">
+    <row r="46" ht="15" customHeight="1" s="4">
+      <c r="A46" s="6" t="inlineStr">
         <is>
           <t>Hidratante (400mL)</t>
         </is>
       </c>
-      <c r="B46" s="5" t="n">
+      <c r="B46" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1" s="6">
-      <c r="A47" s="5" t="inlineStr">
+    <row r="47" ht="15" customHeight="1" s="4">
+      <c r="A47" s="6" t="inlineStr">
         <is>
           <t>Hidratante (500mL)</t>
         </is>
       </c>
-      <c r="B47" s="5" t="n">
+      <c r="B47" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1" s="6">
-      <c r="A48" s="5" t="inlineStr">
+    <row r="48" ht="15" customHeight="1" s="4">
+      <c r="A48" s="6" t="inlineStr">
         <is>
           <t>Hidratante para Cabelo (300mL)</t>
         </is>
       </c>
-      <c r="B48" s="5" t="n">
+      <c r="B48" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1" s="6">
-      <c r="A49" s="5" t="inlineStr">
+    <row r="49" ht="15" customHeight="1" s="4">
+      <c r="A49" s="6" t="inlineStr">
         <is>
           <t>Lava Roupas Líquido (900mL)</t>
         </is>
       </c>
-      <c r="B49" s="5" t="n">
+      <c r="B49" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1" s="6">
-      <c r="A50" s="5" t="inlineStr">
+    <row r="50" ht="15" customHeight="1" s="4">
+      <c r="A50" s="6" t="inlineStr">
         <is>
           <t>Limpador (2L)</t>
         </is>
       </c>
-      <c r="B50" s="5" t="n">
+      <c r="B50" s="6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1" s="6">
-      <c r="A51" s="5" t="inlineStr">
+    <row r="51" ht="15" customHeight="1" s="4">
+      <c r="A51" s="6" t="inlineStr">
         <is>
           <t>Limpador (500mL)</t>
         </is>
       </c>
-      <c r="B51" s="5" t="n">
+      <c r="B51" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1" s="6">
-      <c r="A52" s="5" t="inlineStr">
+    <row r="52" ht="15" customHeight="1" s="4">
+      <c r="A52" s="6" t="inlineStr">
         <is>
           <t>Lustra Móveis (200mL)</t>
         </is>
       </c>
-      <c r="B52" s="5" t="n">
+      <c r="B52" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1" s="6">
-      <c r="A53" s="5" t="inlineStr">
+    <row r="53" ht="15" customHeight="1" s="4">
+      <c r="A53" s="6" t="inlineStr">
         <is>
           <t>Multiuso (1L)</t>
         </is>
       </c>
-      <c r="B53" s="5" t="n">
+      <c r="B53" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1" s="6">
-      <c r="A54" s="5" t="inlineStr">
+    <row r="54" ht="15" customHeight="1" s="4">
+      <c r="A54" s="6" t="inlineStr">
         <is>
           <t>Multiuso (200ml)</t>
         </is>
       </c>
-      <c r="B54" s="5" t="n">
+      <c r="B54" s="6" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1" s="6">
-      <c r="A55" s="5" t="inlineStr">
+    <row r="55" ht="15" customHeight="1" s="4">
+      <c r="A55" s="6" t="inlineStr">
         <is>
           <t>Multiuso (450mL)</t>
         </is>
       </c>
-      <c r="B55" s="5" t="n">
+      <c r="B55" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" s="6">
-      <c r="A56" s="5" t="inlineStr">
+    <row r="56" ht="15" customHeight="1" s="4">
+      <c r="A56" s="6" t="inlineStr">
         <is>
           <t>Multiuso (500mL)</t>
         </is>
       </c>
-      <c r="B56" s="5" t="n">
+      <c r="B56" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1" s="6">
-      <c r="A57" s="5" t="inlineStr">
+    <row r="57" ht="15" customHeight="1" s="4">
+      <c r="A57" s="6" t="inlineStr">
         <is>
           <t>Multiuso (750mL)</t>
         </is>
       </c>
-      <c r="B57" s="5" t="n">
+      <c r="B57" s="6" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1" s="6">
-      <c r="A58" s="5" t="inlineStr">
+    <row r="58" ht="15" customHeight="1" s="4">
+      <c r="A58" s="6" t="inlineStr">
         <is>
           <t>Multiuso Pacote 3 Unidades (500mL)</t>
         </is>
       </c>
-      <c r="B58" s="5" t="n">
+      <c r="B58" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1" s="6">
-      <c r="A59" s="5" t="inlineStr">
+    <row r="59" ht="15" customHeight="1" s="4">
+      <c r="A59" s="6" t="inlineStr">
         <is>
           <t>Perfume (100mL)</t>
         </is>
       </c>
-      <c r="B59" s="5" t="n">
+      <c r="B59" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1" s="6">
-      <c r="A60" s="5" t="inlineStr">
+    <row r="60" ht="15" customHeight="1" s="4">
+      <c r="A60" s="6" t="inlineStr">
         <is>
           <t>Perfume de Bebê (500 mL)</t>
         </is>
       </c>
-      <c r="B60" s="5" t="n">
+      <c r="B60" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1" s="6">
-      <c r="A61" s="5" t="inlineStr">
+    <row r="61" ht="15" customHeight="1" s="4">
+      <c r="A61" s="6" t="inlineStr">
         <is>
           <t>Protetor Solar (400mL)</t>
         </is>
       </c>
-      <c r="B61" s="5" t="n">
+      <c r="B61" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1" s="6">
-      <c r="A62" s="5" t="inlineStr">
+    <row r="62" ht="15" customHeight="1" s="4">
+      <c r="A62" s="6" t="inlineStr">
         <is>
           <t>Querosene (1L)</t>
         </is>
       </c>
-      <c r="B62" s="5" t="n">
+      <c r="B62" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1" s="6">
-      <c r="A63" s="5" t="inlineStr">
+    <row r="63" ht="15" customHeight="1" s="4">
+      <c r="A63" s="6" t="inlineStr">
         <is>
           <t>Querosene (500mL)</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1" s="6">
-      <c r="A64" s="5" t="inlineStr">
+    <row r="64" ht="15" customHeight="1" s="4">
+      <c r="A64" s="6" t="inlineStr">
         <is>
           <t>Querosene (900mL)</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1" s="6">
-      <c r="A65" s="5" t="inlineStr">
+    <row r="65" ht="15" customHeight="1" s="4">
+      <c r="A65" s="6" t="inlineStr">
         <is>
           <t>Roupa Íntima Descartável</t>
         </is>
       </c>
-      <c r="B65" s="5" t="n">
+      <c r="B65" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="15" customHeight="1" s="6">
-      <c r="A66" s="5" t="inlineStr">
+    <row r="66" ht="15" customHeight="1" s="4">
+      <c r="A66" s="6" t="inlineStr">
         <is>
           <t>Sabão Líquido (1L)</t>
         </is>
       </c>
-      <c r="B66" s="5" t="n">
+      <c r="B66" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1" s="6">
-      <c r="A67" s="5" t="inlineStr">
+    <row r="67" ht="15" customHeight="1" s="4">
+      <c r="A67" s="6" t="inlineStr">
         <is>
           <t>Sabão Líquido (1L)</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1" s="6">
-      <c r="A68" s="5" t="inlineStr">
+    <row r="68" ht="15" customHeight="1" s="4">
+      <c r="A68" s="6" t="inlineStr">
         <is>
           <t>Sabão Líquido (2L)</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1" s="6">
-      <c r="A69" s="5" t="inlineStr">
+    <row r="69" ht="15" customHeight="1" s="4">
+      <c r="A69" s="6" t="inlineStr">
         <is>
           <t>Sabão Líquido (3L)</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1" s="6">
-      <c r="A70" s="5" t="inlineStr">
+    <row r="70" ht="15" customHeight="1" s="4">
+      <c r="A70" s="6" t="inlineStr">
         <is>
           <t>Sabão Líquido (450mL)</t>
         </is>
       </c>
-      <c r="B70" s="5" t="n">
+      <c r="B70" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1" s="6">
-      <c r="A71" s="5" t="inlineStr">
+    <row r="71" ht="15" customHeight="1" s="4">
+      <c r="A71" s="6" t="inlineStr">
         <is>
           <t>Sabão Líquido (5L)</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1" s="6">
-      <c r="A72" s="5" t="inlineStr">
+    <row r="72" ht="15" customHeight="1" s="4">
+      <c r="A72" s="6" t="inlineStr">
         <is>
           <t>Sabonete Líquido (200mL)</t>
         </is>
       </c>
-      <c r="B72" s="5" t="n">
+      <c r="B72" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="73" ht="15" customHeight="1" s="6">
-      <c r="A73" s="5" t="inlineStr">
+    <row r="73" ht="15" customHeight="1" s="4">
+      <c r="A73" s="6" t="inlineStr">
         <is>
           <t>Sabonete Líquido (250mL)</t>
         </is>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1" s="6">
-      <c r="A74" s="5" t="inlineStr">
+    <row r="74" ht="15" customHeight="1" s="4">
+      <c r="A74" s="6" t="inlineStr">
         <is>
           <t>Sabonete Líquido (500mL)</t>
         </is>
       </c>
-      <c r="B74" s="5" t="n">
+      <c r="B74" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1" s="6">
-      <c r="A75" s="5" t="inlineStr">
+    <row r="75" ht="15" customHeight="1" s="4">
+      <c r="A75" s="6" t="inlineStr">
         <is>
           <t>Shampoo (175 mL)</t>
         </is>
       </c>
-      <c r="B75" s="5" t="n">
+      <c r="B75" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1" s="6">
-      <c r="A76" s="5" t="inlineStr">
+    <row r="76" ht="15" customHeight="1" s="4">
+      <c r="A76" s="6" t="inlineStr">
         <is>
           <t>Shampoo (250mL)</t>
         </is>
       </c>
-      <c r="B76" s="5" t="n">
+      <c r="B76" s="6" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1" s="6">
-      <c r="A77" s="5" t="inlineStr">
+    <row r="77" ht="15" customHeight="1" s="4">
+      <c r="A77" s="6" t="inlineStr">
         <is>
           <t>Shampoo (300mL)</t>
         </is>
       </c>
-      <c r="B77" s="5" t="n">
+      <c r="B77" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" ht="15" customHeight="1" s="6">
-      <c r="A78" s="5" t="inlineStr">
+    <row r="78" ht="15" customHeight="1" s="4">
+      <c r="A78" s="6" t="inlineStr">
         <is>
           <t>Shampoo (325mL)</t>
         </is>
       </c>
-      <c r="B78" s="5" t="n">
+      <c r="B78" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="79" ht="15" customHeight="1" s="6">
-      <c r="A79" s="5" t="inlineStr">
+    <row r="79" ht="15" customHeight="1" s="4">
+      <c r="A79" s="6" t="inlineStr">
         <is>
           <t>Shampoo (350mL)</t>
         </is>
       </c>
-      <c r="B79" s="5" t="n">
+      <c r="B79" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="80" ht="15" customHeight="1" s="6">
-      <c r="A80" s="5" t="inlineStr">
+    <row r="80" ht="15" customHeight="1" s="4">
+      <c r="A80" s="6" t="inlineStr">
         <is>
           <t>Shampoo (400mL)</t>
         </is>
       </c>
     </row>
-    <row r="81" ht="15" customHeight="1" s="6">
-      <c r="A81" s="5" t="inlineStr">
+    <row r="81" ht="15" customHeight="1" s="4">
+      <c r="A81" s="6" t="inlineStr">
         <is>
           <t>Shampoo (425mL)</t>
         </is>
       </c>
-      <c r="B81" s="5" t="n">
+      <c r="B81" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="82" ht="15" customHeight="1" s="6">
-      <c r="A82" s="5" t="inlineStr">
+    <row r="82" ht="15" customHeight="1" s="4">
+      <c r="A82" s="6" t="inlineStr">
         <is>
           <t>Shampoo (500mL)</t>
         </is>
       </c>
-      <c r="B82" s="5" t="n">
+      <c r="B82" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" ht="15" customHeight="1" s="6">
-      <c r="A83" s="5" t="inlineStr">
+    <row r="83" ht="15" customHeight="1" s="4">
+      <c r="A83" s="6" t="inlineStr">
         <is>
           <t>Shampoo e Condicionador (325mL)</t>
         </is>
       </c>
-      <c r="B83" s="5" t="n">
+      <c r="B83" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1" s="6">
-      <c r="A84" s="5" t="inlineStr">
+    <row r="84" ht="15" customHeight="1" s="4">
+      <c r="A84" s="6" t="inlineStr">
         <is>
           <t>Tira Manchas (450mL)</t>
         </is>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1" s="6">
-      <c r="A85" s="5" t="inlineStr">
+    <row r="85" ht="15" customHeight="1" s="4">
+      <c r="A85" s="6" t="inlineStr">
         <is>
           <t>Água Sanitária (2L)</t>
         </is>
       </c>
-      <c r="B85" s="5" t="n">
+      <c r="B85" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -48456,1139 +48470,1118 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="20.27" customWidth="1" style="5" min="1" max="1"/>
-    <col width="14.85" customWidth="1" style="5" min="2" max="2"/>
+    <col width="20.27" customWidth="1" style="6" min="1" max="1"/>
+    <col width="14.85" customWidth="1" style="6" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>se quiser sim</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="4">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Absorvente (08un)</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="4">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Absorvente (10un)</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Absorvente (15un)</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="6" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="4">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Absorvente (16un)</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="6" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="6">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="4">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Absorvente (20un)</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="6" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="6">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="4">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Absorvente (30un)</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="6" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="6">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="4">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Absorvente (32un)</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="6" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="6">
-      <c r="A9" s="5" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="4">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>Absorvente (36un)</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="6" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="6">
-      <c r="A10" s="5" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="4">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Absorvente (40un)</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="6" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="6">
-      <c r="A11" s="5" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="4">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>Absorvente (60un)</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="6" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="6">
-      <c r="A12" s="5" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="4">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Absorvente (80un)</t>
         </is>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="6" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="6">
-      <c r="A13" s="5" t="inlineStr">
+    <row r="13" ht="15" customHeight="1" s="4">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>Aparelho Barbear (2un)</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="6">
-      <c r="A14" s="5" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="4">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>Band Aid (10un)</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="6">
-      <c r="A15" s="5" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="4">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>Band Aid (40un)</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="6">
-      <c r="A16" s="5" t="inlineStr">
+    </row>
+    <row r="16" ht="15" customHeight="1" s="4">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>Bob (8un)</t>
         </is>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="6" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="6">
-      <c r="A17" s="5" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="4">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>Desodorante Spray (02un)</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="6">
-      <c r="A18" s="5" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="4">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>Detergente (6un)</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="6" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="6">
-      <c r="A19" s="5" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="4">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>Escova de Dente (1un)</t>
         </is>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="6" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="6">
-      <c r="A20" s="5" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="4">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>Escova de Dente (2un)</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="6" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="6">
-      <c r="A21" s="5" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="4">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>Escova de Dente (3un)</t>
         </is>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="6" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="6">
-      <c r="A22" s="5" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="4">
+      <c r="A22" s="6" t="inlineStr">
         <is>
           <t>Escova de Dente (4un)</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="6" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="6">
-      <c r="A23" s="5" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="4">
+      <c r="A23" s="6" t="inlineStr">
         <is>
           <t>Escova de Dente (5un)</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="6">
-      <c r="A24" s="5" t="inlineStr">
+    <row r="24" ht="15" customHeight="1" s="4">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>Esponja (1un)</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="6" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="6">
-      <c r="A25" s="5" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="4">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>Esponja (3un)</t>
         </is>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="6" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="6">
-      <c r="A26" s="5" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="4">
+      <c r="A26" s="6" t="inlineStr">
         <is>
           <t>Esponja (4un)</t>
         </is>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="6" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="6">
-      <c r="A27" s="5" t="inlineStr">
+    <row r="27" ht="15" customHeight="1" s="4">
+      <c r="A27" s="6" t="inlineStr">
         <is>
           <t>Filtro de Café (30un)</t>
         </is>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="6" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="6">
-      <c r="A28" s="5" t="inlineStr">
+    <row r="28" ht="15" customHeight="1" s="4">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>Fio Dental</t>
         </is>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="6" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="6">
-      <c r="A29" s="5" t="inlineStr">
+    <row r="29" ht="15" customHeight="1" s="4">
+      <c r="A29" s="6" t="inlineStr">
         <is>
           <t>Fósforo (200un)</t>
         </is>
       </c>
-      <c r="B29" s="5" t="n">
+      <c r="B29" s="6" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="6">
-      <c r="A30" s="5" t="inlineStr">
+    <row r="30" ht="15" customHeight="1" s="4">
+      <c r="A30" s="6" t="inlineStr">
         <is>
           <t>Fósforo (40un)</t>
         </is>
       </c>
-      <c r="B30" s="5" t="n">
+      <c r="B30" s="6" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="6">
-      <c r="A31" s="5" t="inlineStr">
+    <row r="31" ht="15" customHeight="1" s="4">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Fósforo (50un)</t>
         </is>
       </c>
-      <c r="B31" s="5" t="n">
+      <c r="B31" s="6" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="6">
-      <c r="A32" s="5" t="inlineStr">
+    <row r="32" ht="15" customHeight="1" s="4">
+      <c r="A32" s="6" t="inlineStr">
         <is>
           <t>Fósforo Pacote 10 Caixas (40un)</t>
         </is>
       </c>
-      <c r="B32" s="5" t="n">
+      <c r="B32" s="6" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="6">
-      <c r="A33" s="5" t="inlineStr">
+    <row r="33" ht="15" customHeight="1" s="4">
+      <c r="A33" s="6" t="inlineStr">
         <is>
           <t>Absorvente (15un)</t>
         </is>
       </c>
-      <c r="B33" s="5" t="n"/>
-    </row>
-    <row r="34" ht="15" customHeight="1" s="6">
-      <c r="A34" s="5" t="inlineStr">
+    </row>
+    <row r="34" ht="15" customHeight="1" s="4">
+      <c r="A34" s="6" t="inlineStr">
         <is>
           <t>Fraldas Geriátricas (16un)</t>
         </is>
       </c>
-      <c r="B34" s="5" t="n">
+      <c r="B34" s="6" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="6">
-      <c r="A35" s="5" t="inlineStr">
+    <row r="35" ht="15" customHeight="1" s="4">
+      <c r="A35" s="6" t="inlineStr">
         <is>
           <t>Fraldas Geriátricas (18un)</t>
         </is>
       </c>
-      <c r="B35" s="5" t="n"/>
-    </row>
-    <row r="36" ht="15" customHeight="1" s="6">
-      <c r="A36" s="5" t="inlineStr">
+    </row>
+    <row r="36" ht="15" customHeight="1" s="4">
+      <c r="A36" s="6" t="inlineStr">
         <is>
           <t>Fraldas Geriátricas (20un)</t>
         </is>
       </c>
-      <c r="B36" s="5" t="n"/>
-    </row>
-    <row r="37" ht="15" customHeight="1" s="6">
-      <c r="A37" s="5" t="inlineStr">
+    </row>
+    <row r="37" ht="15" customHeight="1" s="4">
+      <c r="A37" s="6" t="inlineStr">
         <is>
           <t>Fraldas Geriátricas (24un)</t>
         </is>
       </c>
-      <c r="B37" s="5" t="n"/>
-    </row>
-    <row r="38" ht="15" customHeight="1" s="6">
-      <c r="A38" s="5" t="inlineStr">
+    </row>
+    <row r="38" ht="15" customHeight="1" s="4">
+      <c r="A38" s="6" t="inlineStr">
         <is>
           <t>Fraldas Geriátricas (30un)</t>
         </is>
       </c>
-      <c r="B38" s="5" t="n">
+      <c r="B38" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" s="6">
-      <c r="A39" s="5" t="inlineStr">
+    <row r="39" ht="15" customHeight="1" s="4">
+      <c r="A39" s="6" t="inlineStr">
         <is>
           <t>Fraldas Geriátricas (7un)</t>
         </is>
       </c>
-      <c r="B39" s="5" t="n">
+      <c r="B39" s="6" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1" s="6">
-      <c r="A40" s="5" t="inlineStr">
+    <row r="40" ht="15" customHeight="1" s="4">
+      <c r="A40" s="6" t="inlineStr">
         <is>
           <t>Fraldas Geriátricas (9un)</t>
         </is>
       </c>
-      <c r="B40" s="5" t="n">
+      <c r="B40" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1" s="6">
-      <c r="A41" s="5" t="inlineStr">
+    <row r="41" ht="15" customHeight="1" s="4">
+      <c r="A41" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (12un)</t>
         </is>
       </c>
-      <c r="B41" s="5" t="n">
+      <c r="B41" s="6" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" s="6">
-      <c r="A42" s="5" t="inlineStr">
+    <row r="42" ht="15" customHeight="1" s="4">
+      <c r="A42" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (14un)</t>
         </is>
       </c>
-      <c r="B42" s="5" t="n">
+      <c r="B42" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" s="6">
-      <c r="A43" s="5" t="inlineStr">
+    <row r="43" ht="15" customHeight="1" s="4">
+      <c r="A43" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (16un)</t>
         </is>
       </c>
-      <c r="B43" s="5" t="n">
+      <c r="B43" s="6" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1" s="6">
-      <c r="A44" s="5" t="inlineStr">
+    <row r="44" ht="15" customHeight="1" s="4">
+      <c r="A44" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (18un)</t>
         </is>
       </c>
-      <c r="B44" s="5" t="n">
+      <c r="B44" s="6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" s="6">
-      <c r="A45" s="5" t="inlineStr">
+    <row r="45" ht="15" customHeight="1" s="4">
+      <c r="A45" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (20un)</t>
         </is>
       </c>
-      <c r="B45" s="5" t="n">
+      <c r="B45" s="6" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1" s="6">
-      <c r="A46" s="5" t="inlineStr">
+    <row r="46" ht="15" customHeight="1" s="4">
+      <c r="A46" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (22un)</t>
         </is>
       </c>
-      <c r="B46" s="5" t="n">
+      <c r="B46" s="6" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1" s="6">
-      <c r="A47" s="5" t="inlineStr">
+    <row r="47" ht="15" customHeight="1" s="4">
+      <c r="A47" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (24un)</t>
         </is>
       </c>
-      <c r="B47" s="5" t="n">
+      <c r="B47" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1" s="6">
-      <c r="A48" s="5" t="inlineStr">
+    <row r="48" ht="15" customHeight="1" s="4">
+      <c r="A48" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (26un)</t>
         </is>
       </c>
-      <c r="B48" s="5" t="n">
+      <c r="B48" s="6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1" s="6">
-      <c r="A49" s="5" t="inlineStr">
+    <row r="49" ht="15" customHeight="1" s="4">
+      <c r="A49" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (28un)</t>
         </is>
       </c>
-      <c r="B49" s="5" t="n">
+      <c r="B49" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1" s="6">
-      <c r="A50" s="5" t="inlineStr">
+    <row r="50" ht="15" customHeight="1" s="4">
+      <c r="A50" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (30un)</t>
         </is>
       </c>
-      <c r="B50" s="5" t="n">
+      <c r="B50" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1" s="6">
-      <c r="A51" s="5" t="inlineStr">
+    <row r="51" ht="15" customHeight="1" s="4">
+      <c r="A51" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (32un)</t>
         </is>
       </c>
-      <c r="B51" s="5" t="n"/>
-    </row>
-    <row r="52" ht="15" customHeight="1" s="6">
-      <c r="A52" s="5" t="inlineStr">
+    </row>
+    <row r="52" ht="15" customHeight="1" s="4">
+      <c r="A52" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (34un)</t>
         </is>
       </c>
-      <c r="B52" s="5" t="n">
+      <c r="B52" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1" s="6">
-      <c r="A53" s="5" t="inlineStr">
+    <row r="53" ht="15" customHeight="1" s="4">
+      <c r="A53" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (36un)</t>
         </is>
       </c>
-      <c r="B53" s="5" t="n">
+      <c r="B53" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1" s="6">
-      <c r="A54" s="5" t="inlineStr">
+    <row r="54" ht="15" customHeight="1" s="4">
+      <c r="A54" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (38un)</t>
         </is>
       </c>
-      <c r="B54" s="5" t="n">
+      <c r="B54" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1" s="6">
-      <c r="A55" s="5" t="inlineStr">
+    <row r="55" ht="15" customHeight="1" s="4">
+      <c r="A55" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (40un)</t>
         </is>
       </c>
-      <c r="B55" s="5" t="n">
+      <c r="B55" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" s="6">
-      <c r="A56" s="5" t="inlineStr">
+    <row r="56" ht="15" customHeight="1" s="4">
+      <c r="A56" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (42un)</t>
         </is>
       </c>
-      <c r="B56" s="5" t="n">
+      <c r="B56" s="6" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1" s="6">
-      <c r="A57" s="5" t="inlineStr">
+    <row r="57" ht="15" customHeight="1" s="4">
+      <c r="A57" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (44un)</t>
         </is>
       </c>
-      <c r="B57" s="5" t="n">
+      <c r="B57" s="6" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1" s="6">
-      <c r="A58" s="5" t="inlineStr">
+    <row r="58" ht="15" customHeight="1" s="4">
+      <c r="A58" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (46un)</t>
         </is>
       </c>
-      <c r="B58" s="5" t="n">
+      <c r="B58" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1" s="6">
-      <c r="A59" s="5" t="inlineStr">
+    <row r="59" ht="15" customHeight="1" s="4">
+      <c r="A59" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (48un)</t>
         </is>
       </c>
-      <c r="B59" s="5" t="n"/>
-    </row>
-    <row r="60" ht="15" customHeight="1" s="6">
-      <c r="A60" s="5" t="inlineStr">
+    </row>
+    <row r="60" ht="15" customHeight="1" s="4">
+      <c r="A60" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (50un)</t>
         </is>
       </c>
-      <c r="B60" s="5" t="n"/>
-    </row>
-    <row r="61" ht="15" customHeight="1" s="6">
-      <c r="A61" s="5" t="inlineStr">
+    </row>
+    <row r="61" ht="15" customHeight="1" s="4">
+      <c r="A61" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (52un)</t>
         </is>
       </c>
-      <c r="B61" s="5" t="n"/>
-    </row>
-    <row r="62" ht="15" customHeight="1" s="6">
-      <c r="A62" s="5" t="inlineStr">
+    </row>
+    <row r="62" ht="15" customHeight="1" s="4">
+      <c r="A62" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (56un)</t>
         </is>
       </c>
-      <c r="B62" s="5" t="n">
+      <c r="B62" s="6" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1" s="6">
-      <c r="A63" s="5" t="inlineStr">
+    <row r="63" ht="15" customHeight="1" s="4">
+      <c r="A63" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (58un)</t>
         </is>
       </c>
-      <c r="B63" s="5" t="n">
+      <c r="B63" s="6" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1" s="6">
-      <c r="A64" s="5" t="inlineStr">
+    <row r="64" ht="15" customHeight="1" s="4">
+      <c r="A64" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (60un)</t>
         </is>
       </c>
-      <c r="B64" s="5" t="n">
+      <c r="B64" s="6" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1" s="6">
-      <c r="A65" s="5" t="inlineStr">
+    <row r="65" ht="15" customHeight="1" s="4">
+      <c r="A65" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (70un)</t>
         </is>
       </c>
-      <c r="B65" s="5" t="n">
+      <c r="B65" s="6" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="66" ht="15" customHeight="1" s="6">
-      <c r="A66" s="5" t="inlineStr">
+    <row r="66" ht="15" customHeight="1" s="4">
+      <c r="A66" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (7un)</t>
         </is>
       </c>
-      <c r="B66" s="5" t="n">
+      <c r="B66" s="6" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1" s="6">
-      <c r="A67" s="5" t="inlineStr">
+    <row r="67" ht="15" customHeight="1" s="4">
+      <c r="A67" s="6" t="inlineStr">
         <is>
           <t>Fraldas Infantis (8un)</t>
         </is>
       </c>
-      <c r="B67" s="5" t="n">
+      <c r="B67" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1" s="6">
-      <c r="A68" s="5" t="inlineStr">
+    <row r="68" ht="15" customHeight="1" s="4">
+      <c r="A68" s="6" t="inlineStr">
         <is>
           <t>Hastes Flexíveis (75un)</t>
         </is>
       </c>
-      <c r="B68" s="5" t="inlineStr">
+      <c r="B68" s="6" t="inlineStr">
         <is>
           <t>1 caixa com 75un</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1" s="6">
-      <c r="A69" s="5" t="inlineStr">
+    <row r="69" ht="15" customHeight="1" s="4">
+      <c r="A69" s="6" t="inlineStr">
         <is>
           <t>Gaze</t>
         </is>
       </c>
-      <c r="B69" s="5" t="n">
+      <c r="B69" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1" s="6">
-      <c r="A70" s="5" t="inlineStr">
+    <row r="70" ht="15" customHeight="1" s="4">
+      <c r="A70" s="6" t="inlineStr">
         <is>
           <t>Guardanapo</t>
         </is>
       </c>
-      <c r="B70" s="5" t="n">
+      <c r="B70" s="6" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1" s="6">
-      <c r="A71" s="5" t="inlineStr">
+    <row r="71" ht="15" customHeight="1" s="4">
+      <c r="A71" s="6" t="inlineStr">
         <is>
           <t>Kit Shampoo e Condicionador</t>
         </is>
       </c>
-      <c r="B71" s="5" t="n">
+      <c r="B71" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1" s="6">
-      <c r="A72" s="5" t="inlineStr">
+    <row r="72" ht="15" customHeight="1" s="4">
+      <c r="A72" s="6" t="inlineStr">
         <is>
           <t>Lâmina de Barbear (1un)</t>
         </is>
       </c>
-      <c r="B72" s="5" t="n">
+      <c r="B72" s="6" t="n">
         <v>0.09</v>
       </c>
     </row>
-    <row r="73" ht="15" customHeight="1" s="6">
-      <c r="A73" s="5" t="inlineStr">
+    <row r="73" ht="15" customHeight="1" s="4">
+      <c r="A73" s="6" t="inlineStr">
         <is>
           <t>Lâmina de Barbear (2un)</t>
         </is>
       </c>
-      <c r="B73" s="5" t="n">
+      <c r="B73" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1" s="6">
-      <c r="A74" s="5" t="inlineStr">
+    <row r="74" ht="15" customHeight="1" s="4">
+      <c r="A74" s="6" t="inlineStr">
         <is>
           <t>Lâmina de Barbear (3un)</t>
         </is>
       </c>
-      <c r="B74" s="5" t="n"/>
-    </row>
-    <row r="75" ht="15" customHeight="1" s="6">
-      <c r="A75" s="5" t="inlineStr">
+    </row>
+    <row r="75" ht="15" customHeight="1" s="4">
+      <c r="A75" s="6" t="inlineStr">
         <is>
           <t>Lâmina de Barbear (4un)</t>
         </is>
       </c>
-      <c r="B75" s="5" t="n">
+      <c r="B75" s="6" t="n">
         <v>0.9</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1" s="6">
-      <c r="A76" s="5" t="inlineStr">
+    <row r="76" ht="15" customHeight="1" s="4">
+      <c r="A76" s="6" t="inlineStr">
         <is>
           <t>Lâmina de Barbear (5un)</t>
         </is>
       </c>
-      <c r="B76" s="5" t="n"/>
-    </row>
-    <row r="77" ht="15" customHeight="1" s="6">
-      <c r="A77" s="5" t="inlineStr">
+    </row>
+    <row r="77" ht="15" customHeight="1" s="4">
+      <c r="A77" s="6" t="inlineStr">
         <is>
           <t>Lâmina de Barbear (7un)</t>
         </is>
       </c>
-      <c r="B77" s="5" t="n">
+      <c r="B77" s="6" t="n">
         <v>0.45</v>
       </c>
     </row>
-    <row r="78" ht="15" customHeight="1" s="6">
-      <c r="A78" s="5" t="inlineStr">
+    <row r="78" ht="15" customHeight="1" s="4">
+      <c r="A78" s="6" t="inlineStr">
         <is>
           <t>Lâmina de Barbear (8un)</t>
         </is>
       </c>
-      <c r="B78" s="5" t="n"/>
-    </row>
-    <row r="79" ht="15" customHeight="1" s="6">
-      <c r="A79" s="5" t="inlineStr">
+    </row>
+    <row r="79" ht="15" customHeight="1" s="4">
+      <c r="A79" s="6" t="inlineStr">
         <is>
           <t>Lâmina Refil (2un)</t>
         </is>
       </c>
-      <c r="B79" s="5" t="n">
+      <c r="B79" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="80" ht="15" customHeight="1" s="6">
-      <c r="A80" s="5" t="inlineStr">
+    <row r="80" ht="15" customHeight="1" s="4">
+      <c r="A80" s="6" t="inlineStr">
         <is>
           <t>Lâmina Refil (4un)</t>
         </is>
       </c>
-      <c r="B80" s="5" t="n">
+      <c r="B80" s="6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="81" ht="15" customHeight="1" s="6">
-      <c r="A81" s="5" t="inlineStr">
+    <row r="81" ht="15" customHeight="1" s="4">
+      <c r="A81" s="6" t="inlineStr">
         <is>
           <t>Lâmina Refil (5un)</t>
         </is>
       </c>
-      <c r="B81" s="5" t="n">
+      <c r="B81" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="82" ht="15" customHeight="1" s="6">
-      <c r="A82" s="5" t="inlineStr">
+    <row r="82" ht="15" customHeight="1" s="4">
+      <c r="A82" s="6" t="inlineStr">
         <is>
           <t>Lenços de Papel (50un)</t>
         </is>
       </c>
-      <c r="B82" s="5" t="n">
+      <c r="B82" s="6" t="n">
         <v>2.8</v>
       </c>
     </row>
-    <row r="83" ht="15" customHeight="1" s="6">
-      <c r="A83" s="5" t="inlineStr">
+    <row r="83" ht="15" customHeight="1" s="4">
+      <c r="A83" s="6" t="inlineStr">
         <is>
           <t>Lenços Papel (100un)</t>
         </is>
       </c>
-      <c r="B83" s="5" t="n">
+      <c r="B83" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1" s="6">
-      <c r="A84" s="5" t="inlineStr">
+    <row r="84" ht="15" customHeight="1" s="4">
+      <c r="A84" s="6" t="inlineStr">
         <is>
           <t>Lenços Umedecidos (40un)</t>
         </is>
       </c>
-      <c r="B84" s="5" t="n">
+      <c r="B84" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1" s="6">
-      <c r="A85" s="5" t="inlineStr">
+    <row r="85" ht="15" customHeight="1" s="4">
+      <c r="A85" s="6" t="inlineStr">
         <is>
           <t>Lenços Umedecidos (48 un)</t>
         </is>
       </c>
-      <c r="B85" s="5" t="n">
+      <c r="B85" s="6" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="86" ht="15" customHeight="1" s="6">
-      <c r="A86" s="5" t="inlineStr">
+    <row r="86" ht="15" customHeight="1" s="4">
+      <c r="A86" s="6" t="inlineStr">
         <is>
           <t>Lenços Umedecidos (75un)</t>
         </is>
       </c>
-      <c r="B86" s="5" t="n">
+      <c r="B86" s="6" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="87" ht="15" customHeight="1" s="6">
-      <c r="A87" s="5" t="inlineStr">
+    <row r="87" ht="15" customHeight="1" s="4">
+      <c r="A87" s="6" t="inlineStr">
         <is>
           <t>Limpa Vidros</t>
         </is>
       </c>
-      <c r="B87" s="5" t="n">
+      <c r="B87" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="88" ht="15" customHeight="1" s="6">
-      <c r="A88" s="5" t="inlineStr">
+    <row r="88" ht="15" customHeight="1" s="4">
+      <c r="A88" s="6" t="inlineStr">
         <is>
           <t>Loção Pós-Barba</t>
         </is>
       </c>
-      <c r="B88" s="5" t="n">
+      <c r="B88" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="89" ht="15" customHeight="1" s="6">
-      <c r="A89" s="5" t="inlineStr">
+    <row r="89" ht="15" customHeight="1" s="4">
+      <c r="A89" s="6" t="inlineStr">
         <is>
           <t>Pano de Limpeza (5un)</t>
         </is>
       </c>
-      <c r="B89" s="5" t="n">
+      <c r="B89" s="6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="90" ht="15" customHeight="1" s="6">
-      <c r="A90" s="5" t="inlineStr">
+    <row r="90" ht="15" customHeight="1" s="4">
+      <c r="A90" s="6" t="inlineStr">
         <is>
           <t>Papel Higiênico (12un)</t>
         </is>
       </c>
-      <c r="B90" s="5" t="n">
+      <c r="B90" s="6" t="n">
         <v>0.325</v>
       </c>
     </row>
-    <row r="91" ht="15" customHeight="1" s="6">
-      <c r="A91" s="5" t="inlineStr">
+    <row r="91" ht="15" customHeight="1" s="4">
+      <c r="A91" s="6" t="inlineStr">
         <is>
           <t>Papel Higiênico (16un)</t>
         </is>
       </c>
-      <c r="B91" s="5" t="n">
+      <c r="B91" s="6" t="n">
         <v>0.35</v>
       </c>
     </row>
-    <row r="92" ht="15" customHeight="1" s="6">
-      <c r="A92" s="5" t="inlineStr">
+    <row r="92" ht="15" customHeight="1" s="4">
+      <c r="A92" s="6" t="inlineStr">
         <is>
           <t>Papel Higiênico (24un)</t>
         </is>
       </c>
-      <c r="B92" s="5" t="n"/>
-    </row>
-    <row r="93" ht="15" customHeight="1" s="6">
-      <c r="A93" s="5" t="inlineStr">
+    </row>
+    <row r="93" ht="15" customHeight="1" s="4">
+      <c r="A93" s="6" t="inlineStr">
         <is>
           <t>Papel Higiênico (44uni)</t>
         </is>
       </c>
-      <c r="B93" s="5" t="n">
+      <c r="B93" s="6" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="94" ht="15" customHeight="1" s="6">
-      <c r="A94" s="5" t="inlineStr">
+    <row r="94" ht="15" customHeight="1" s="4">
+      <c r="A94" s="6" t="inlineStr">
         <is>
           <t>Papel Higiênico (4un)</t>
         </is>
       </c>
-      <c r="B94" s="5" t="n">
+      <c r="B94" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="95" ht="15" customHeight="1" s="6">
-      <c r="A95" s="5" t="inlineStr">
+    <row r="95" ht="15" customHeight="1" s="4">
+      <c r="A95" s="6" t="inlineStr">
         <is>
           <t>Papel Higiênico (8un)</t>
         </is>
       </c>
-      <c r="B95" s="5" t="n">
+      <c r="B95" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="96" ht="15" customHeight="1" s="6">
-      <c r="A96" s="5" t="inlineStr">
+    <row r="96" ht="15" customHeight="1" s="4">
+      <c r="A96" s="6" t="inlineStr">
         <is>
           <t>Papel Toalha (12un)</t>
         </is>
       </c>
-      <c r="B96" s="5" t="n">
+      <c r="B96" s="6" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="1" s="6">
-      <c r="A97" s="5" t="inlineStr">
+    <row r="97" ht="15" customHeight="1" s="4">
+      <c r="A97" s="6" t="inlineStr">
         <is>
           <t>Papel Toalha (2un)</t>
         </is>
       </c>
-      <c r="B97" s="5" t="n">
+      <c r="B97" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" ht="15" customHeight="1" s="6">
-      <c r="A98" s="5" t="inlineStr">
+    <row r="98" ht="15" customHeight="1" s="4">
+      <c r="A98" s="6" t="inlineStr">
         <is>
           <t>Pregadores (10un)</t>
         </is>
       </c>
-      <c r="B98" s="5" t="n">
+      <c r="B98" s="6" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="99" ht="15" customHeight="1" s="6">
-      <c r="A99" s="5" t="inlineStr">
+    <row r="99" ht="15" customHeight="1" s="4">
+      <c r="A99" s="6" t="inlineStr">
         <is>
           <t>Sabão em Barra (5un)</t>
         </is>
       </c>
-      <c r="B99" s="5" t="n"/>
-    </row>
-    <row r="100" ht="15" customHeight="1" s="6">
-      <c r="A100" s="5" t="inlineStr">
+    </row>
+    <row r="100" ht="15" customHeight="1" s="4">
+      <c r="A100" s="6" t="inlineStr">
         <is>
           <t>Sabão em Barra (1un)</t>
         </is>
       </c>
-      <c r="B100" s="5" t="n"/>
-    </row>
-    <row r="101" ht="15" customHeight="1" s="6">
-      <c r="A101" s="5" t="inlineStr">
+    </row>
+    <row r="101" ht="15" customHeight="1" s="4">
+      <c r="A101" s="6" t="inlineStr">
         <is>
           <t>Sabonete (3un)</t>
         </is>
       </c>
-      <c r="B101" s="5" t="n"/>
-    </row>
-    <row r="102" ht="15" customHeight="1" s="6">
-      <c r="A102" s="5" t="inlineStr">
+    </row>
+    <row r="102" ht="15" customHeight="1" s="4">
+      <c r="A102" s="6" t="inlineStr">
         <is>
           <t>Sabonete (4un)</t>
         </is>
       </c>
-      <c r="B102" s="5" t="n"/>
-    </row>
-    <row r="103" ht="15" customHeight="1" s="6">
-      <c r="A103" s="5" t="inlineStr">
+    </row>
+    <row r="103" ht="15" customHeight="1" s="4">
+      <c r="A103" s="6" t="inlineStr">
         <is>
           <t>Sabonete (6un)</t>
         </is>
       </c>
-      <c r="B103" s="5" t="n"/>
-    </row>
-    <row r="104" ht="15" customHeight="1" s="6">
-      <c r="A104" s="5" t="inlineStr">
+    </row>
+    <row r="104" ht="15" customHeight="1" s="4">
+      <c r="A104" s="6" t="inlineStr">
         <is>
           <t>Sabonete (8un)</t>
         </is>
       </c>
-      <c r="B104" s="5" t="n">
+      <c r="B104" s="6" t="n">
         <v>0.68</v>
       </c>
     </row>
-    <row r="105" ht="15" customHeight="1" s="6">
-      <c r="A105" s="5" t="inlineStr">
+    <row r="105" ht="15" customHeight="1" s="4">
+      <c r="A105" s="6" t="inlineStr">
         <is>
           <t>Saco de Lixo 100L (5un)</t>
         </is>
       </c>
-      <c r="B105" s="5" t="n">
+      <c r="B105" s="6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="106" ht="15" customHeight="1" s="6">
-      <c r="A106" s="5" t="inlineStr">
+    <row r="106" ht="15" customHeight="1" s="4">
+      <c r="A106" s="6" t="inlineStr">
         <is>
           <t>Saco de Lixo 15L (100un)</t>
         </is>
       </c>
-      <c r="B106" s="5" t="n">
+      <c r="B106" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="107" ht="15" customHeight="1" s="6">
-      <c r="A107" s="5" t="inlineStr">
+    <row r="107" ht="15" customHeight="1" s="4">
+      <c r="A107" s="6" t="inlineStr">
         <is>
           <t>Saco de Lixo 15L (20un)</t>
         </is>
       </c>
-      <c r="B107" s="5" t="n"/>
-    </row>
-    <row r="108" ht="15" customHeight="1" s="6">
-      <c r="A108" s="5" t="inlineStr">
+    </row>
+    <row r="108" ht="15" customHeight="1" s="4">
+      <c r="A108" s="6" t="inlineStr">
         <is>
           <t>Saco de Lixo 15L (6un)</t>
         </is>
       </c>
-      <c r="B108" s="5" t="n">
+      <c r="B108" s="6" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="109" ht="15" customHeight="1" s="6">
-      <c r="A109" s="5" t="inlineStr">
+    <row r="109" ht="15" customHeight="1" s="4">
+      <c r="A109" s="6" t="inlineStr">
         <is>
           <t>Saco de Lixo 30L (50un)</t>
         </is>
       </c>
-      <c r="B109" s="5" t="n">
+      <c r="B109" s="6" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="110" ht="15" customHeight="1" s="6">
-      <c r="A110" s="5" t="inlineStr">
+    <row r="110" ht="15" customHeight="1" s="4">
+      <c r="A110" s="6" t="inlineStr">
         <is>
           <t>Saco de Lixo 50L (10un)</t>
         </is>
       </c>
-      <c r="B110" s="5" t="n">
+      <c r="B110" s="6" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="111" ht="15" customHeight="1" s="6">
-      <c r="A111" s="5" t="inlineStr">
+    <row r="111" ht="15" customHeight="1" s="4">
+      <c r="A111" s="6" t="inlineStr">
         <is>
           <t>Desodorante Creme</t>
         </is>
       </c>
-      <c r="B111" s="5" t="n">
+      <c r="B111" s="6" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="112" ht="15" customHeight="1" s="6">
-      <c r="A112" s="5" t="inlineStr">
+    <row r="112" ht="15" customHeight="1" s="4">
+      <c r="A112" s="6" t="inlineStr">
         <is>
           <t>Desodorante Rollon</t>
         </is>
       </c>
-      <c r="B112" s="5" t="n">
+      <c r="B112" s="6" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="113" ht="15" customHeight="1" s="6">
-      <c r="A113" s="5" t="inlineStr">
+    <row r="113" ht="15" customHeight="1" s="4">
+      <c r="A113" s="6" t="inlineStr">
         <is>
           <t>Desodorante Spray</t>
         </is>
       </c>
-      <c r="B113" s="5" t="n"/>
-    </row>
-    <row r="114" ht="15" customHeight="1" s="6">
-      <c r="A114" s="5" t="inlineStr">
+    </row>
+    <row r="114" ht="15" customHeight="1" s="4">
+      <c r="A114" s="6" t="inlineStr">
         <is>
           <t>Detergente Concentrado</t>
         </is>
       </c>
-      <c r="B114" s="5" t="n">
+      <c r="B114" s="6" t="n">
         <v>0.416</v>
       </c>
     </row>
-    <row r="115" ht="15" customHeight="1" s="6">
-      <c r="A115" s="5" t="inlineStr">
+    <row r="115" ht="15" customHeight="1" s="4">
+      <c r="A115" s="6" t="inlineStr">
         <is>
           <t>Papel Manteiga (7,5m)</t>
         </is>
       </c>
-      <c r="B115" s="5" t="n">
+      <c r="B115" s="6" t="n">
         <v>7.5</v>
       </c>
     </row>
-    <row r="116" ht="15" customHeight="1" s="6">
-      <c r="A116" s="5" t="inlineStr">
+    <row r="116" ht="15" customHeight="1" s="4">
+      <c r="A116" s="6" t="inlineStr">
         <is>
           <t>SBP</t>
         </is>
       </c>
-      <c r="B116" s="5" t="n"/>
-    </row>
-    <row r="117" ht="15" customHeight="1" s="6">
-      <c r="A117" s="5" t="inlineStr">
+    </row>
+    <row r="117" ht="15" customHeight="1" s="4">
+      <c r="A117" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Papel Higiênico 12 rolos </t>
         </is>
       </c>
-      <c r="B117" s="5" t="n">
+      <c r="B117" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49607,416 +49600,445 @@
   </sheetPr>
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="19.84" customWidth="1" style="5" min="2" max="2"/>
+    <col width="46.94" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.84" customWidth="1" style="6" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>kg/embalagem</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="4">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Desodorante (50g)</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="6" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="4">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>Desodorante (90g)</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>esponja lã de aço (45g)</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="4">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>Lava Roupas em Pó (1kg)</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>Desodorante (90g)</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="n">
+    <row r="6" ht="15" customHeight="1" s="4">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Lava Roupas em Pó (800g)</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="4">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>Pasta de Dente (100g)</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="4">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Pasta de Dente (120g)</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="4">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>Pasta de Dente (140g)</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="4">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Pasta de Dente (180g)</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="4">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Pasta de Dente (30g)</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="4">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Pasta de Dente (50g)</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="4">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Pasta de Dente (70g)</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="4">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Pasta de Dente (90g)</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="4">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Pasta de Dente Pacote 3 Unidades (70g)</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="4">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Polvilho Antisséptico (100g)</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="4">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>Sabao em Pó (1,6kg)</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="4">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Sabão em Pó (1kg)</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>esponja lã de aço (45g)</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>45g</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Lava Roupas em Pó (1kg)</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="6">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Lava Roupas em Pó (800g)</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="6">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Pasta de Dente (100g)</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="6">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Pasta de Dente (120g)</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="6">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Pasta de Dente (140g)</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="6">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>Pasta de Dente (180g)</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="n">
+    <row r="19" ht="15" customHeight="1" s="4">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>Sabão em Pó (2,8kg)</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="4">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>Sabão em Pó (2kg)</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="4">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>Sabão em Pó (3kg)</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="4">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>Sabão em Pó (400g)</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="4">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>Sabão em Pó (420g)</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="4">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>Sabão em Pó (800g)</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="4">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>Sabão em Pó (850g)</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="4">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>Sabonete (100g)</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="4">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Sabonete (125g)</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="4">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>Sabonete (150g)</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="4">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>Sabonete (180g)</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="4">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>Sabonete (200g)</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="6">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Pasta de Dente (30g)</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="6">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>Pasta de Dente (50g)</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="n">
+    <row r="31" ht="15" customHeight="1" s="4">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>Sabonete (75g)</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="n">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="4">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>Sabonete (80g)</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="4">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>Sabonete (84g)</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1" s="4">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>Sabonete (85g)</t>
+        </is>
+      </c>
+      <c r="B34" s="6" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" s="4">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>Sabonete (90g)</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1" s="4">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>Sanitizante para Tecidos e Roupas (800g)</t>
+        </is>
+      </c>
+      <c r="B36" s="6" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1" s="4">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>Talco (100g)</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" s="4">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>Talco (200g)</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" s="4">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>Tira Manchas (450g)</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="n">
         <v>0.45</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="6">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>Pasta de Dente (70g)</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="6">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Pasta de Dente (90g)</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="6">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>Pasta de Dente Pacote 3 Unidades (70g)</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="6">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>Polvilho Antisséptico (100g)</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="6">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>Sabao em Pó (1,6kg)</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="n">
+    <row r="40" ht="15" customHeight="1" s="4">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>Vanish (400g)</t>
+        </is>
+      </c>
+      <c r="B40" s="6" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" s="4">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Sabão em pó (1,6kg)</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="n">
         <v>1.6</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="6">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>Sabão em Pó (1kg)</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="6">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>Sabão em Pó (2,8kg)</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="6">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>Sabão em Pó (2kg)</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="6">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>Sabão em Pó (3kg)</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="6">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>Sabão em Pó (400g)</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="6">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>Sabão em Pó (420g)</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="6">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>Sabão em Pó (800g)</t>
-        </is>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="6">
-      <c r="A25" s="5" t="inlineStr">
-        <is>
-          <t>Sabão em Pó (850g)</t>
-        </is>
-      </c>
-      <c r="B25" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="6">
-      <c r="A26" s="5" t="inlineStr">
-        <is>
-          <t>Sabonete (100g)</t>
-        </is>
-      </c>
-      <c r="B26" s="5" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="6">
-      <c r="A27" s="5" t="inlineStr">
-        <is>
-          <t>Sabonete (125g)</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="n"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="6">
-      <c r="A28" s="5" t="inlineStr">
-        <is>
-          <t>Sabonete (150g)</t>
-        </is>
-      </c>
-      <c r="B28" s="5" t="n"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="6">
-      <c r="A29" s="5" t="inlineStr">
-        <is>
-          <t>Sabonete (180g)</t>
-        </is>
-      </c>
-      <c r="B29" s="5" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="6">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t>Sabonete (200g)</t>
-        </is>
-      </c>
-      <c r="B30" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="6">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>Sabonete (75g)</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="6">
-      <c r="A32" s="5" t="inlineStr">
-        <is>
-          <t>Sabonete (80g)</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="6">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>Sabonete (84g)</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="n"/>
-    </row>
-    <row r="34" ht="15" customHeight="1" s="6">
-      <c r="A34" s="5" t="inlineStr">
-        <is>
-          <t>Sabonete (85g)</t>
-        </is>
-      </c>
-      <c r="B34" s="5" t="n"/>
-    </row>
-    <row r="35" ht="15" customHeight="1" s="6">
-      <c r="A35" s="5" t="inlineStr">
-        <is>
-          <t>Sabonete (90g)</t>
-        </is>
-      </c>
-      <c r="B35" s="5" t="n"/>
-    </row>
-    <row r="36" ht="15" customHeight="1" s="6">
-      <c r="A36" s="5" t="inlineStr">
-        <is>
-          <t>Sanitizante para Tecidos e Roupas (800g)</t>
-        </is>
-      </c>
-      <c r="B36" s="5" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1" s="6">
-      <c r="A37" s="5" t="inlineStr">
-        <is>
-          <t>Talco (100g)</t>
-        </is>
-      </c>
-      <c r="B37" s="5" t="n"/>
-    </row>
-    <row r="38" ht="15" customHeight="1" s="6">
-      <c r="A38" s="5" t="inlineStr">
-        <is>
-          <t>Talco (200g)</t>
-        </is>
-      </c>
-      <c r="B38" s="5" t="n"/>
-    </row>
-    <row r="39" ht="15" customHeight="1" s="6">
-      <c r="A39" s="5" t="inlineStr">
-        <is>
-          <t>Tira Manchas (450g)</t>
-        </is>
-      </c>
-      <c r="B39" s="5" t="n"/>
-    </row>
-    <row r="40" ht="15" customHeight="1" s="6">
-      <c r="A40" s="5" t="inlineStr">
-        <is>
-          <t>Vanish (400g)</t>
-        </is>
-      </c>
-      <c r="B40" s="5" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1" s="6">
-      <c r="A41" s="5" t="inlineStr">
-        <is>
-          <t>Sabão em pó (1,6kg)</t>
-        </is>
-      </c>
-      <c r="B41" s="5" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="42" ht="15" customHeight="1" s="6">
-      <c r="A42" s="5" t="inlineStr">
+    <row r="42" ht="15" customHeight="1" s="4">
+      <c r="A42" s="6" t="inlineStr">
         <is>
           <t>esponja de lã de aço 45g</t>
         </is>
       </c>
-      <c r="B42" s="5" t="n">
+      <c r="B42" s="6" t="n">
         <v>0.045</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" s="6">
-      <c r="A43" s="5" t="inlineStr">
+    <row r="43" ht="15" customHeight="1" s="4">
+      <c r="A43" s="6" t="inlineStr">
         <is>
           <t>Sabão em pó (800g)</t>
         </is>
       </c>
-      <c r="B43" s="5" t="n">
+      <c r="B43" s="6" t="n">
         <v>0.8</v>
       </c>
     </row>
